--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="303">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -918,6 +918,12 @@
   <si>
     <t>['47']</t>
   </si>
+  <si>
+    <t>['43', '45+2', '50']</t>
+  </si>
+  <si>
+    <t>['34', '48', '81']</t>
+  </si>
 </sst>
 </file>
 
@@ -1278,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP204"/>
+  <dimension ref="A1:BP207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3263,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ10">
         <v>1.29</v>
@@ -3678,7 +3684,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ12">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3884,7 +3890,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ13">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR13">
         <v>1.83</v>
@@ -4090,7 +4096,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ14">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR14">
         <v>1.21</v>
@@ -4499,7 +4505,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AQ16">
         <v>2.07</v>
@@ -5735,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ22">
         <v>1.43</v>
@@ -5941,7 +5947,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AQ23">
         <v>0.73</v>
@@ -6353,10 +6359,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ25">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR25">
         <v>0.98</v>
@@ -6562,7 +6568,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ26">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR26">
         <v>1.48</v>
@@ -7180,7 +7186,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ29">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -8619,7 +8625,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ36">
         <v>1.53</v>
@@ -9034,7 +9040,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ38">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -9240,7 +9246,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ39">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR39">
         <v>1.2</v>
@@ -10061,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AQ43">
         <v>0.86</v>
@@ -10270,7 +10276,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ44">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.35</v>
@@ -10885,7 +10891,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ47">
         <v>1.2</v>
@@ -11091,7 +11097,7 @@
         <v>1.67</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ48">
         <v>1.36</v>
@@ -11918,7 +11924,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ52">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -12121,7 +12127,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AQ53">
         <v>1.36</v>
@@ -12330,7 +12336,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ54">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR54">
         <v>2.03</v>
@@ -13154,7 +13160,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR58">
         <v>1.3</v>
@@ -13563,7 +13569,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ60">
         <v>1.53</v>
@@ -14387,7 +14393,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ64">
         <v>1.73</v>
@@ -14799,10 +14805,10 @@
         <v>1.75</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ66">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR66">
         <v>1.31</v>
@@ -15008,7 +15014,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ67">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR67">
         <v>1.46</v>
@@ -15623,7 +15629,7 @@
         <v>2.5</v>
       </c>
       <c r="AP70">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AQ70">
         <v>1.93</v>
@@ -16241,7 +16247,7 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ73">
         <v>1.73</v>
@@ -16862,7 +16868,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ76">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR76">
         <v>1.06</v>
@@ -17477,7 +17483,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ79">
         <v>0.86</v>
@@ -17683,7 +17689,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AQ80">
         <v>1.2</v>
@@ -17892,7 +17898,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ81">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR81">
         <v>1.51</v>
@@ -18716,7 +18722,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ85">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR85">
         <v>1.32</v>
@@ -19128,7 +19134,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ87">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR87">
         <v>1.2</v>
@@ -19537,7 +19543,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ89">
         <v>1.36</v>
@@ -20364,7 +20370,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ93">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR93">
         <v>1.95</v>
@@ -20773,7 +20779,7 @@
         <v>2.67</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ95">
         <v>1.93</v>
@@ -21391,10 +21397,10 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AQ98">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR98">
         <v>1.1</v>
@@ -21597,10 +21603,10 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ99">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR99">
         <v>1.5</v>
@@ -21803,7 +21809,7 @@
         <v>1.43</v>
       </c>
       <c r="AP100">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AQ100">
         <v>1.53</v>
@@ -23039,7 +23045,7 @@
         <v>1.86</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ106">
         <v>2.07</v>
@@ -23451,10 +23457,10 @@
         <v>1.71</v>
       </c>
       <c r="AP108">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ108">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR108">
         <v>1.22</v>
@@ -24072,7 +24078,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ111">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR111">
         <v>1.89</v>
@@ -24484,7 +24490,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ113">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
         <v>1.13</v>
@@ -24687,7 +24693,7 @@
         <v>0.75</v>
       </c>
       <c r="AP114">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ114">
         <v>0.47</v>
@@ -26335,7 +26341,7 @@
         <v>2.13</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ122">
         <v>1.43</v>
@@ -26541,7 +26547,7 @@
         <v>1.38</v>
       </c>
       <c r="AP123">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AQ123">
         <v>1.73</v>
@@ -26750,7 +26756,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ124">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR124">
         <v>1.66</v>
@@ -27162,7 +27168,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ126">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR126">
         <v>1.41</v>
@@ -27368,7 +27374,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ127">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR127">
         <v>1.2</v>
@@ -27571,10 +27577,10 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ128">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR128">
         <v>1.37</v>
@@ -28807,7 +28813,7 @@
         <v>0.67</v>
       </c>
       <c r="AP134">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ134">
         <v>0.47</v>
@@ -29634,7 +29640,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ138">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR138">
         <v>2.02</v>
@@ -29837,7 +29843,7 @@
         <v>0.89</v>
       </c>
       <c r="AP139">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AQ139">
         <v>1.29</v>
@@ -30046,7 +30052,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ140">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR140">
         <v>1.7</v>
@@ -30661,10 +30667,10 @@
         <v>1.5</v>
       </c>
       <c r="AP143">
+        <v>1.31</v>
+      </c>
+      <c r="AQ143">
         <v>1.33</v>
-      </c>
-      <c r="AQ143">
-        <v>1.21</v>
       </c>
       <c r="AR143">
         <v>1.33</v>
@@ -31073,7 +31079,7 @@
         <v>1.1</v>
       </c>
       <c r="AP145">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ145">
         <v>1.29</v>
@@ -31900,7 +31906,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ149">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR149">
         <v>1.24</v>
@@ -32927,10 +32933,10 @@
         <v>0.8</v>
       </c>
       <c r="AP154">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AQ154">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR154">
         <v>1.07</v>
@@ -33960,7 +33966,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ159">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR159">
         <v>1.89</v>
@@ -34163,7 +34169,7 @@
         <v>2.09</v>
       </c>
       <c r="AP160">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ160">
         <v>2.07</v>
@@ -34781,7 +34787,7 @@
         <v>1.36</v>
       </c>
       <c r="AP163">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ163">
         <v>1.2</v>
@@ -35196,7 +35202,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ165">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR165">
         <v>1.27</v>
@@ -35402,7 +35408,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ166">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR166">
         <v>1.46</v>
@@ -35605,7 +35611,7 @@
         <v>1.73</v>
       </c>
       <c r="AP167">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AQ167">
         <v>1.43</v>
@@ -36429,7 +36435,7 @@
         <v>0.67</v>
       </c>
       <c r="AP171">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ171">
         <v>0.73</v>
@@ -36638,7 +36644,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ172">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR172">
         <v>1.91</v>
@@ -37668,7 +37674,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ177">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR177">
         <v>1.15</v>
@@ -37871,10 +37877,10 @@
         <v>1.33</v>
       </c>
       <c r="AP178">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AQ178">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR178">
         <v>1.11</v>
@@ -38283,7 +38289,7 @@
         <v>2.17</v>
       </c>
       <c r="AP180">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ180">
         <v>1.93</v>
@@ -39313,10 +39319,10 @@
         <v>1.23</v>
       </c>
       <c r="AP185">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ185">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR185">
         <v>1.5</v>
@@ -39728,7 +39734,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ187">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR187">
         <v>1.23</v>
@@ -39931,7 +39937,7 @@
         <v>0.46</v>
       </c>
       <c r="AP188">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ188">
         <v>0.47</v>
@@ -40961,7 +40967,7 @@
         <v>0.62</v>
       </c>
       <c r="AP193">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AQ193">
         <v>0.73</v>
@@ -41170,7 +41176,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ194">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR194">
         <v>1.24</v>
@@ -42197,7 +42203,7 @@
         <v>0.79</v>
       </c>
       <c r="AP199">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ199">
         <v>0.73</v>
@@ -42406,7 +42412,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ200">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR200">
         <v>1.26</v>
@@ -43306,6 +43312,624 @@
       </c>
       <c r="BP204">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7856969</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45770.5</v>
+      </c>
+      <c r="F205">
+        <v>4</v>
+      </c>
+      <c r="G205" t="s">
+        <v>78</v>
+      </c>
+      <c r="H205" t="s">
+        <v>76</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" t="s">
+        <v>88</v>
+      </c>
+      <c r="P205" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q205">
+        <v>3</v>
+      </c>
+      <c r="R205">
+        <v>1.95</v>
+      </c>
+      <c r="S205">
+        <v>4.33</v>
+      </c>
+      <c r="T205">
+        <v>1.57</v>
+      </c>
+      <c r="U205">
+        <v>2.25</v>
+      </c>
+      <c r="V205">
+        <v>3.75</v>
+      </c>
+      <c r="W205">
+        <v>1.25</v>
+      </c>
+      <c r="X205">
+        <v>11</v>
+      </c>
+      <c r="Y205">
+        <v>1.05</v>
+      </c>
+      <c r="Z205">
+        <v>2</v>
+      </c>
+      <c r="AA205">
+        <v>3.1</v>
+      </c>
+      <c r="AB205">
+        <v>3.8</v>
+      </c>
+      <c r="AC205">
+        <v>1.09</v>
+      </c>
+      <c r="AD205">
+        <v>6.5</v>
+      </c>
+      <c r="AE205">
+        <v>1.48</v>
+      </c>
+      <c r="AF205">
+        <v>2.55</v>
+      </c>
+      <c r="AG205">
+        <v>2.37</v>
+      </c>
+      <c r="AH205">
+        <v>1.48</v>
+      </c>
+      <c r="AI205">
+        <v>2.05</v>
+      </c>
+      <c r="AJ205">
+        <v>1.7</v>
+      </c>
+      <c r="AK205">
+        <v>1.3</v>
+      </c>
+      <c r="AL205">
+        <v>1.3</v>
+      </c>
+      <c r="AM205">
+        <v>1.62</v>
+      </c>
+      <c r="AN205">
+        <v>1.33</v>
+      </c>
+      <c r="AO205">
+        <v>1.21</v>
+      </c>
+      <c r="AP205">
+        <v>1.31</v>
+      </c>
+      <c r="AQ205">
+        <v>1.2</v>
+      </c>
+      <c r="AR205">
+        <v>1.4</v>
+      </c>
+      <c r="AS205">
+        <v>0.95</v>
+      </c>
+      <c r="AT205">
+        <v>2.35</v>
+      </c>
+      <c r="AU205">
+        <v>10</v>
+      </c>
+      <c r="AV205">
+        <v>6</v>
+      </c>
+      <c r="AW205">
+        <v>8</v>
+      </c>
+      <c r="AX205">
+        <v>8</v>
+      </c>
+      <c r="AY205">
+        <v>20</v>
+      </c>
+      <c r="AZ205">
+        <v>16</v>
+      </c>
+      <c r="BA205">
+        <v>7</v>
+      </c>
+      <c r="BB205">
+        <v>5</v>
+      </c>
+      <c r="BC205">
+        <v>12</v>
+      </c>
+      <c r="BD205">
+        <v>1.66</v>
+      </c>
+      <c r="BE205">
+        <v>7.9</v>
+      </c>
+      <c r="BF205">
+        <v>2.74</v>
+      </c>
+      <c r="BG205">
+        <v>1.51</v>
+      </c>
+      <c r="BH205">
+        <v>2.32</v>
+      </c>
+      <c r="BI205">
+        <v>1.98</v>
+      </c>
+      <c r="BJ205">
+        <v>1.82</v>
+      </c>
+      <c r="BK205">
+        <v>2.54</v>
+      </c>
+      <c r="BL205">
+        <v>1.43</v>
+      </c>
+      <c r="BM205">
+        <v>3.5</v>
+      </c>
+      <c r="BN205">
+        <v>1.22</v>
+      </c>
+      <c r="BO205">
+        <v>0</v>
+      </c>
+      <c r="BP205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7856970</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45770.5</v>
+      </c>
+      <c r="F206">
+        <v>4</v>
+      </c>
+      <c r="G206" t="s">
+        <v>81</v>
+      </c>
+      <c r="H206" t="s">
+        <v>70</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>2</v>
+      </c>
+      <c r="K206">
+        <v>3</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>3</v>
+      </c>
+      <c r="N206">
+        <v>4</v>
+      </c>
+      <c r="O206" t="s">
+        <v>200</v>
+      </c>
+      <c r="P206" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q206">
+        <v>7.5</v>
+      </c>
+      <c r="R206">
+        <v>1.95</v>
+      </c>
+      <c r="S206">
+        <v>2.3</v>
+      </c>
+      <c r="T206">
+        <v>1.57</v>
+      </c>
+      <c r="U206">
+        <v>2.25</v>
+      </c>
+      <c r="V206">
+        <v>3.75</v>
+      </c>
+      <c r="W206">
+        <v>1.25</v>
+      </c>
+      <c r="X206">
+        <v>13</v>
+      </c>
+      <c r="Y206">
+        <v>1.04</v>
+      </c>
+      <c r="Z206">
+        <v>6</v>
+      </c>
+      <c r="AA206">
+        <v>3.4</v>
+      </c>
+      <c r="AB206">
+        <v>1.59</v>
+      </c>
+      <c r="AC206">
+        <v>1.09</v>
+      </c>
+      <c r="AD206">
+        <v>6.5</v>
+      </c>
+      <c r="AE206">
+        <v>1.48</v>
+      </c>
+      <c r="AF206">
+        <v>2.37</v>
+      </c>
+      <c r="AG206">
+        <v>2.4</v>
+      </c>
+      <c r="AH206">
+        <v>1.46</v>
+      </c>
+      <c r="AI206">
+        <v>2.63</v>
+      </c>
+      <c r="AJ206">
+        <v>1.44</v>
+      </c>
+      <c r="AK206">
+        <v>2.25</v>
+      </c>
+      <c r="AL206">
+        <v>1.22</v>
+      </c>
+      <c r="AM206">
+        <v>1.09</v>
+      </c>
+      <c r="AN206">
+        <v>0.64</v>
+      </c>
+      <c r="AO206">
+        <v>1.21</v>
+      </c>
+      <c r="AP206">
+        <v>0.6</v>
+      </c>
+      <c r="AQ206">
+        <v>1.33</v>
+      </c>
+      <c r="AR206">
+        <v>1.08</v>
+      </c>
+      <c r="AS206">
+        <v>1.04</v>
+      </c>
+      <c r="AT206">
+        <v>2.12</v>
+      </c>
+      <c r="AU206">
+        <v>2</v>
+      </c>
+      <c r="AV206">
+        <v>8</v>
+      </c>
+      <c r="AW206">
+        <v>2</v>
+      </c>
+      <c r="AX206">
+        <v>11</v>
+      </c>
+      <c r="AY206">
+        <v>4</v>
+      </c>
+      <c r="AZ206">
+        <v>23</v>
+      </c>
+      <c r="BA206">
+        <v>0</v>
+      </c>
+      <c r="BB206">
+        <v>11</v>
+      </c>
+      <c r="BC206">
+        <v>11</v>
+      </c>
+      <c r="BD206">
+        <v>3.2</v>
+      </c>
+      <c r="BE206">
+        <v>8.4</v>
+      </c>
+      <c r="BF206">
+        <v>1.51</v>
+      </c>
+      <c r="BG206">
+        <v>1.48</v>
+      </c>
+      <c r="BH206">
+        <v>2.4</v>
+      </c>
+      <c r="BI206">
+        <v>1.88</v>
+      </c>
+      <c r="BJ206">
+        <v>1.92</v>
+      </c>
+      <c r="BK206">
+        <v>2.45</v>
+      </c>
+      <c r="BL206">
+        <v>1.46</v>
+      </c>
+      <c r="BM206">
+        <v>3.34</v>
+      </c>
+      <c r="BN206">
+        <v>1.24</v>
+      </c>
+      <c r="BO206">
+        <v>0</v>
+      </c>
+      <c r="BP206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7856971</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45770.60416666666</v>
+      </c>
+      <c r="F207">
+        <v>4</v>
+      </c>
+      <c r="G207" t="s">
+        <v>83</v>
+      </c>
+      <c r="H207" t="s">
+        <v>72</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>3</v>
+      </c>
+      <c r="N207">
+        <v>3</v>
+      </c>
+      <c r="O207" t="s">
+        <v>84</v>
+      </c>
+      <c r="P207" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q207">
+        <v>2.6</v>
+      </c>
+      <c r="R207">
+        <v>2.1</v>
+      </c>
+      <c r="S207">
+        <v>4.75</v>
+      </c>
+      <c r="T207">
+        <v>1.44</v>
+      </c>
+      <c r="U207">
+        <v>2.63</v>
+      </c>
+      <c r="V207">
+        <v>3.25</v>
+      </c>
+      <c r="W207">
+        <v>1.33</v>
+      </c>
+      <c r="X207">
+        <v>9</v>
+      </c>
+      <c r="Y207">
+        <v>1.07</v>
+      </c>
+      <c r="Z207">
+        <v>1.63</v>
+      </c>
+      <c r="AA207">
+        <v>3.4</v>
+      </c>
+      <c r="AB207">
+        <v>5.3</v>
+      </c>
+      <c r="AC207">
+        <v>1.06</v>
+      </c>
+      <c r="AD207">
+        <v>8</v>
+      </c>
+      <c r="AE207">
+        <v>1.36</v>
+      </c>
+      <c r="AF207">
+        <v>3</v>
+      </c>
+      <c r="AG207">
+        <v>2</v>
+      </c>
+      <c r="AH207">
+        <v>1.67</v>
+      </c>
+      <c r="AI207">
+        <v>1.95</v>
+      </c>
+      <c r="AJ207">
+        <v>1.8</v>
+      </c>
+      <c r="AK207">
+        <v>1.22</v>
+      </c>
+      <c r="AL207">
+        <v>1.25</v>
+      </c>
+      <c r="AM207">
+        <v>1.85</v>
+      </c>
+      <c r="AN207">
+        <v>1</v>
+      </c>
+      <c r="AO207">
+        <v>1.2</v>
+      </c>
+      <c r="AP207">
+        <v>0.93</v>
+      </c>
+      <c r="AQ207">
+        <v>1.31</v>
+      </c>
+      <c r="AR207">
+        <v>1.46</v>
+      </c>
+      <c r="AS207">
+        <v>1.17</v>
+      </c>
+      <c r="AT207">
+        <v>2.63</v>
+      </c>
+      <c r="AU207">
+        <v>4</v>
+      </c>
+      <c r="AV207">
+        <v>5</v>
+      </c>
+      <c r="AW207">
+        <v>9</v>
+      </c>
+      <c r="AX207">
+        <v>6</v>
+      </c>
+      <c r="AY207">
+        <v>16</v>
+      </c>
+      <c r="AZ207">
+        <v>14</v>
+      </c>
+      <c r="BA207">
+        <v>4</v>
+      </c>
+      <c r="BB207">
+        <v>4</v>
+      </c>
+      <c r="BC207">
+        <v>8</v>
+      </c>
+      <c r="BD207">
+        <v>1.69</v>
+      </c>
+      <c r="BE207">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF207">
+        <v>2.63</v>
+      </c>
+      <c r="BG207">
+        <v>1.39</v>
+      </c>
+      <c r="BH207">
+        <v>2.67</v>
+      </c>
+      <c r="BI207">
+        <v>1.73</v>
+      </c>
+      <c r="BJ207">
+        <v>1.99</v>
+      </c>
+      <c r="BK207">
+        <v>2.21</v>
+      </c>
+      <c r="BL207">
+        <v>1.56</v>
+      </c>
+      <c r="BM207">
+        <v>2.92</v>
+      </c>
+      <c r="BN207">
+        <v>1.31</v>
+      </c>
+      <c r="BO207">
+        <v>0</v>
+      </c>
+      <c r="BP207">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="304">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -924,6 +924,9 @@
   <si>
     <t>['34', '48', '81']</t>
   </si>
+  <si>
+    <t>['79', '86']</t>
+  </si>
 </sst>
 </file>
 
@@ -1284,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP207"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2242,7 +2245,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ5">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2445,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ6">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3063,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ9">
         <v>1.73</v>
@@ -3272,7 +3275,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ10">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4714,7 +4717,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ17">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5535,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ21">
         <v>1.93</v>
@@ -6771,10 +6774,10 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ27">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR27">
         <v>1</v>
@@ -7804,7 +7807,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -8419,7 +8422,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ35">
         <v>0.47</v>
@@ -9243,7 +9246,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ39">
         <v>1.2</v>
@@ -9658,7 +9661,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ41">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR41">
         <v>1.71</v>
@@ -10273,7 +10276,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ44">
         <v>1.33</v>
@@ -11100,7 +11103,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ48">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR48">
         <v>1.58</v>
@@ -11921,7 +11924,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ52">
         <v>1.2</v>
@@ -12130,7 +12133,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ53">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR53">
         <v>1.1</v>
@@ -12539,7 +12542,7 @@
         <v>0.67</v>
       </c>
       <c r="AP55">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ55">
         <v>1.43</v>
@@ -13984,7 +13987,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ62">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR62">
         <v>1.7</v>
@@ -15423,7 +15426,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ69">
         <v>1.53</v>
@@ -16044,7 +16047,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ72">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR72">
         <v>1.28</v>
@@ -16456,7 +16459,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ74">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR74">
         <v>1.64</v>
@@ -16659,7 +16662,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ75">
         <v>0.73</v>
@@ -18719,7 +18722,7 @@
         <v>0.6</v>
       </c>
       <c r="AP85">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ85">
         <v>1.31</v>
@@ -19340,7 +19343,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ88">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR88">
         <v>1.86</v>
@@ -19546,7 +19549,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ89">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR89">
         <v>1.12</v>
@@ -19749,7 +19752,7 @@
         <v>1.67</v>
       </c>
       <c r="AP90">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ90">
         <v>2.07</v>
@@ -20985,7 +20988,7 @@
         <v>1.17</v>
       </c>
       <c r="AP96">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ96">
         <v>1.53</v>
@@ -22015,7 +22018,7 @@
         <v>1.57</v>
       </c>
       <c r="AP101">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ101">
         <v>1.2</v>
@@ -22224,7 +22227,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ102">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR102">
         <v>1.38</v>
@@ -24284,7 +24287,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ112">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR112">
         <v>1.43</v>
@@ -24487,7 +24490,7 @@
         <v>1.71</v>
       </c>
       <c r="AP113">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -25517,10 +25520,10 @@
         <v>1.13</v>
       </c>
       <c r="AP118">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ118">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR118">
         <v>1.32</v>
@@ -26138,7 +26141,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ121">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR121">
         <v>1.96</v>
@@ -27371,7 +27374,7 @@
         <v>0.88</v>
       </c>
       <c r="AP127">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ127">
         <v>1.31</v>
@@ -27783,7 +27786,7 @@
         <v>1.89</v>
       </c>
       <c r="AP129">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ129">
         <v>2.07</v>
@@ -27992,7 +27995,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ130">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR130">
         <v>1.17</v>
@@ -29225,7 +29228,7 @@
         <v>1</v>
       </c>
       <c r="AP136">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ136">
         <v>0.86</v>
@@ -29846,7 +29849,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ139">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR139">
         <v>1.11</v>
@@ -31082,7 +31085,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ145">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR145">
         <v>1.37</v>
@@ -32109,7 +32112,7 @@
         <v>2.3</v>
       </c>
       <c r="AP150">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ150">
         <v>1.93</v>
@@ -32318,7 +32321,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ151">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR151">
         <v>1.88</v>
@@ -33139,7 +33142,7 @@
         <v>0.5</v>
       </c>
       <c r="AP155">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ155">
         <v>0.73</v>
@@ -33345,10 +33348,10 @@
         <v>1.45</v>
       </c>
       <c r="AP156">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ156">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR156">
         <v>1.37</v>
@@ -33760,7 +33763,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ158">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR158">
         <v>1.13</v>
@@ -34993,7 +34996,7 @@
         <v>0.82</v>
       </c>
       <c r="AP164">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ164">
         <v>0.86</v>
@@ -36232,7 +36235,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ170">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR170">
         <v>1.25</v>
@@ -37053,7 +37056,7 @@
         <v>0.5</v>
       </c>
       <c r="AP174">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ174">
         <v>0.47</v>
@@ -37262,7 +37265,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ175">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR175">
         <v>1.77</v>
@@ -38701,7 +38704,7 @@
         <v>1.58</v>
       </c>
       <c r="AP182">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ182">
         <v>1.43</v>
@@ -39113,7 +39116,7 @@
         <v>1.77</v>
       </c>
       <c r="AP184">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ184">
         <v>1.73</v>
@@ -39528,7 +39531,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ186">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR186">
         <v>1.35</v>
@@ -41791,10 +41794,10 @@
         <v>1.23</v>
       </c>
       <c r="AP197">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ197">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR197">
         <v>1.31</v>
@@ -43930,6 +43933,418 @@
       </c>
       <c r="BP207">
         <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7856973</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45773.58333333334</v>
+      </c>
+      <c r="F208">
+        <v>4</v>
+      </c>
+      <c r="G208" t="s">
+        <v>77</v>
+      </c>
+      <c r="H208" t="s">
+        <v>79</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>2</v>
+      </c>
+      <c r="N208">
+        <v>2</v>
+      </c>
+      <c r="O208" t="s">
+        <v>84</v>
+      </c>
+      <c r="P208" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q208">
+        <v>3.25</v>
+      </c>
+      <c r="R208">
+        <v>2</v>
+      </c>
+      <c r="S208">
+        <v>3.6</v>
+      </c>
+      <c r="T208">
+        <v>1.5</v>
+      </c>
+      <c r="U208">
+        <v>2.5</v>
+      </c>
+      <c r="V208">
+        <v>3.4</v>
+      </c>
+      <c r="W208">
+        <v>1.3</v>
+      </c>
+      <c r="X208">
+        <v>10</v>
+      </c>
+      <c r="Y208">
+        <v>1.06</v>
+      </c>
+      <c r="Z208">
+        <v>2.5</v>
+      </c>
+      <c r="AA208">
+        <v>3</v>
+      </c>
+      <c r="AB208">
+        <v>2.75</v>
+      </c>
+      <c r="AC208">
+        <v>1.01</v>
+      </c>
+      <c r="AD208">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE208">
+        <v>1.35</v>
+      </c>
+      <c r="AF208">
+        <v>2.83</v>
+      </c>
+      <c r="AG208">
+        <v>2</v>
+      </c>
+      <c r="AH208">
+        <v>1.65</v>
+      </c>
+      <c r="AI208">
+        <v>1.95</v>
+      </c>
+      <c r="AJ208">
+        <v>1.8</v>
+      </c>
+      <c r="AK208">
+        <v>1.42</v>
+      </c>
+      <c r="AL208">
+        <v>1.36</v>
+      </c>
+      <c r="AM208">
+        <v>1.51</v>
+      </c>
+      <c r="AN208">
+        <v>1.29</v>
+      </c>
+      <c r="AO208">
+        <v>1.36</v>
+      </c>
+      <c r="AP208">
+        <v>1.2</v>
+      </c>
+      <c r="AQ208">
+        <v>1.47</v>
+      </c>
+      <c r="AR208">
+        <v>1.47</v>
+      </c>
+      <c r="AS208">
+        <v>1.03</v>
+      </c>
+      <c r="AT208">
+        <v>2.5</v>
+      </c>
+      <c r="AU208">
+        <v>6</v>
+      </c>
+      <c r="AV208">
+        <v>9</v>
+      </c>
+      <c r="AW208">
+        <v>13</v>
+      </c>
+      <c r="AX208">
+        <v>9</v>
+      </c>
+      <c r="AY208">
+        <v>20</v>
+      </c>
+      <c r="AZ208">
+        <v>18</v>
+      </c>
+      <c r="BA208">
+        <v>7</v>
+      </c>
+      <c r="BB208">
+        <v>3</v>
+      </c>
+      <c r="BC208">
+        <v>10</v>
+      </c>
+      <c r="BD208">
+        <v>0</v>
+      </c>
+      <c r="BE208">
+        <v>0</v>
+      </c>
+      <c r="BF208">
+        <v>0</v>
+      </c>
+      <c r="BG208">
+        <v>0</v>
+      </c>
+      <c r="BH208">
+        <v>0</v>
+      </c>
+      <c r="BI208">
+        <v>0</v>
+      </c>
+      <c r="BJ208">
+        <v>0</v>
+      </c>
+      <c r="BK208">
+        <v>0</v>
+      </c>
+      <c r="BL208">
+        <v>0</v>
+      </c>
+      <c r="BM208">
+        <v>0</v>
+      </c>
+      <c r="BN208">
+        <v>0</v>
+      </c>
+      <c r="BO208">
+        <v>0</v>
+      </c>
+      <c r="BP208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7856972</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45773.58333333334</v>
+      </c>
+      <c r="F209">
+        <v>4</v>
+      </c>
+      <c r="G209" t="s">
+        <v>74</v>
+      </c>
+      <c r="H209" t="s">
+        <v>82</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>2</v>
+      </c>
+      <c r="O209" t="s">
+        <v>134</v>
+      </c>
+      <c r="P209" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q209">
+        <v>3.6</v>
+      </c>
+      <c r="R209">
+        <v>1.95</v>
+      </c>
+      <c r="S209">
+        <v>3.4</v>
+      </c>
+      <c r="T209">
+        <v>1.53</v>
+      </c>
+      <c r="U209">
+        <v>2.38</v>
+      </c>
+      <c r="V209">
+        <v>3.75</v>
+      </c>
+      <c r="W209">
+        <v>1.25</v>
+      </c>
+      <c r="X209">
+        <v>11</v>
+      </c>
+      <c r="Y209">
+        <v>1.05</v>
+      </c>
+      <c r="Z209">
+        <v>3</v>
+      </c>
+      <c r="AA209">
+        <v>3.1</v>
+      </c>
+      <c r="AB209">
+        <v>2.3</v>
+      </c>
+      <c r="AC209">
+        <v>1.04</v>
+      </c>
+      <c r="AD209">
+        <v>6.85</v>
+      </c>
+      <c r="AE209">
+        <v>1.42</v>
+      </c>
+      <c r="AF209">
+        <v>2.56</v>
+      </c>
+      <c r="AG209">
+        <v>2.2</v>
+      </c>
+      <c r="AH209">
+        <v>1.53</v>
+      </c>
+      <c r="AI209">
+        <v>2.05</v>
+      </c>
+      <c r="AJ209">
+        <v>1.7</v>
+      </c>
+      <c r="AK209">
+        <v>1.53</v>
+      </c>
+      <c r="AL209">
+        <v>1.36</v>
+      </c>
+      <c r="AM209">
+        <v>1.4</v>
+      </c>
+      <c r="AN209">
+        <v>0.86</v>
+      </c>
+      <c r="AO209">
+        <v>1.29</v>
+      </c>
+      <c r="AP209">
+        <v>0.87</v>
+      </c>
+      <c r="AQ209">
+        <v>1.27</v>
+      </c>
+      <c r="AR209">
+        <v>1.35</v>
+      </c>
+      <c r="AS209">
+        <v>1.25</v>
+      </c>
+      <c r="AT209">
+        <v>2.6</v>
+      </c>
+      <c r="AU209">
+        <v>7</v>
+      </c>
+      <c r="AV209">
+        <v>6</v>
+      </c>
+      <c r="AW209">
+        <v>12</v>
+      </c>
+      <c r="AX209">
+        <v>7</v>
+      </c>
+      <c r="AY209">
+        <v>19</v>
+      </c>
+      <c r="AZ209">
+        <v>13</v>
+      </c>
+      <c r="BA209">
+        <v>6</v>
+      </c>
+      <c r="BB209">
+        <v>5</v>
+      </c>
+      <c r="BC209">
+        <v>11</v>
+      </c>
+      <c r="BD209">
+        <v>1.98</v>
+      </c>
+      <c r="BE209">
+        <v>6.1</v>
+      </c>
+      <c r="BF209">
+        <v>2.05</v>
+      </c>
+      <c r="BG209">
+        <v>1.55</v>
+      </c>
+      <c r="BH209">
+        <v>2.15</v>
+      </c>
+      <c r="BI209">
+        <v>1.93</v>
+      </c>
+      <c r="BJ209">
+        <v>1.7</v>
+      </c>
+      <c r="BK209">
+        <v>2.5</v>
+      </c>
+      <c r="BL209">
+        <v>1.41</v>
+      </c>
+      <c r="BM209">
+        <v>3.3</v>
+      </c>
+      <c r="BN209">
+        <v>1.23</v>
+      </c>
+      <c r="BO209">
+        <v>4.5</v>
+      </c>
+      <c r="BP209">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="307">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,9 @@
     <t>['55']</t>
   </si>
   <si>
+    <t>['35', '59']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -926,6 +929,12 @@
   </si>
   <si>
     <t>['79', '86']</t>
+  </si>
+  <si>
+    <t>['43', '74']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1546,7 +1555,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1627,7 +1636,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ2">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1752,7 +1761,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1830,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ3">
         <v>0.86</v>
@@ -2370,7 +2379,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2654,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>1.2</v>
@@ -2782,7 +2791,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -3194,7 +3203,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3400,7 +3409,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3478,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>0.47</v>
@@ -3890,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ13">
         <v>1.2</v>
@@ -4430,7 +4439,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4511,7 +4520,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ16">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4636,7 +4645,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5048,7 +5057,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5254,7 +5263,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5460,7 +5469,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5666,7 +5675,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5747,7 +5756,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ22">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6078,7 +6087,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6284,7 +6293,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6696,7 +6705,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6980,10 +6989,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ28">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>1.95</v>
@@ -7186,7 +7195,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.33</v>
@@ -7314,7 +7323,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7601,7 +7610,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ31">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7726,7 +7735,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -8138,7 +8147,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8344,7 +8353,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8962,7 +8971,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -9168,7 +9177,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9658,7 +9667,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ41">
         <v>1.27</v>
@@ -9864,10 +9873,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.99</v>
@@ -9992,7 +10001,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10198,7 +10207,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10816,7 +10825,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11022,7 +11031,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -11228,7 +11237,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11515,7 +11524,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ50">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR50">
         <v>1.74</v>
@@ -11846,7 +11855,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -12258,7 +12267,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12464,7 +12473,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12545,7 +12554,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ55">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.16</v>
@@ -12876,7 +12885,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12954,7 +12963,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>1.93</v>
@@ -13082,7 +13091,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13288,7 +13297,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13781,7 +13790,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ61">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR61">
         <v>1.69</v>
@@ -13906,7 +13915,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14112,7 +14121,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -14190,7 +14199,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ63">
         <v>1.2</v>
@@ -14318,7 +14327,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14936,7 +14945,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -15223,7 +15232,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ68">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.45</v>
@@ -15348,7 +15357,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15554,7 +15563,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -16172,7 +16181,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16456,7 +16465,7 @@
         <v>1.8</v>
       </c>
       <c r="AP74">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>1.47</v>
@@ -16584,7 +16593,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16790,7 +16799,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17202,7 +17211,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17280,10 +17289,10 @@
         <v>1.4</v>
       </c>
       <c r="AP78">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ78">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR78">
         <v>1.72</v>
@@ -17408,7 +17417,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17614,7 +17623,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18026,7 +18035,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -18107,7 +18116,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ82">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR82">
         <v>1.27</v>
@@ -18232,7 +18241,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -19056,7 +19065,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19340,7 +19349,7 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>1.27</v>
@@ -19674,7 +19683,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19755,7 +19764,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ90">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR90">
         <v>1.22</v>
@@ -19880,7 +19889,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -19958,7 +19967,7 @@
         <v>0.67</v>
       </c>
       <c r="AP91">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ91">
         <v>0.73</v>
@@ -20086,7 +20095,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -20498,7 +20507,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20704,7 +20713,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20910,7 +20919,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -21197,7 +21206,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ97">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR97">
         <v>1.4</v>
@@ -21322,7 +21331,7 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21528,7 +21537,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22639,7 +22648,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ104">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR104">
         <v>1.19</v>
@@ -23051,7 +23060,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ106">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR106">
         <v>1.5</v>
@@ -23872,7 +23881,7 @@
         <v>1.57</v>
       </c>
       <c r="AP110">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ110">
         <v>1.73</v>
@@ -24000,7 +24009,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q111">
         <v>1.57</v>
@@ -24078,7 +24087,7 @@
         <v>0.86</v>
       </c>
       <c r="AP111">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
         <v>1.31</v>
@@ -24206,7 +24215,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -25030,7 +25039,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25236,7 +25245,7 @@
         <v>159</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>8.5</v>
@@ -25442,7 +25451,7 @@
         <v>84</v>
       </c>
       <c r="P118" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25648,7 +25657,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25854,7 +25863,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -25935,7 +25944,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ120">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
@@ -26266,7 +26275,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26347,7 +26356,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ122">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR122">
         <v>1.28</v>
@@ -26472,7 +26481,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q123">
         <v>4.33</v>
@@ -26678,7 +26687,7 @@
         <v>163</v>
       </c>
       <c r="P124" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q124">
         <v>1.62</v>
@@ -26756,7 +26765,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ124">
         <v>1.33</v>
@@ -26962,7 +26971,7 @@
         <v>0.63</v>
       </c>
       <c r="AP125">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ125">
         <v>0.73</v>
@@ -27708,7 +27717,7 @@
         <v>108</v>
       </c>
       <c r="P129" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -27789,7 +27798,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ129">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR129">
         <v>1.26</v>
@@ -27914,7 +27923,7 @@
         <v>104</v>
       </c>
       <c r="P130" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28944,7 +28953,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q135">
         <v>3.75</v>
@@ -29150,7 +29159,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29640,7 +29649,7 @@
         <v>1.44</v>
       </c>
       <c r="AP138">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
         <v>1.2</v>
@@ -29768,7 +29777,7 @@
         <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -30052,7 +30061,7 @@
         <v>0.89</v>
       </c>
       <c r="AP140">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ140">
         <v>1.31</v>
@@ -30261,7 +30270,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ141">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR141">
         <v>1.93</v>
@@ -30386,7 +30395,7 @@
         <v>172</v>
       </c>
       <c r="P142" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30592,7 +30601,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q143">
         <v>3.25</v>
@@ -30879,7 +30888,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ144">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR144">
         <v>1.16</v>
@@ -31210,7 +31219,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31288,7 +31297,7 @@
         <v>1.6</v>
       </c>
       <c r="AP146">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ146">
         <v>1.53</v>
@@ -32034,7 +32043,7 @@
         <v>84</v>
       </c>
       <c r="P150" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q150">
         <v>5.5</v>
@@ -32240,7 +32249,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q151">
         <v>1.8</v>
@@ -32527,7 +32536,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ152">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR152">
         <v>1.42</v>
@@ -32730,7 +32739,7 @@
         <v>0.9</v>
       </c>
       <c r="AP153">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ153">
         <v>0.86</v>
@@ -32858,7 +32867,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33064,7 +33073,7 @@
         <v>147</v>
       </c>
       <c r="P155" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33476,7 +33485,7 @@
         <v>177</v>
       </c>
       <c r="P157" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33554,7 +33563,7 @@
         <v>1.82</v>
       </c>
       <c r="AP157">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
         <v>1.73</v>
@@ -33682,7 +33691,7 @@
         <v>178</v>
       </c>
       <c r="P158" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q158">
         <v>4.33</v>
@@ -33888,7 +33897,7 @@
         <v>179</v>
       </c>
       <c r="P159" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q159">
         <v>1.73</v>
@@ -34094,7 +34103,7 @@
         <v>84</v>
       </c>
       <c r="P160" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q160">
         <v>13</v>
@@ -34175,7 +34184,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ160">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR160">
         <v>1.33</v>
@@ -34378,7 +34387,7 @@
         <v>0.55</v>
       </c>
       <c r="AP161">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ161">
         <v>0.47</v>
@@ -34712,7 +34721,7 @@
         <v>182</v>
       </c>
       <c r="P163" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -35124,7 +35133,7 @@
         <v>184</v>
       </c>
       <c r="P165" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35330,7 +35339,7 @@
         <v>185</v>
       </c>
       <c r="P166" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q166">
         <v>2.2</v>
@@ -35536,7 +35545,7 @@
         <v>186</v>
       </c>
       <c r="P167" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -35617,7 +35626,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ167">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR167">
         <v>1.13</v>
@@ -35742,7 +35751,7 @@
         <v>84</v>
       </c>
       <c r="P168" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -35948,7 +35957,7 @@
         <v>187</v>
       </c>
       <c r="P169" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36154,7 +36163,7 @@
         <v>188</v>
       </c>
       <c r="P170" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q170">
         <v>4</v>
@@ -36360,7 +36369,7 @@
         <v>189</v>
       </c>
       <c r="P171" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36772,7 +36781,7 @@
         <v>122</v>
       </c>
       <c r="P173" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q173">
         <v>3.6</v>
@@ -37262,7 +37271,7 @@
         <v>1.33</v>
       </c>
       <c r="AP175">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ175">
         <v>1.47</v>
@@ -37390,7 +37399,7 @@
         <v>84</v>
       </c>
       <c r="P176" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -37468,10 +37477,10 @@
         <v>2.17</v>
       </c>
       <c r="AP176">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ176">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR176">
         <v>2.18</v>
@@ -38214,7 +38223,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q180">
         <v>6.5</v>
@@ -38626,7 +38635,7 @@
         <v>196</v>
       </c>
       <c r="P182" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -38707,7 +38716,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ182">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR182">
         <v>1.3</v>
@@ -38832,7 +38841,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -39038,7 +39047,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39450,7 +39459,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q186">
         <v>3.6</v>
@@ -39656,7 +39665,7 @@
         <v>200</v>
       </c>
       <c r="P187" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q187">
         <v>3.5</v>
@@ -39862,7 +39871,7 @@
         <v>113</v>
       </c>
       <c r="P188" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q188">
         <v>2.63</v>
@@ -40068,7 +40077,7 @@
         <v>201</v>
       </c>
       <c r="P189" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40146,7 +40155,7 @@
         <v>2</v>
       </c>
       <c r="AP189">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ189">
         <v>1.93</v>
@@ -40274,7 +40283,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q190">
         <v>2.38</v>
@@ -40355,7 +40364,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ190">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR190">
         <v>2</v>
@@ -40892,7 +40901,7 @@
         <v>84</v>
       </c>
       <c r="P193" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q193">
         <v>4.75</v>
@@ -41382,10 +41391,10 @@
         <v>2.23</v>
       </c>
       <c r="AP195">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ195">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR195">
         <v>1.78</v>
@@ -41510,7 +41519,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q196">
         <v>3.5</v>
@@ -42746,7 +42755,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -43570,7 +43579,7 @@
         <v>200</v>
       </c>
       <c r="P206" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q206">
         <v>7.5</v>
@@ -43776,7 +43785,7 @@
         <v>84</v>
       </c>
       <c r="P207" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -43982,7 +43991,7 @@
         <v>84</v>
       </c>
       <c r="P208" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q208">
         <v>3.25</v>
@@ -44188,7 +44197,7 @@
         <v>134</v>
       </c>
       <c r="P209" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q209">
         <v>3.6</v>
@@ -44345,6 +44354,418 @@
       </c>
       <c r="BP209">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7856974</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45774.58333333334</v>
+      </c>
+      <c r="F210">
+        <v>4</v>
+      </c>
+      <c r="G210" t="s">
+        <v>75</v>
+      </c>
+      <c r="H210" t="s">
+        <v>80</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>2</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210" t="s">
+        <v>84</v>
+      </c>
+      <c r="P210" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q210">
+        <v>3.1</v>
+      </c>
+      <c r="R210">
+        <v>2</v>
+      </c>
+      <c r="S210">
+        <v>4</v>
+      </c>
+      <c r="T210">
+        <v>1.5</v>
+      </c>
+      <c r="U210">
+        <v>2.5</v>
+      </c>
+      <c r="V210">
+        <v>3.5</v>
+      </c>
+      <c r="W210">
+        <v>1.29</v>
+      </c>
+      <c r="X210">
+        <v>11</v>
+      </c>
+      <c r="Y210">
+        <v>1.05</v>
+      </c>
+      <c r="Z210">
+        <v>2.2</v>
+      </c>
+      <c r="AA210">
+        <v>3.1</v>
+      </c>
+      <c r="AB210">
+        <v>3.2</v>
+      </c>
+      <c r="AC210">
+        <v>1.04</v>
+      </c>
+      <c r="AD210">
+        <v>7.1</v>
+      </c>
+      <c r="AE210">
+        <v>1.36</v>
+      </c>
+      <c r="AF210">
+        <v>2.78</v>
+      </c>
+      <c r="AG210">
+        <v>2.1</v>
+      </c>
+      <c r="AH210">
+        <v>1.6</v>
+      </c>
+      <c r="AI210">
+        <v>2</v>
+      </c>
+      <c r="AJ210">
+        <v>1.75</v>
+      </c>
+      <c r="AK210">
+        <v>1.35</v>
+      </c>
+      <c r="AL210">
+        <v>1.35</v>
+      </c>
+      <c r="AM210">
+        <v>1.62</v>
+      </c>
+      <c r="AN210">
+        <v>2.14</v>
+      </c>
+      <c r="AO210">
+        <v>2.07</v>
+      </c>
+      <c r="AP210">
+        <v>2</v>
+      </c>
+      <c r="AQ210">
+        <v>2.13</v>
+      </c>
+      <c r="AR210">
+        <v>2.03</v>
+      </c>
+      <c r="AS210">
+        <v>1.77</v>
+      </c>
+      <c r="AT210">
+        <v>3.8</v>
+      </c>
+      <c r="AU210">
+        <v>8</v>
+      </c>
+      <c r="AV210">
+        <v>4</v>
+      </c>
+      <c r="AW210">
+        <v>11</v>
+      </c>
+      <c r="AX210">
+        <v>4</v>
+      </c>
+      <c r="AY210">
+        <v>21</v>
+      </c>
+      <c r="AZ210">
+        <v>10</v>
+      </c>
+      <c r="BA210">
+        <v>8</v>
+      </c>
+      <c r="BB210">
+        <v>1</v>
+      </c>
+      <c r="BC210">
+        <v>9</v>
+      </c>
+      <c r="BD210">
+        <v>1.7</v>
+      </c>
+      <c r="BE210">
+        <v>6.1</v>
+      </c>
+      <c r="BF210">
+        <v>2.43</v>
+      </c>
+      <c r="BG210">
+        <v>1.58</v>
+      </c>
+      <c r="BH210">
+        <v>2.1</v>
+      </c>
+      <c r="BI210">
+        <v>1.97</v>
+      </c>
+      <c r="BJ210">
+        <v>1.65</v>
+      </c>
+      <c r="BK210">
+        <v>2.55</v>
+      </c>
+      <c r="BL210">
+        <v>1.38</v>
+      </c>
+      <c r="BM210">
+        <v>3.45</v>
+      </c>
+      <c r="BN210">
+        <v>1.22</v>
+      </c>
+      <c r="BO210">
+        <v>4.75</v>
+      </c>
+      <c r="BP210">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7856975</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45774.58333333334</v>
+      </c>
+      <c r="F211">
+        <v>4</v>
+      </c>
+      <c r="G211" t="s">
+        <v>71</v>
+      </c>
+      <c r="H211" t="s">
+        <v>73</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>2</v>
+      </c>
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>3</v>
+      </c>
+      <c r="O211" t="s">
+        <v>211</v>
+      </c>
+      <c r="P211" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q211">
+        <v>2.6</v>
+      </c>
+      <c r="R211">
+        <v>2.2</v>
+      </c>
+      <c r="S211">
+        <v>4.33</v>
+      </c>
+      <c r="T211">
+        <v>1.4</v>
+      </c>
+      <c r="U211">
+        <v>2.75</v>
+      </c>
+      <c r="V211">
+        <v>3</v>
+      </c>
+      <c r="W211">
+        <v>1.36</v>
+      </c>
+      <c r="X211">
+        <v>8</v>
+      </c>
+      <c r="Y211">
+        <v>1.08</v>
+      </c>
+      <c r="Z211">
+        <v>2.05</v>
+      </c>
+      <c r="AA211">
+        <v>3.2</v>
+      </c>
+      <c r="AB211">
+        <v>3.5</v>
+      </c>
+      <c r="AC211">
+        <v>1</v>
+      </c>
+      <c r="AD211">
+        <v>9</v>
+      </c>
+      <c r="AE211">
+        <v>1.25</v>
+      </c>
+      <c r="AF211">
+        <v>3.4</v>
+      </c>
+      <c r="AG211">
+        <v>1.85</v>
+      </c>
+      <c r="AH211">
+        <v>1.8</v>
+      </c>
+      <c r="AI211">
+        <v>1.8</v>
+      </c>
+      <c r="AJ211">
+        <v>1.95</v>
+      </c>
+      <c r="AK211">
+        <v>1.26</v>
+      </c>
+      <c r="AL211">
+        <v>1.29</v>
+      </c>
+      <c r="AM211">
+        <v>1.87</v>
+      </c>
+      <c r="AN211">
+        <v>1.64</v>
+      </c>
+      <c r="AO211">
+        <v>1.43</v>
+      </c>
+      <c r="AP211">
+        <v>1.73</v>
+      </c>
+      <c r="AQ211">
+        <v>1.33</v>
+      </c>
+      <c r="AR211">
+        <v>1.72</v>
+      </c>
+      <c r="AS211">
+        <v>1.58</v>
+      </c>
+      <c r="AT211">
+        <v>3.3</v>
+      </c>
+      <c r="AU211">
+        <v>9</v>
+      </c>
+      <c r="AV211">
+        <v>3</v>
+      </c>
+      <c r="AW211">
+        <v>8</v>
+      </c>
+      <c r="AX211">
+        <v>1</v>
+      </c>
+      <c r="AY211">
+        <v>20</v>
+      </c>
+      <c r="AZ211">
+        <v>5</v>
+      </c>
+      <c r="BA211">
+        <v>8</v>
+      </c>
+      <c r="BB211">
+        <v>2</v>
+      </c>
+      <c r="BC211">
+        <v>10</v>
+      </c>
+      <c r="BD211">
+        <v>1.74</v>
+      </c>
+      <c r="BE211">
+        <v>6.4</v>
+      </c>
+      <c r="BF211">
+        <v>2.33</v>
+      </c>
+      <c r="BG211">
+        <v>1.45</v>
+      </c>
+      <c r="BH211">
+        <v>2.38</v>
+      </c>
+      <c r="BI211">
+        <v>1.76</v>
+      </c>
+      <c r="BJ211">
+        <v>1.83</v>
+      </c>
+      <c r="BK211">
+        <v>2.23</v>
+      </c>
+      <c r="BL211">
+        <v>1.5</v>
+      </c>
+      <c r="BM211">
+        <v>2.95</v>
+      </c>
+      <c r="BN211">
+        <v>1.3</v>
+      </c>
+      <c r="BO211">
+        <v>4</v>
+      </c>
+      <c r="BP211">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="308">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>['35', '59']</t>
+  </si>
+  <si>
+    <t>['35', '45+1', '54']</t>
   </si>
   <si>
     <t>['13', '73']</t>
@@ -1296,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1555,7 +1558,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1633,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ2">
         <v>2.13</v>
@@ -1761,7 +1764,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1842,7 +1845,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ3">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2045,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ4">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2379,7 +2382,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2791,7 +2794,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2869,10 +2872,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3203,7 +3206,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3409,7 +3412,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3490,7 +3493,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>2.01</v>
@@ -4314,7 +4317,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ15">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4439,7 +4442,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4645,7 +4648,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4929,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ18">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -5057,7 +5060,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5135,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ19">
         <v>1.53</v>
@@ -5263,7 +5266,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5341,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ20">
         <v>1.2</v>
@@ -5469,7 +5472,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5675,7 +5678,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5962,7 +5965,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ23">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR23">
         <v>0.92</v>
@@ -6087,7 +6090,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6293,7 +6296,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6705,7 +6708,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7323,7 +7326,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7401,7 +7404,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ30">
         <v>1.93</v>
@@ -7735,7 +7738,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7813,7 +7816,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ32">
         <v>1.47</v>
@@ -8019,7 +8022,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ33">
         <v>1.2</v>
@@ -8147,7 +8150,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8228,7 +8231,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ34">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR34">
         <v>1.44</v>
@@ -8353,7 +8356,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8434,7 +8437,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ35">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR35">
         <v>1.08</v>
@@ -8843,10 +8846,10 @@
         <v>0.67</v>
       </c>
       <c r="AP37">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ37">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR37">
         <v>1.17</v>
@@ -8971,7 +8974,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -9177,7 +9180,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -10001,7 +10004,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10082,7 +10085,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ43">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR43">
         <v>1.06</v>
@@ -10207,7 +10210,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10491,7 +10494,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ45">
         <v>1.53</v>
@@ -10700,7 +10703,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ46">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR46">
         <v>1.16</v>
@@ -10825,7 +10828,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11031,7 +11034,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -11237,7 +11240,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11315,7 +11318,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ49">
         <v>1.93</v>
@@ -11727,10 +11730,10 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ51">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -11855,7 +11858,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -12267,7 +12270,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12473,7 +12476,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12760,7 +12763,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ56">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR56">
         <v>1.14</v>
@@ -12885,7 +12888,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13091,7 +13094,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13169,7 +13172,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58">
         <v>1.33</v>
@@ -13297,7 +13300,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13375,10 +13378,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ59">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR59">
         <v>0.99</v>
@@ -13915,7 +13918,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14121,7 +14124,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -14327,7 +14330,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14614,7 +14617,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ65">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR65">
         <v>1.98</v>
@@ -14945,7 +14948,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -15229,7 +15232,7 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ68">
         <v>1.33</v>
@@ -15357,7 +15360,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15563,7 +15566,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -16053,7 +16056,7 @@
         <v>1.6</v>
       </c>
       <c r="AP72">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ72">
         <v>1.27</v>
@@ -16181,7 +16184,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16593,7 +16596,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16674,7 +16677,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ75">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR75">
         <v>1.19</v>
@@ -16799,7 +16802,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16877,7 +16880,7 @@
         <v>2.25</v>
       </c>
       <c r="AP76">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ76">
         <v>1.33</v>
@@ -17086,7 +17089,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ77">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR77">
         <v>1.69</v>
@@ -17211,7 +17214,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17417,7 +17420,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17498,7 +17501,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ79">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17623,7 +17626,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18035,7 +18038,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -18113,7 +18116,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ82">
         <v>1.33</v>
@@ -18241,7 +18244,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18937,10 +18940,10 @@
         <v>0.83</v>
       </c>
       <c r="AP86">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ86">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR86">
         <v>1.38</v>
@@ -19065,7 +19068,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19143,7 +19146,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ87">
         <v>1.2</v>
@@ -19683,7 +19686,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19889,7 +19892,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -19970,7 +19973,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ91">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR91">
         <v>1.68</v>
@@ -20095,7 +20098,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -20507,7 +20510,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20713,7 +20716,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20919,7 +20922,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -21331,7 +21334,7 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21537,7 +21540,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22233,7 +22236,7 @@
         <v>1.29</v>
       </c>
       <c r="AP102">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ102">
         <v>1.47</v>
@@ -22442,7 +22445,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ103">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR103">
         <v>1.47</v>
@@ -22645,7 +22648,7 @@
         <v>2</v>
       </c>
       <c r="AP104">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ104">
         <v>1.33</v>
@@ -22851,7 +22854,7 @@
         <v>2.71</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ105">
         <v>1.93</v>
@@ -23266,7 +23269,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ107">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR107">
         <v>1.96</v>
@@ -23678,7 +23681,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ109">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR109">
         <v>1.74</v>
@@ -24009,7 +24012,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q111">
         <v>1.57</v>
@@ -24215,7 +24218,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24708,7 +24711,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ114">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR114">
         <v>1.39</v>
@@ -24911,10 +24914,10 @@
         <v>1.13</v>
       </c>
       <c r="AP115">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ115">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR115">
         <v>1.12</v>
@@ -25039,7 +25042,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25245,7 +25248,7 @@
         <v>159</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q117">
         <v>8.5</v>
@@ -25323,7 +25326,7 @@
         <v>1.63</v>
       </c>
       <c r="AP117">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ117">
         <v>1.53</v>
@@ -25451,7 +25454,7 @@
         <v>84</v>
       </c>
       <c r="P118" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25657,7 +25660,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25863,7 +25866,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -25941,7 +25944,7 @@
         <v>1.75</v>
       </c>
       <c r="AP120">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ120">
         <v>2.13</v>
@@ -26275,7 +26278,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26481,7 +26484,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q123">
         <v>4.33</v>
@@ -26687,7 +26690,7 @@
         <v>163</v>
       </c>
       <c r="P124" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q124">
         <v>1.62</v>
@@ -26974,7 +26977,7 @@
         <v>2</v>
       </c>
       <c r="AQ125">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR125">
         <v>1.95</v>
@@ -27717,7 +27720,7 @@
         <v>108</v>
       </c>
       <c r="P129" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -27923,7 +27926,7 @@
         <v>104</v>
       </c>
       <c r="P130" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28001,7 +28004,7 @@
         <v>1.33</v>
       </c>
       <c r="AP130">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ130">
         <v>1.47</v>
@@ -28207,7 +28210,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ131">
         <v>1.2</v>
@@ -28828,7 +28831,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ134">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR134">
         <v>1.25</v>
@@ -28953,7 +28956,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q135">
         <v>3.75</v>
@@ -29031,7 +29034,7 @@
         <v>1.56</v>
       </c>
       <c r="AP135">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ135">
         <v>1.73</v>
@@ -29159,7 +29162,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29240,7 +29243,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ136">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR136">
         <v>1.31</v>
@@ -29446,7 +29449,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ137">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR137">
         <v>1.4</v>
@@ -29777,7 +29780,7 @@
         <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -30395,7 +30398,7 @@
         <v>172</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30601,7 +30604,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q143">
         <v>3.25</v>
@@ -30885,7 +30888,7 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ144">
         <v>2.13</v>
@@ -31219,7 +31222,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31503,7 +31506,7 @@
         <v>1.7</v>
       </c>
       <c r="AP147">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ147">
         <v>1.73</v>
@@ -31712,7 +31715,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ148">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR148">
         <v>1.44</v>
@@ -31915,7 +31918,7 @@
         <v>1.3</v>
       </c>
       <c r="AP149">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ149">
         <v>1.2</v>
@@ -32043,7 +32046,7 @@
         <v>84</v>
       </c>
       <c r="P150" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q150">
         <v>5.5</v>
@@ -32249,7 +32252,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q151">
         <v>1.8</v>
@@ -32742,7 +32745,7 @@
         <v>2</v>
       </c>
       <c r="AQ153">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR153">
         <v>2.03</v>
@@ -32867,7 +32870,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33073,7 +33076,7 @@
         <v>147</v>
       </c>
       <c r="P155" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33154,7 +33157,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ155">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR155">
         <v>1.19</v>
@@ -33485,7 +33488,7 @@
         <v>177</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33691,7 +33694,7 @@
         <v>178</v>
       </c>
       <c r="P158" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q158">
         <v>4.33</v>
@@ -33769,7 +33772,7 @@
         <v>1.27</v>
       </c>
       <c r="AP158">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ158">
         <v>1.27</v>
@@ -33897,7 +33900,7 @@
         <v>179</v>
       </c>
       <c r="P159" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q159">
         <v>1.73</v>
@@ -34103,7 +34106,7 @@
         <v>84</v>
       </c>
       <c r="P160" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q160">
         <v>13</v>
@@ -34390,7 +34393,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ161">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR161">
         <v>1.7</v>
@@ -34593,10 +34596,10 @@
         <v>0.73</v>
       </c>
       <c r="AP162">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ162">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR162">
         <v>1.12</v>
@@ -34721,7 +34724,7 @@
         <v>182</v>
       </c>
       <c r="P163" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -35008,7 +35011,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ164">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR164">
         <v>1.26</v>
@@ -35133,7 +35136,7 @@
         <v>184</v>
       </c>
       <c r="P165" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35211,7 +35214,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ165">
         <v>1.31</v>
@@ -35339,7 +35342,7 @@
         <v>185</v>
       </c>
       <c r="P166" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q166">
         <v>2.2</v>
@@ -35545,7 +35548,7 @@
         <v>186</v>
       </c>
       <c r="P167" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -35751,7 +35754,7 @@
         <v>84</v>
       </c>
       <c r="P168" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -35957,7 +35960,7 @@
         <v>187</v>
       </c>
       <c r="P169" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36163,7 +36166,7 @@
         <v>188</v>
       </c>
       <c r="P170" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q170">
         <v>4</v>
@@ -36241,7 +36244,7 @@
         <v>1.17</v>
       </c>
       <c r="AP170">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ170">
         <v>1.27</v>
@@ -36369,7 +36372,7 @@
         <v>189</v>
       </c>
       <c r="P171" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36450,7 +36453,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ171">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR171">
         <v>1.27</v>
@@ -36781,7 +36784,7 @@
         <v>122</v>
       </c>
       <c r="P173" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q173">
         <v>3.6</v>
@@ -36859,7 +36862,7 @@
         <v>1.67</v>
       </c>
       <c r="AP173">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ173">
         <v>1.73</v>
@@ -37068,7 +37071,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ174">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR174">
         <v>1.42</v>
@@ -37399,7 +37402,7 @@
         <v>84</v>
       </c>
       <c r="P176" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -37683,7 +37686,7 @@
         <v>1.17</v>
       </c>
       <c r="AP177">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ177">
         <v>1.31</v>
@@ -38223,7 +38226,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q180">
         <v>6.5</v>
@@ -38635,7 +38638,7 @@
         <v>196</v>
       </c>
       <c r="P182" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -38841,7 +38844,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -38922,7 +38925,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ183">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR183">
         <v>1.35</v>
@@ -39047,7 +39050,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39459,7 +39462,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q186">
         <v>3.6</v>
@@ -39665,7 +39668,7 @@
         <v>200</v>
       </c>
       <c r="P187" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q187">
         <v>3.5</v>
@@ -39743,7 +39746,7 @@
         <v>1.15</v>
       </c>
       <c r="AP187">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ187">
         <v>1.31</v>
@@ -39871,7 +39874,7 @@
         <v>113</v>
       </c>
       <c r="P188" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q188">
         <v>2.63</v>
@@ -39952,7 +39955,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ188">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR188">
         <v>1.32</v>
@@ -40077,7 +40080,7 @@
         <v>201</v>
       </c>
       <c r="P189" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40283,7 +40286,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q190">
         <v>2.38</v>
@@ -40567,10 +40570,10 @@
         <v>0.92</v>
       </c>
       <c r="AP191">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ191">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR191">
         <v>1.2</v>
@@ -40901,7 +40904,7 @@
         <v>84</v>
       </c>
       <c r="P193" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q193">
         <v>4.75</v>
@@ -40982,7 +40985,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ193">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR193">
         <v>1.11</v>
@@ -41185,7 +41188,7 @@
         <v>1.23</v>
       </c>
       <c r="AP194">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ194">
         <v>1.2</v>
@@ -41519,7 +41522,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q196">
         <v>3.5</v>
@@ -42009,10 +42012,10 @@
         <v>0.5</v>
       </c>
       <c r="AP198">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ198">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR198">
         <v>1.19</v>
@@ -42218,7 +42221,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ199">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR199">
         <v>1.34</v>
@@ -42421,7 +42424,7 @@
         <v>1.29</v>
       </c>
       <c r="AP200">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ200">
         <v>1.31</v>
@@ -42755,7 +42758,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -43579,7 +43582,7 @@
         <v>200</v>
       </c>
       <c r="P206" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q206">
         <v>7.5</v>
@@ -43785,7 +43788,7 @@
         <v>84</v>
       </c>
       <c r="P207" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -43991,7 +43994,7 @@
         <v>84</v>
       </c>
       <c r="P208" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q208">
         <v>3.25</v>
@@ -44197,7 +44200,7 @@
         <v>134</v>
       </c>
       <c r="P209" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q209">
         <v>3.6</v>
@@ -44403,7 +44406,7 @@
         <v>84</v>
       </c>
       <c r="P210" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44609,7 +44612,7 @@
         <v>211</v>
       </c>
       <c r="P211" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q211">
         <v>2.6</v>
@@ -44766,6 +44769,624 @@
       </c>
       <c r="BP211">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7856976</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45775.5</v>
+      </c>
+      <c r="F212">
+        <v>5</v>
+      </c>
+      <c r="G212" t="s">
+        <v>72</v>
+      </c>
+      <c r="H212" t="s">
+        <v>81</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+      <c r="O212" t="s">
+        <v>84</v>
+      </c>
+      <c r="P212" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q212">
+        <v>2</v>
+      </c>
+      <c r="R212">
+        <v>2.2</v>
+      </c>
+      <c r="S212">
+        <v>8.5</v>
+      </c>
+      <c r="T212">
+        <v>1.44</v>
+      </c>
+      <c r="U212">
+        <v>2.63</v>
+      </c>
+      <c r="V212">
+        <v>3.25</v>
+      </c>
+      <c r="W212">
+        <v>1.33</v>
+      </c>
+      <c r="X212">
+        <v>10</v>
+      </c>
+      <c r="Y212">
+        <v>1.06</v>
+      </c>
+      <c r="Z212">
+        <v>1.39</v>
+      </c>
+      <c r="AA212">
+        <v>4</v>
+      </c>
+      <c r="AB212">
+        <v>8</v>
+      </c>
+      <c r="AC212">
+        <v>1.79</v>
+      </c>
+      <c r="AD212">
+        <v>2.02</v>
+      </c>
+      <c r="AE212">
+        <v>0</v>
+      </c>
+      <c r="AF212">
+        <v>0</v>
+      </c>
+      <c r="AG212">
+        <v>2.05</v>
+      </c>
+      <c r="AH212">
+        <v>1.65</v>
+      </c>
+      <c r="AI212">
+        <v>2.5</v>
+      </c>
+      <c r="AJ212">
+        <v>1.5</v>
+      </c>
+      <c r="AK212">
+        <v>0</v>
+      </c>
+      <c r="AL212">
+        <v>0</v>
+      </c>
+      <c r="AM212">
+        <v>0</v>
+      </c>
+      <c r="AN212">
+        <v>1.14</v>
+      </c>
+      <c r="AO212">
+        <v>0.47</v>
+      </c>
+      <c r="AP212">
+        <v>1.13</v>
+      </c>
+      <c r="AQ212">
+        <v>0.5</v>
+      </c>
+      <c r="AR212">
+        <v>1.28</v>
+      </c>
+      <c r="AS212">
+        <v>1.01</v>
+      </c>
+      <c r="AT212">
+        <v>2.29</v>
+      </c>
+      <c r="AU212">
+        <v>3</v>
+      </c>
+      <c r="AV212">
+        <v>0</v>
+      </c>
+      <c r="AW212">
+        <v>8</v>
+      </c>
+      <c r="AX212">
+        <v>4</v>
+      </c>
+      <c r="AY212">
+        <v>14</v>
+      </c>
+      <c r="AZ212">
+        <v>5</v>
+      </c>
+      <c r="BA212">
+        <v>3</v>
+      </c>
+      <c r="BB212">
+        <v>3</v>
+      </c>
+      <c r="BC212">
+        <v>6</v>
+      </c>
+      <c r="BD212">
+        <v>0</v>
+      </c>
+      <c r="BE212">
+        <v>0</v>
+      </c>
+      <c r="BF212">
+        <v>0</v>
+      </c>
+      <c r="BG212">
+        <v>0</v>
+      </c>
+      <c r="BH212">
+        <v>0</v>
+      </c>
+      <c r="BI212">
+        <v>0</v>
+      </c>
+      <c r="BJ212">
+        <v>0</v>
+      </c>
+      <c r="BK212">
+        <v>0</v>
+      </c>
+      <c r="BL212">
+        <v>0</v>
+      </c>
+      <c r="BM212">
+        <v>0</v>
+      </c>
+      <c r="BN212">
+        <v>0</v>
+      </c>
+      <c r="BO212">
+        <v>0</v>
+      </c>
+      <c r="BP212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7856977</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45775.5</v>
+      </c>
+      <c r="F213">
+        <v>5</v>
+      </c>
+      <c r="G213" t="s">
+        <v>76</v>
+      </c>
+      <c r="H213" t="s">
+        <v>83</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+      <c r="N213">
+        <v>1</v>
+      </c>
+      <c r="O213" t="s">
+        <v>84</v>
+      </c>
+      <c r="P213" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q213">
+        <v>3.5</v>
+      </c>
+      <c r="R213">
+        <v>1.91</v>
+      </c>
+      <c r="S213">
+        <v>3.6</v>
+      </c>
+      <c r="T213">
+        <v>1.57</v>
+      </c>
+      <c r="U213">
+        <v>2.25</v>
+      </c>
+      <c r="V213">
+        <v>3.75</v>
+      </c>
+      <c r="W213">
+        <v>1.25</v>
+      </c>
+      <c r="X213">
+        <v>11</v>
+      </c>
+      <c r="Y213">
+        <v>1.05</v>
+      </c>
+      <c r="Z213">
+        <v>2.65</v>
+      </c>
+      <c r="AA213">
+        <v>2.9</v>
+      </c>
+      <c r="AB213">
+        <v>2.65</v>
+      </c>
+      <c r="AC213">
+        <v>0</v>
+      </c>
+      <c r="AD213">
+        <v>0</v>
+      </c>
+      <c r="AE213">
+        <v>1.84</v>
+      </c>
+      <c r="AF213">
+        <v>1.97</v>
+      </c>
+      <c r="AG213">
+        <v>2.3</v>
+      </c>
+      <c r="AH213">
+        <v>1.5</v>
+      </c>
+      <c r="AI213">
+        <v>2.05</v>
+      </c>
+      <c r="AJ213">
+        <v>1.7</v>
+      </c>
+      <c r="AK213">
+        <v>0</v>
+      </c>
+      <c r="AL213">
+        <v>0</v>
+      </c>
+      <c r="AM213">
+        <v>0</v>
+      </c>
+      <c r="AN213">
+        <v>1.33</v>
+      </c>
+      <c r="AO213">
+        <v>0.73</v>
+      </c>
+      <c r="AP213">
+        <v>1.25</v>
+      </c>
+      <c r="AQ213">
+        <v>0.88</v>
+      </c>
+      <c r="AR213">
+        <v>1.2</v>
+      </c>
+      <c r="AS213">
+        <v>1.02</v>
+      </c>
+      <c r="AT213">
+        <v>2.22</v>
+      </c>
+      <c r="AU213">
+        <v>5</v>
+      </c>
+      <c r="AV213">
+        <v>6</v>
+      </c>
+      <c r="AW213">
+        <v>5</v>
+      </c>
+      <c r="AX213">
+        <v>2</v>
+      </c>
+      <c r="AY213">
+        <v>11</v>
+      </c>
+      <c r="AZ213">
+        <v>8</v>
+      </c>
+      <c r="BA213">
+        <v>2</v>
+      </c>
+      <c r="BB213">
+        <v>6</v>
+      </c>
+      <c r="BC213">
+        <v>8</v>
+      </c>
+      <c r="BD213">
+        <v>0</v>
+      </c>
+      <c r="BE213">
+        <v>0</v>
+      </c>
+      <c r="BF213">
+        <v>0</v>
+      </c>
+      <c r="BG213">
+        <v>0</v>
+      </c>
+      <c r="BH213">
+        <v>0</v>
+      </c>
+      <c r="BI213">
+        <v>0</v>
+      </c>
+      <c r="BJ213">
+        <v>0</v>
+      </c>
+      <c r="BK213">
+        <v>0</v>
+      </c>
+      <c r="BL213">
+        <v>0</v>
+      </c>
+      <c r="BM213">
+        <v>0</v>
+      </c>
+      <c r="BN213">
+        <v>0</v>
+      </c>
+      <c r="BO213">
+        <v>0</v>
+      </c>
+      <c r="BP213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7856978</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45775.58333333334</v>
+      </c>
+      <c r="F214">
+        <v>5</v>
+      </c>
+      <c r="G214" t="s">
+        <v>70</v>
+      </c>
+      <c r="H214" t="s">
+        <v>78</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>3</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>3</v>
+      </c>
+      <c r="O214" t="s">
+        <v>212</v>
+      </c>
+      <c r="P214" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q214">
+        <v>2.3</v>
+      </c>
+      <c r="R214">
+        <v>2.1</v>
+      </c>
+      <c r="S214">
+        <v>5.5</v>
+      </c>
+      <c r="T214">
+        <v>1.44</v>
+      </c>
+      <c r="U214">
+        <v>2.63</v>
+      </c>
+      <c r="V214">
+        <v>3.25</v>
+      </c>
+      <c r="W214">
+        <v>1.33</v>
+      </c>
+      <c r="X214">
+        <v>9</v>
+      </c>
+      <c r="Y214">
+        <v>1.07</v>
+      </c>
+      <c r="Z214">
+        <v>1.71</v>
+      </c>
+      <c r="AA214">
+        <v>3.4</v>
+      </c>
+      <c r="AB214">
+        <v>4.5</v>
+      </c>
+      <c r="AC214">
+        <v>0</v>
+      </c>
+      <c r="AD214">
+        <v>0</v>
+      </c>
+      <c r="AE214">
+        <v>0</v>
+      </c>
+      <c r="AF214">
+        <v>0</v>
+      </c>
+      <c r="AG214">
+        <v>2</v>
+      </c>
+      <c r="AH214">
+        <v>1.67</v>
+      </c>
+      <c r="AI214">
+        <v>2</v>
+      </c>
+      <c r="AJ214">
+        <v>1.75</v>
+      </c>
+      <c r="AK214">
+        <v>0</v>
+      </c>
+      <c r="AL214">
+        <v>0</v>
+      </c>
+      <c r="AM214">
+        <v>0</v>
+      </c>
+      <c r="AN214">
+        <v>0.67</v>
+      </c>
+      <c r="AO214">
+        <v>0.86</v>
+      </c>
+      <c r="AP214">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ214">
+        <v>0.8</v>
+      </c>
+      <c r="AR214">
+        <v>1.26</v>
+      </c>
+      <c r="AS214">
+        <v>1.23</v>
+      </c>
+      <c r="AT214">
+        <v>2.49</v>
+      </c>
+      <c r="AU214">
+        <v>7</v>
+      </c>
+      <c r="AV214">
+        <v>4</v>
+      </c>
+      <c r="AW214">
+        <v>8</v>
+      </c>
+      <c r="AX214">
+        <v>5</v>
+      </c>
+      <c r="AY214">
+        <v>19</v>
+      </c>
+      <c r="AZ214">
+        <v>11</v>
+      </c>
+      <c r="BA214">
+        <v>8</v>
+      </c>
+      <c r="BB214">
+        <v>4</v>
+      </c>
+      <c r="BC214">
+        <v>12</v>
+      </c>
+      <c r="BD214">
+        <v>0</v>
+      </c>
+      <c r="BE214">
+        <v>0</v>
+      </c>
+      <c r="BF214">
+        <v>0</v>
+      </c>
+      <c r="BG214">
+        <v>0</v>
+      </c>
+      <c r="BH214">
+        <v>0</v>
+      </c>
+      <c r="BI214">
+        <v>0</v>
+      </c>
+      <c r="BJ214">
+        <v>0</v>
+      </c>
+      <c r="BK214">
+        <v>0</v>
+      </c>
+      <c r="BL214">
+        <v>0</v>
+      </c>
+      <c r="BM214">
+        <v>0</v>
+      </c>
+      <c r="BN214">
+        <v>0</v>
+      </c>
+      <c r="BO214">
+        <v>0</v>
+      </c>
+      <c r="BP214">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="311">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,6 +655,12 @@
     <t>['35', '45+1', '54']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -737,9 +743,6 @@
   </si>
   <si>
     <t>['45+1', '57']</t>
-  </si>
-  <si>
-    <t>['6']</t>
   </si>
   <si>
     <t>['90+11']</t>
@@ -938,6 +941,12 @@
   </si>
   <si>
     <t>['3']</t>
+  </si>
+  <si>
+    <t>['4', '16', '33', '42']</t>
+  </si>
+  <si>
+    <t>['89']</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP214"/>
+  <dimension ref="A1:BP216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1558,7 +1567,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1764,7 +1773,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -2382,7 +2391,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2463,7 +2472,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ6">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2794,7 +2803,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -3078,10 +3087,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ9">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3206,7 +3215,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3287,7 +3296,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ10">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3412,7 +3421,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3696,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -4442,7 +4451,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4648,7 +4657,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5060,7 +5069,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5266,7 +5275,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5472,7 +5481,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5678,7 +5687,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -6090,7 +6099,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6168,10 +6177,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR24">
         <v>2.26</v>
@@ -6296,7 +6305,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6708,7 +6717,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6786,10 +6795,10 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ27">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
         <v>1</v>
@@ -7326,7 +7335,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7738,7 +7747,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -8150,7 +8159,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8356,7 +8365,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8974,7 +8983,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -9052,7 +9061,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ38">
         <v>1.31</v>
@@ -9180,7 +9189,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9258,7 +9267,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ39">
         <v>1.2</v>
@@ -9467,7 +9476,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ40">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR40">
         <v>2.09</v>
@@ -9673,7 +9682,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ41">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR41">
         <v>1.71</v>
@@ -10004,7 +10013,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10210,7 +10219,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10828,7 +10837,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11034,7 +11043,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -11240,7 +11249,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11858,7 +11867,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -12270,7 +12279,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12476,7 +12485,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12554,7 +12563,7 @@
         <v>0.67</v>
       </c>
       <c r="AP55">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ55">
         <v>1.33</v>
@@ -12888,7 +12897,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13094,7 +13103,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13300,7 +13309,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13790,7 +13799,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ61">
         <v>2.13</v>
@@ -13918,7 +13927,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13999,7 +14008,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ62">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
         <v>1.7</v>
@@ -14124,7 +14133,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -14330,7 +14339,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14411,7 +14420,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ64">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR64">
         <v>1.31</v>
@@ -14948,7 +14957,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -15360,7 +15369,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15566,7 +15575,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15850,7 +15859,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ71">
         <v>1.2</v>
@@ -16059,7 +16068,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ72">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR72">
         <v>1.28</v>
@@ -16184,7 +16193,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16265,7 +16274,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ73">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR73">
         <v>1.13</v>
@@ -16596,7 +16605,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16674,7 +16683,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ75">
         <v>0.88</v>
@@ -16802,7 +16811,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17214,7 +17223,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17420,7 +17429,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17626,7 +17635,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18038,7 +18047,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -18244,7 +18253,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18322,7 +18331,7 @@
         <v>2.6</v>
       </c>
       <c r="AP83">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ83">
         <v>1.93</v>
@@ -19068,7 +19077,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19355,7 +19364,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR88">
         <v>1.86</v>
@@ -19686,7 +19695,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19764,7 +19773,7 @@
         <v>1.67</v>
       </c>
       <c r="AP90">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ90">
         <v>2.13</v>
@@ -19892,7 +19901,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -20098,7 +20107,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -20179,7 +20188,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ92">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR92">
         <v>1.7</v>
@@ -20510,7 +20519,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20591,7 +20600,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ94">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -20716,7 +20725,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20922,7 +20931,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -21000,7 +21009,7 @@
         <v>1.17</v>
       </c>
       <c r="AP96">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ96">
         <v>1.53</v>
@@ -21206,7 +21215,7 @@
         <v>1.83</v>
       </c>
       <c r="AP97">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ97">
         <v>1.33</v>
@@ -21334,7 +21343,7 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21540,7 +21549,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -23887,7 +23896,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ110">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR110">
         <v>1.66</v>
@@ -24012,7 +24021,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>1.57</v>
@@ -24218,7 +24227,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24296,10 +24305,10 @@
         <v>1.14</v>
       </c>
       <c r="AP112">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ112">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR112">
         <v>1.43</v>
@@ -24502,7 +24511,7 @@
         <v>1.71</v>
       </c>
       <c r="AP113">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -25042,7 +25051,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25248,7 +25257,7 @@
         <v>159</v>
       </c>
       <c r="P117" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q117">
         <v>8.5</v>
@@ -25454,7 +25463,7 @@
         <v>84</v>
       </c>
       <c r="P118" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25660,7 +25669,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25866,7 +25875,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -26153,7 +26162,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ121">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR121">
         <v>1.96</v>
@@ -26278,7 +26287,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26484,7 +26493,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q123">
         <v>4.33</v>
@@ -26565,7 +26574,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ123">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR123">
         <v>1.09</v>
@@ -26690,7 +26699,7 @@
         <v>163</v>
       </c>
       <c r="P124" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q124">
         <v>1.62</v>
@@ -27180,7 +27189,7 @@
         <v>1.63</v>
       </c>
       <c r="AP126">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ126">
         <v>1.2</v>
@@ -27386,7 +27395,7 @@
         <v>0.88</v>
       </c>
       <c r="AP127">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ127">
         <v>1.31</v>
@@ -27720,7 +27729,7 @@
         <v>108</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -27926,7 +27935,7 @@
         <v>104</v>
       </c>
       <c r="P130" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28956,7 +28965,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q135">
         <v>3.75</v>
@@ -29037,7 +29046,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ135">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR135">
         <v>1.26</v>
@@ -29162,7 +29171,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29240,7 +29249,7 @@
         <v>1</v>
       </c>
       <c r="AP136">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ136">
         <v>0.8</v>
@@ -29446,7 +29455,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP137">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ137">
         <v>0.88</v>
@@ -29780,7 +29789,7 @@
         <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -29861,7 +29870,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ139">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR139">
         <v>1.11</v>
@@ -30398,7 +30407,7 @@
         <v>172</v>
       </c>
       <c r="P142" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30604,7 +30613,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q143">
         <v>3.25</v>
@@ -31097,7 +31106,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ145">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR145">
         <v>1.37</v>
@@ -31222,7 +31231,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31509,7 +31518,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ147">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR147">
         <v>1.16</v>
@@ -31712,7 +31721,7 @@
         <v>0.6</v>
       </c>
       <c r="AP148">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ148">
         <v>0.5</v>
@@ -32046,7 +32055,7 @@
         <v>84</v>
       </c>
       <c r="P150" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>5.5</v>
@@ -32124,7 +32133,7 @@
         <v>2.3</v>
       </c>
       <c r="AP150">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ150">
         <v>1.93</v>
@@ -32252,7 +32261,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q151">
         <v>1.8</v>
@@ -32870,7 +32879,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33076,7 +33085,7 @@
         <v>147</v>
       </c>
       <c r="P155" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33360,7 +33369,7 @@
         <v>1.45</v>
       </c>
       <c r="AP156">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ156">
         <v>1.47</v>
@@ -33488,7 +33497,7 @@
         <v>177</v>
       </c>
       <c r="P157" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33569,7 +33578,7 @@
         <v>2</v>
       </c>
       <c r="AQ157">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR157">
         <v>2.15</v>
@@ -33694,7 +33703,7 @@
         <v>178</v>
       </c>
       <c r="P158" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q158">
         <v>4.33</v>
@@ -33775,7 +33784,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ158">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR158">
         <v>1.13</v>
@@ -33900,7 +33909,7 @@
         <v>179</v>
       </c>
       <c r="P159" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q159">
         <v>1.73</v>
@@ -34106,7 +34115,7 @@
         <v>84</v>
       </c>
       <c r="P160" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q160">
         <v>13</v>
@@ -34724,7 +34733,7 @@
         <v>182</v>
       </c>
       <c r="P163" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -35136,7 +35145,7 @@
         <v>184</v>
       </c>
       <c r="P165" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35342,7 +35351,7 @@
         <v>185</v>
       </c>
       <c r="P166" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q166">
         <v>2.2</v>
@@ -35548,7 +35557,7 @@
         <v>186</v>
       </c>
       <c r="P167" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -35754,7 +35763,7 @@
         <v>84</v>
       </c>
       <c r="P168" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -35832,7 +35841,7 @@
         <v>1.73</v>
       </c>
       <c r="AP168">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ168">
         <v>1.53</v>
@@ -35960,7 +35969,7 @@
         <v>187</v>
       </c>
       <c r="P169" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36166,7 +36175,7 @@
         <v>188</v>
       </c>
       <c r="P170" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q170">
         <v>4</v>
@@ -36247,7 +36256,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ170">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR170">
         <v>1.25</v>
@@ -36372,7 +36381,7 @@
         <v>189</v>
       </c>
       <c r="P171" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36784,7 +36793,7 @@
         <v>122</v>
       </c>
       <c r="P173" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q173">
         <v>3.6</v>
@@ -36865,7 +36874,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ173">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR173">
         <v>1.15</v>
@@ -37068,7 +37077,7 @@
         <v>0.5</v>
       </c>
       <c r="AP174">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ174">
         <v>0.5</v>
@@ -37402,7 +37411,7 @@
         <v>84</v>
       </c>
       <c r="P176" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -38226,7 +38235,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q180">
         <v>6.5</v>
@@ -38638,7 +38647,7 @@
         <v>196</v>
       </c>
       <c r="P182" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -38844,7 +38853,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -38922,7 +38931,7 @@
         <v>0.75</v>
       </c>
       <c r="AP183">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ183">
         <v>0.8</v>
@@ -39050,7 +39059,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39128,10 +39137,10 @@
         <v>1.77</v>
       </c>
       <c r="AP184">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ184">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR184">
         <v>1.46</v>
@@ -39462,7 +39471,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q186">
         <v>3.6</v>
@@ -39540,10 +39549,10 @@
         <v>1.15</v>
       </c>
       <c r="AP186">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ186">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR186">
         <v>1.35</v>
@@ -39668,7 +39677,7 @@
         <v>200</v>
       </c>
       <c r="P187" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q187">
         <v>3.5</v>
@@ -39874,7 +39883,7 @@
         <v>113</v>
       </c>
       <c r="P188" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q188">
         <v>2.63</v>
@@ -40080,7 +40089,7 @@
         <v>201</v>
       </c>
       <c r="P189" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40286,7 +40295,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q190">
         <v>2.38</v>
@@ -40904,7 +40913,7 @@
         <v>84</v>
       </c>
       <c r="P193" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q193">
         <v>4.75</v>
@@ -41522,7 +41531,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q196">
         <v>3.5</v>
@@ -42630,7 +42639,7 @@
         <v>1.29</v>
       </c>
       <c r="AP201">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ201">
         <v>1.2</v>
@@ -42758,7 +42767,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -43045,7 +43054,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ203">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR203">
         <v>1.6</v>
@@ -43582,7 +43591,7 @@
         <v>200</v>
       </c>
       <c r="P206" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q206">
         <v>7.5</v>
@@ -43788,7 +43797,7 @@
         <v>84</v>
       </c>
       <c r="P207" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -43994,7 +44003,7 @@
         <v>84</v>
       </c>
       <c r="P208" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q208">
         <v>3.25</v>
@@ -44072,7 +44081,7 @@
         <v>1.36</v>
       </c>
       <c r="AP208">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ208">
         <v>1.47</v>
@@ -44200,7 +44209,7 @@
         <v>134</v>
       </c>
       <c r="P209" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q209">
         <v>3.6</v>
@@ -44281,7 +44290,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ209">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR209">
         <v>1.35</v>
@@ -44406,7 +44415,7 @@
         <v>84</v>
       </c>
       <c r="P210" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44612,7 +44621,7 @@
         <v>211</v>
       </c>
       <c r="P211" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q211">
         <v>2.6</v>
@@ -45387,6 +45396,418 @@
       </c>
       <c r="BP214">
         <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7856979</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45780.58333333334</v>
+      </c>
+      <c r="F215">
+        <v>5</v>
+      </c>
+      <c r="G215" t="s">
+        <v>79</v>
+      </c>
+      <c r="H215" t="s">
+        <v>74</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>4</v>
+      </c>
+      <c r="K215">
+        <v>4</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>4</v>
+      </c>
+      <c r="N215">
+        <v>5</v>
+      </c>
+      <c r="O215" t="s">
+        <v>213</v>
+      </c>
+      <c r="P215" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q215">
+        <v>2.75</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
+        <v>4.75</v>
+      </c>
+      <c r="T215">
+        <v>1.53</v>
+      </c>
+      <c r="U215">
+        <v>2.38</v>
+      </c>
+      <c r="V215">
+        <v>3.5</v>
+      </c>
+      <c r="W215">
+        <v>1.29</v>
+      </c>
+      <c r="X215">
+        <v>11</v>
+      </c>
+      <c r="Y215">
+        <v>1.05</v>
+      </c>
+      <c r="Z215">
+        <v>2.2</v>
+      </c>
+      <c r="AA215">
+        <v>3.4</v>
+      </c>
+      <c r="AB215">
+        <v>2.85</v>
+      </c>
+      <c r="AC215">
+        <v>1.09</v>
+      </c>
+      <c r="AD215">
+        <v>6.5</v>
+      </c>
+      <c r="AE215">
+        <v>1.45</v>
+      </c>
+      <c r="AF215">
+        <v>2.6</v>
+      </c>
+      <c r="AG215">
+        <v>2.25</v>
+      </c>
+      <c r="AH215">
+        <v>1.53</v>
+      </c>
+      <c r="AI215">
+        <v>2.1</v>
+      </c>
+      <c r="AJ215">
+        <v>1.67</v>
+      </c>
+      <c r="AK215">
+        <v>1.26</v>
+      </c>
+      <c r="AL215">
+        <v>1.34</v>
+      </c>
+      <c r="AM215">
+        <v>1.72</v>
+      </c>
+      <c r="AN215">
+        <v>1.47</v>
+      </c>
+      <c r="AO215">
+        <v>1.73</v>
+      </c>
+      <c r="AP215">
+        <v>1.38</v>
+      </c>
+      <c r="AQ215">
+        <v>1.81</v>
+      </c>
+      <c r="AR215">
+        <v>1.36</v>
+      </c>
+      <c r="AS215">
+        <v>1.2</v>
+      </c>
+      <c r="AT215">
+        <v>2.56</v>
+      </c>
+      <c r="AU215">
+        <v>8</v>
+      </c>
+      <c r="AV215">
+        <v>7</v>
+      </c>
+      <c r="AW215">
+        <v>11</v>
+      </c>
+      <c r="AX215">
+        <v>1</v>
+      </c>
+      <c r="AY215">
+        <v>19</v>
+      </c>
+      <c r="AZ215">
+        <v>8</v>
+      </c>
+      <c r="BA215">
+        <v>10</v>
+      </c>
+      <c r="BB215">
+        <v>2</v>
+      </c>
+      <c r="BC215">
+        <v>12</v>
+      </c>
+      <c r="BD215">
+        <v>1.53</v>
+      </c>
+      <c r="BE215">
+        <v>6.5</v>
+      </c>
+      <c r="BF215">
+        <v>2.8</v>
+      </c>
+      <c r="BG215">
+        <v>1.44</v>
+      </c>
+      <c r="BH215">
+        <v>2.4</v>
+      </c>
+      <c r="BI215">
+        <v>1.76</v>
+      </c>
+      <c r="BJ215">
+        <v>1.85</v>
+      </c>
+      <c r="BK215">
+        <v>2.2</v>
+      </c>
+      <c r="BL215">
+        <v>1.52</v>
+      </c>
+      <c r="BM215">
+        <v>2.9</v>
+      </c>
+      <c r="BN215">
+        <v>1.3</v>
+      </c>
+      <c r="BO215">
+        <v>3.9</v>
+      </c>
+      <c r="BP215">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7856980</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45780.58333333334</v>
+      </c>
+      <c r="F216">
+        <v>5</v>
+      </c>
+      <c r="G216" t="s">
+        <v>77</v>
+      </c>
+      <c r="H216" t="s">
+        <v>82</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" t="s">
+        <v>214</v>
+      </c>
+      <c r="P216" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q216">
+        <v>4</v>
+      </c>
+      <c r="R216">
+        <v>2.2</v>
+      </c>
+      <c r="S216">
+        <v>2.63</v>
+      </c>
+      <c r="T216">
+        <v>1.36</v>
+      </c>
+      <c r="U216">
+        <v>3</v>
+      </c>
+      <c r="V216">
+        <v>2.75</v>
+      </c>
+      <c r="W216">
+        <v>1.4</v>
+      </c>
+      <c r="X216">
+        <v>7</v>
+      </c>
+      <c r="Y216">
+        <v>1.1</v>
+      </c>
+      <c r="Z216">
+        <v>3.6</v>
+      </c>
+      <c r="AA216">
+        <v>3.5</v>
+      </c>
+      <c r="AB216">
+        <v>2.05</v>
+      </c>
+      <c r="AC216">
+        <v>1.05</v>
+      </c>
+      <c r="AD216">
+        <v>8.5</v>
+      </c>
+      <c r="AE216">
+        <v>1.3</v>
+      </c>
+      <c r="AF216">
+        <v>3.35</v>
+      </c>
+      <c r="AG216">
+        <v>1.91</v>
+      </c>
+      <c r="AH216">
+        <v>1.91</v>
+      </c>
+      <c r="AI216">
+        <v>1.75</v>
+      </c>
+      <c r="AJ216">
+        <v>2</v>
+      </c>
+      <c r="AK216">
+        <v>1.7</v>
+      </c>
+      <c r="AL216">
+        <v>1.3</v>
+      </c>
+      <c r="AM216">
+        <v>1.31</v>
+      </c>
+      <c r="AN216">
+        <v>1.2</v>
+      </c>
+      <c r="AO216">
+        <v>1.27</v>
+      </c>
+      <c r="AP216">
+        <v>1.19</v>
+      </c>
+      <c r="AQ216">
+        <v>1.25</v>
+      </c>
+      <c r="AR216">
+        <v>1.51</v>
+      </c>
+      <c r="AS216">
+        <v>1.27</v>
+      </c>
+      <c r="AT216">
+        <v>2.78</v>
+      </c>
+      <c r="AU216">
+        <v>5</v>
+      </c>
+      <c r="AV216">
+        <v>6</v>
+      </c>
+      <c r="AW216">
+        <v>10</v>
+      </c>
+      <c r="AX216">
+        <v>8</v>
+      </c>
+      <c r="AY216">
+        <v>15</v>
+      </c>
+      <c r="AZ216">
+        <v>14</v>
+      </c>
+      <c r="BA216">
+        <v>8</v>
+      </c>
+      <c r="BB216">
+        <v>1</v>
+      </c>
+      <c r="BC216">
+        <v>9</v>
+      </c>
+      <c r="BD216">
+        <v>2.62</v>
+      </c>
+      <c r="BE216">
+        <v>6.3</v>
+      </c>
+      <c r="BF216">
+        <v>1.81</v>
+      </c>
+      <c r="BG216">
+        <v>1.45</v>
+      </c>
+      <c r="BH216">
+        <v>2.48</v>
+      </c>
+      <c r="BI216">
+        <v>1.88</v>
+      </c>
+      <c r="BJ216">
+        <v>1.92</v>
+      </c>
+      <c r="BK216">
+        <v>2.38</v>
+      </c>
+      <c r="BL216">
+        <v>1.49</v>
+      </c>
+      <c r="BM216">
+        <v>3.2</v>
+      </c>
+      <c r="BN216">
+        <v>1.26</v>
+      </c>
+      <c r="BO216">
+        <v>4.65</v>
+      </c>
+      <c r="BP216">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="314">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,9 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['14', '30', '81', '87']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -947,6 +950,12 @@
   </si>
   <si>
     <t>['89']</t>
+  </si>
+  <si>
+    <t>['51', '61']</t>
+  </si>
+  <si>
+    <t>['1', '32']</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP216"/>
+  <dimension ref="A1:BP218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1567,7 +1576,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1773,7 +1782,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -2391,7 +2400,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2675,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ7">
         <v>1.2</v>
@@ -2803,7 +2812,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -3215,7 +3224,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3421,7 +3430,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3499,7 +3508,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -4323,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15">
         <v>0.88</v>
@@ -4451,7 +4460,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4657,7 +4666,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5069,7 +5078,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5275,7 +5284,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5481,7 +5490,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5562,7 +5571,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ21">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR21">
         <v>1.23</v>
@@ -5687,7 +5696,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5768,7 +5777,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6099,7 +6108,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6305,7 +6314,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6589,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
         <v>1.2</v>
@@ -6717,7 +6726,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7004,7 +7013,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR28">
         <v>1.95</v>
@@ -7207,7 +7216,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ29">
         <v>1.33</v>
@@ -7335,7 +7344,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7416,7 +7425,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ30">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR30">
         <v>0.96</v>
@@ -7747,7 +7756,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -8159,7 +8168,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8365,7 +8374,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8983,7 +8992,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -9189,7 +9198,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9473,7 +9482,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40">
         <v>1.81</v>
@@ -9885,10 +9894,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR42">
         <v>1.99</v>
@@ -10013,7 +10022,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10219,7 +10228,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10837,7 +10846,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11043,7 +11052,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -11249,7 +11258,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11330,7 +11339,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ49">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR49">
         <v>1.09</v>
@@ -11867,7 +11876,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -12279,7 +12288,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12357,7 +12366,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ54">
         <v>1.31</v>
@@ -12566,7 +12575,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
         <v>1.16</v>
@@ -12897,7 +12906,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12975,10 +12984,10 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ57">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR57">
         <v>1.84</v>
@@ -13103,7 +13112,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13309,7 +13318,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13927,7 +13936,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14133,7 +14142,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -14339,7 +14348,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14623,7 +14632,7 @@
         <v>1.2</v>
       </c>
       <c r="AP65">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ65">
         <v>0.8</v>
@@ -14957,7 +14966,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -15244,7 +15253,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR68">
         <v>1.45</v>
@@ -15369,7 +15378,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15575,7 +15584,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15656,7 +15665,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ70">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR70">
         <v>1.11</v>
@@ -16193,7 +16202,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16477,7 +16486,7 @@
         <v>1.8</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ74">
         <v>1.47</v>
@@ -16605,7 +16614,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16811,7 +16820,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17223,7 +17232,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17429,7 +17438,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17635,7 +17644,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18047,7 +18056,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -18128,7 +18137,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ82">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR82">
         <v>1.27</v>
@@ -18253,7 +18262,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18334,7 +18343,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ83">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR83">
         <v>1.54</v>
@@ -18537,7 +18546,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ84">
         <v>1.53</v>
@@ -19077,7 +19086,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19361,7 +19370,7 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ88">
         <v>1.25</v>
@@ -19695,7 +19704,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19901,7 +19910,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -20107,7 +20116,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -20391,7 +20400,7 @@
         <v>2</v>
       </c>
       <c r="AP93">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ93">
         <v>1.33</v>
@@ -20519,7 +20528,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20725,7 +20734,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20806,7 +20815,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ95">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR95">
         <v>1.27</v>
@@ -20931,7 +20940,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -21218,7 +21227,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ97">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR97">
         <v>1.4</v>
@@ -21343,7 +21352,7 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21549,7 +21558,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22660,7 +22669,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ104">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR104">
         <v>1.19</v>
@@ -22866,7 +22875,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ105">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR105">
         <v>1.29</v>
@@ -23275,7 +23284,7 @@
         <v>0.86</v>
       </c>
       <c r="AP107">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ107">
         <v>0.5</v>
@@ -24021,7 +24030,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q111">
         <v>1.57</v>
@@ -24099,7 +24108,7 @@
         <v>0.86</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ111">
         <v>1.31</v>
@@ -24227,7 +24236,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -25051,7 +25060,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25257,7 +25266,7 @@
         <v>159</v>
       </c>
       <c r="P117" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q117">
         <v>8.5</v>
@@ -25463,7 +25472,7 @@
         <v>84</v>
       </c>
       <c r="P118" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25669,7 +25678,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25750,7 +25759,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ119">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR119">
         <v>1.85</v>
@@ -25875,7 +25884,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -26159,7 +26168,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ121">
         <v>1.25</v>
@@ -26287,7 +26296,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26368,7 +26377,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ122">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR122">
         <v>1.28</v>
@@ -26493,7 +26502,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q123">
         <v>4.33</v>
@@ -26699,7 +26708,7 @@
         <v>163</v>
       </c>
       <c r="P124" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q124">
         <v>1.62</v>
@@ -26983,7 +26992,7 @@
         <v>0.63</v>
       </c>
       <c r="AP125">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ125">
         <v>0.88</v>
@@ -27729,7 +27738,7 @@
         <v>108</v>
       </c>
       <c r="P129" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -27935,7 +27944,7 @@
         <v>104</v>
       </c>
       <c r="P130" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28428,7 +28437,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ132">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR132">
         <v>1.43</v>
@@ -28965,7 +28974,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q135">
         <v>3.75</v>
@@ -29171,7 +29180,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29661,7 +29670,7 @@
         <v>1.44</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ138">
         <v>1.2</v>
@@ -29789,7 +29798,7 @@
         <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -30279,10 +30288,10 @@
         <v>2</v>
       </c>
       <c r="AP141">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ141">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR141">
         <v>1.93</v>
@@ -30407,7 +30416,7 @@
         <v>172</v>
       </c>
       <c r="P142" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30613,7 +30622,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q143">
         <v>3.25</v>
@@ -31231,7 +31240,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -32055,7 +32064,7 @@
         <v>84</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q150">
         <v>5.5</v>
@@ -32136,7 +32145,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ150">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR150">
         <v>1.42</v>
@@ -32261,7 +32270,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q151">
         <v>1.8</v>
@@ -32339,7 +32348,7 @@
         <v>1.5</v>
       </c>
       <c r="AP151">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ151">
         <v>1.47</v>
@@ -32548,7 +32557,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ152">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR152">
         <v>1.42</v>
@@ -32751,7 +32760,7 @@
         <v>0.9</v>
       </c>
       <c r="AP153">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ153">
         <v>0.8</v>
@@ -32879,7 +32888,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33085,7 +33094,7 @@
         <v>147</v>
       </c>
       <c r="P155" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33497,7 +33506,7 @@
         <v>177</v>
       </c>
       <c r="P157" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33575,7 +33584,7 @@
         <v>1.82</v>
       </c>
       <c r="AP157">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ157">
         <v>1.81</v>
@@ -33703,7 +33712,7 @@
         <v>178</v>
       </c>
       <c r="P158" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q158">
         <v>4.33</v>
@@ -33909,7 +33918,7 @@
         <v>179</v>
       </c>
       <c r="P159" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q159">
         <v>1.73</v>
@@ -34115,7 +34124,7 @@
         <v>84</v>
       </c>
       <c r="P160" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q160">
         <v>13</v>
@@ -34733,7 +34742,7 @@
         <v>182</v>
       </c>
       <c r="P163" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -35145,7 +35154,7 @@
         <v>184</v>
       </c>
       <c r="P165" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35351,7 +35360,7 @@
         <v>185</v>
       </c>
       <c r="P166" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q166">
         <v>2.2</v>
@@ -35557,7 +35566,7 @@
         <v>186</v>
       </c>
       <c r="P167" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -35638,7 +35647,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ167">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR167">
         <v>1.13</v>
@@ -35763,7 +35772,7 @@
         <v>84</v>
       </c>
       <c r="P168" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -35969,7 +35978,7 @@
         <v>187</v>
       </c>
       <c r="P169" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36047,10 +36056,10 @@
         <v>2.36</v>
       </c>
       <c r="AP169">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ169">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR169">
         <v>1.94</v>
@@ -36175,7 +36184,7 @@
         <v>188</v>
       </c>
       <c r="P170" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q170">
         <v>4</v>
@@ -36381,7 +36390,7 @@
         <v>189</v>
       </c>
       <c r="P171" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36793,7 +36802,7 @@
         <v>122</v>
       </c>
       <c r="P173" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q173">
         <v>3.6</v>
@@ -37411,7 +37420,7 @@
         <v>84</v>
       </c>
       <c r="P176" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -37489,7 +37498,7 @@
         <v>2.17</v>
       </c>
       <c r="AP176">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ176">
         <v>2.13</v>
@@ -38107,7 +38116,7 @@
         <v>1.5</v>
       </c>
       <c r="AP179">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ179">
         <v>1.2</v>
@@ -38235,7 +38244,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q180">
         <v>6.5</v>
@@ -38316,7 +38325,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ180">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR180">
         <v>1.45</v>
@@ -38647,7 +38656,7 @@
         <v>196</v>
       </c>
       <c r="P182" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -38728,7 +38737,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ182">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR182">
         <v>1.3</v>
@@ -38853,7 +38862,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -39059,7 +39068,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39471,7 +39480,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q186">
         <v>3.6</v>
@@ -39677,7 +39686,7 @@
         <v>200</v>
       </c>
       <c r="P187" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q187">
         <v>3.5</v>
@@ -39883,7 +39892,7 @@
         <v>113</v>
       </c>
       <c r="P188" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q188">
         <v>2.63</v>
@@ -40089,7 +40098,7 @@
         <v>201</v>
       </c>
       <c r="P189" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40167,10 +40176,10 @@
         <v>2</v>
       </c>
       <c r="AP189">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ189">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR189">
         <v>2.06</v>
@@ -40295,7 +40304,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q190">
         <v>2.38</v>
@@ -40373,10 +40382,10 @@
         <v>1.54</v>
       </c>
       <c r="AP190">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ190">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR190">
         <v>2</v>
@@ -40913,7 +40922,7 @@
         <v>84</v>
       </c>
       <c r="P193" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q193">
         <v>4.75</v>
@@ -41531,7 +41540,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q196">
         <v>3.5</v>
@@ -42767,7 +42776,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -42848,7 +42857,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ202">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR202">
         <v>1.91</v>
@@ -43257,7 +43266,7 @@
         <v>1.64</v>
       </c>
       <c r="AP204">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ204">
         <v>1.53</v>
@@ -43591,7 +43600,7 @@
         <v>200</v>
       </c>
       <c r="P206" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q206">
         <v>7.5</v>
@@ -43797,7 +43806,7 @@
         <v>84</v>
       </c>
       <c r="P207" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44003,7 +44012,7 @@
         <v>84</v>
       </c>
       <c r="P208" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q208">
         <v>3.25</v>
@@ -44209,7 +44218,7 @@
         <v>134</v>
       </c>
       <c r="P209" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q209">
         <v>3.6</v>
@@ -44415,7 +44424,7 @@
         <v>84</v>
       </c>
       <c r="P210" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44493,7 +44502,7 @@
         <v>2.07</v>
       </c>
       <c r="AP210">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ210">
         <v>2.13</v>
@@ -44621,7 +44630,7 @@
         <v>211</v>
       </c>
       <c r="P211" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q211">
         <v>2.6</v>
@@ -44702,7 +44711,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ211">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR211">
         <v>1.72</v>
@@ -45445,7 +45454,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45651,7 +45660,7 @@
         <v>214</v>
       </c>
       <c r="P216" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -45808,6 +45817,418 @@
       </c>
       <c r="BP216">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7856982</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45781.58333333334</v>
+      </c>
+      <c r="F217">
+        <v>5</v>
+      </c>
+      <c r="G217" t="s">
+        <v>75</v>
+      </c>
+      <c r="H217" t="s">
+        <v>73</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>2</v>
+      </c>
+      <c r="N217">
+        <v>3</v>
+      </c>
+      <c r="O217" t="s">
+        <v>194</v>
+      </c>
+      <c r="P217" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q217">
+        <v>2.75</v>
+      </c>
+      <c r="R217">
+        <v>2.1</v>
+      </c>
+      <c r="S217">
+        <v>4.33</v>
+      </c>
+      <c r="T217">
+        <v>1.44</v>
+      </c>
+      <c r="U217">
+        <v>2.63</v>
+      </c>
+      <c r="V217">
+        <v>3.25</v>
+      </c>
+      <c r="W217">
+        <v>1.33</v>
+      </c>
+      <c r="X217">
+        <v>9</v>
+      </c>
+      <c r="Y217">
+        <v>1.07</v>
+      </c>
+      <c r="Z217">
+        <v>2.2</v>
+      </c>
+      <c r="AA217">
+        <v>3.2</v>
+      </c>
+      <c r="AB217">
+        <v>3.1</v>
+      </c>
+      <c r="AC217">
+        <v>1.02</v>
+      </c>
+      <c r="AD217">
+        <v>7.9</v>
+      </c>
+      <c r="AE217">
+        <v>1.32</v>
+      </c>
+      <c r="AF217">
+        <v>2.97</v>
+      </c>
+      <c r="AG217">
+        <v>1.95</v>
+      </c>
+      <c r="AH217">
+        <v>1.7</v>
+      </c>
+      <c r="AI217">
+        <v>1.95</v>
+      </c>
+      <c r="AJ217">
+        <v>1.8</v>
+      </c>
+      <c r="AK217">
+        <v>1.29</v>
+      </c>
+      <c r="AL217">
+        <v>1.3</v>
+      </c>
+      <c r="AM217">
+        <v>1.73</v>
+      </c>
+      <c r="AN217">
+        <v>2</v>
+      </c>
+      <c r="AO217">
+        <v>1.33</v>
+      </c>
+      <c r="AP217">
+        <v>1.88</v>
+      </c>
+      <c r="AQ217">
+        <v>1.44</v>
+      </c>
+      <c r="AR217">
+        <v>2.03</v>
+      </c>
+      <c r="AS217">
+        <v>1.52</v>
+      </c>
+      <c r="AT217">
+        <v>3.55</v>
+      </c>
+      <c r="AU217">
+        <v>4</v>
+      </c>
+      <c r="AV217">
+        <v>4</v>
+      </c>
+      <c r="AW217">
+        <v>12</v>
+      </c>
+      <c r="AX217">
+        <v>6</v>
+      </c>
+      <c r="AY217">
+        <v>22</v>
+      </c>
+      <c r="AZ217">
+        <v>13</v>
+      </c>
+      <c r="BA217">
+        <v>5</v>
+      </c>
+      <c r="BB217">
+        <v>2</v>
+      </c>
+      <c r="BC217">
+        <v>7</v>
+      </c>
+      <c r="BD217">
+        <v>1.64</v>
+      </c>
+      <c r="BE217">
+        <v>6.5</v>
+      </c>
+      <c r="BF217">
+        <v>2.55</v>
+      </c>
+      <c r="BG217">
+        <v>1.46</v>
+      </c>
+      <c r="BH217">
+        <v>2.53</v>
+      </c>
+      <c r="BI217">
+        <v>1.79</v>
+      </c>
+      <c r="BJ217">
+        <v>1.96</v>
+      </c>
+      <c r="BK217">
+        <v>2.27</v>
+      </c>
+      <c r="BL217">
+        <v>1.59</v>
+      </c>
+      <c r="BM217">
+        <v>2.9</v>
+      </c>
+      <c r="BN217">
+        <v>1.36</v>
+      </c>
+      <c r="BO217">
+        <v>3.95</v>
+      </c>
+      <c r="BP217">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7856983</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45781.58333333334</v>
+      </c>
+      <c r="F218">
+        <v>5</v>
+      </c>
+      <c r="G218" t="s">
+        <v>80</v>
+      </c>
+      <c r="H218" t="s">
+        <v>71</v>
+      </c>
+      <c r="I218">
+        <v>2</v>
+      </c>
+      <c r="J218">
+        <v>2</v>
+      </c>
+      <c r="K218">
+        <v>4</v>
+      </c>
+      <c r="L218">
+        <v>4</v>
+      </c>
+      <c r="M218">
+        <v>2</v>
+      </c>
+      <c r="N218">
+        <v>6</v>
+      </c>
+      <c r="O218" t="s">
+        <v>215</v>
+      </c>
+      <c r="P218" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q218">
+        <v>3.4</v>
+      </c>
+      <c r="R218">
+        <v>2.1</v>
+      </c>
+      <c r="S218">
+        <v>3.25</v>
+      </c>
+      <c r="T218">
+        <v>1.44</v>
+      </c>
+      <c r="U218">
+        <v>2.63</v>
+      </c>
+      <c r="V218">
+        <v>3</v>
+      </c>
+      <c r="W218">
+        <v>1.36</v>
+      </c>
+      <c r="X218">
+        <v>9</v>
+      </c>
+      <c r="Y218">
+        <v>1.07</v>
+      </c>
+      <c r="Z218">
+        <v>2.2</v>
+      </c>
+      <c r="AA218">
+        <v>3.3</v>
+      </c>
+      <c r="AB218">
+        <v>2.95</v>
+      </c>
+      <c r="AC218">
+        <v>1.01</v>
+      </c>
+      <c r="AD218">
+        <v>9</v>
+      </c>
+      <c r="AE218">
+        <v>1.29</v>
+      </c>
+      <c r="AF218">
+        <v>3.12</v>
+      </c>
+      <c r="AG218">
+        <v>1.95</v>
+      </c>
+      <c r="AH218">
+        <v>1.7</v>
+      </c>
+      <c r="AI218">
+        <v>1.8</v>
+      </c>
+      <c r="AJ218">
+        <v>1.95</v>
+      </c>
+      <c r="AK218">
+        <v>1.47</v>
+      </c>
+      <c r="AL218">
+        <v>1.31</v>
+      </c>
+      <c r="AM218">
+        <v>1.47</v>
+      </c>
+      <c r="AN218">
+        <v>2.47</v>
+      </c>
+      <c r="AO218">
+        <v>1.93</v>
+      </c>
+      <c r="AP218">
+        <v>2.5</v>
+      </c>
+      <c r="AQ218">
+        <v>1.81</v>
+      </c>
+      <c r="AR218">
+        <v>1.94</v>
+      </c>
+      <c r="AS218">
+        <v>1.57</v>
+      </c>
+      <c r="AT218">
+        <v>3.51</v>
+      </c>
+      <c r="AU218">
+        <v>5</v>
+      </c>
+      <c r="AV218">
+        <v>4</v>
+      </c>
+      <c r="AW218">
+        <v>8</v>
+      </c>
+      <c r="AX218">
+        <v>7</v>
+      </c>
+      <c r="AY218">
+        <v>17</v>
+      </c>
+      <c r="AZ218">
+        <v>13</v>
+      </c>
+      <c r="BA218">
+        <v>4</v>
+      </c>
+      <c r="BB218">
+        <v>4</v>
+      </c>
+      <c r="BC218">
+        <v>8</v>
+      </c>
+      <c r="BD218">
+        <v>1.91</v>
+      </c>
+      <c r="BE218">
+        <v>5.8</v>
+      </c>
+      <c r="BF218">
+        <v>2.15</v>
+      </c>
+      <c r="BG218">
+        <v>1.58</v>
+      </c>
+      <c r="BH218">
+        <v>2.1</v>
+      </c>
+      <c r="BI218">
+        <v>1.98</v>
+      </c>
+      <c r="BJ218">
+        <v>1.65</v>
+      </c>
+      <c r="BK218">
+        <v>2.6</v>
+      </c>
+      <c r="BL218">
+        <v>1.37</v>
+      </c>
+      <c r="BM218">
+        <v>3.5</v>
+      </c>
+      <c r="BN218">
+        <v>1.21</v>
+      </c>
+      <c r="BO218">
+        <v>4.8</v>
+      </c>
+      <c r="BP218">
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,12 @@
     <t>['14', '30', '81', '87']</t>
   </si>
   <si>
+    <t>['38', '70', '77']</t>
+  </si>
+  <si>
+    <t>['33', '51']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -956,6 +962,9 @@
   </si>
   <si>
     <t>['1', '32']</t>
+  </si>
+  <si>
+    <t>['15', '24', '41']</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP218"/>
+  <dimension ref="A1:BP221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1576,7 +1585,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1782,7 +1791,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -2400,7 +2409,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2812,7 +2821,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -3224,7 +3233,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3302,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ10">
         <v>1.25</v>
@@ -3430,7 +3439,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3717,7 +3726,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3923,7 +3932,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ13">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR13">
         <v>1.83</v>
@@ -4129,7 +4138,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ14">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR14">
         <v>1.21</v>
@@ -4460,7 +4469,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4538,7 +4547,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ16">
         <v>2.13</v>
@@ -4666,7 +4675,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5078,7 +5087,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5284,7 +5293,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5490,7 +5499,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5696,7 +5705,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5774,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ22">
         <v>1.44</v>
@@ -5980,7 +5989,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ23">
         <v>0.88</v>
@@ -6108,7 +6117,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6314,7 +6323,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6392,10 +6401,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ25">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR25">
         <v>0.98</v>
@@ -6601,7 +6610,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ26">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR26">
         <v>1.48</v>
@@ -6726,7 +6735,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7219,7 +7228,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -7344,7 +7353,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7756,7 +7765,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -8168,7 +8177,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8374,7 +8383,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8658,7 +8667,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ36">
         <v>1.53</v>
@@ -8992,7 +9001,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -9073,7 +9082,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ38">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -9198,7 +9207,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9279,7 +9288,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ39">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR39">
         <v>1.2</v>
@@ -10022,7 +10031,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10100,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ43">
         <v>0.8</v>
@@ -10228,7 +10237,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10309,7 +10318,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR44">
         <v>1.35</v>
@@ -10846,7 +10855,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10924,7 +10933,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ47">
         <v>1.2</v>
@@ -11052,7 +11061,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -11130,7 +11139,7 @@
         <v>1.67</v>
       </c>
       <c r="AP48">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
         <v>1.47</v>
@@ -11258,7 +11267,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11876,7 +11885,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11957,7 +11966,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ52">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -12160,7 +12169,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ53">
         <v>1.47</v>
@@ -12288,7 +12297,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12369,7 +12378,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ54">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR54">
         <v>2.03</v>
@@ -12906,7 +12915,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13112,7 +13121,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13193,7 +13202,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR58">
         <v>1.3</v>
@@ -13318,7 +13327,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13602,7 +13611,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ60">
         <v>1.53</v>
@@ -13936,7 +13945,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14142,7 +14151,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -14348,7 +14357,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14426,7 +14435,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ64">
         <v>1.81</v>
@@ -14838,10 +14847,10 @@
         <v>1.75</v>
       </c>
       <c r="AP66">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ66">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR66">
         <v>1.31</v>
@@ -14966,7 +14975,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -15047,7 +15056,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ67">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR67">
         <v>1.46</v>
@@ -15378,7 +15387,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15584,7 +15593,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15662,7 +15671,7 @@
         <v>2.5</v>
       </c>
       <c r="AP70">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ70">
         <v>1.81</v>
@@ -16202,7 +16211,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16280,7 +16289,7 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ73">
         <v>1.81</v>
@@ -16614,7 +16623,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16820,7 +16829,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16901,7 +16910,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ76">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR76">
         <v>1.06</v>
@@ -17232,7 +17241,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17438,7 +17447,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17516,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ79">
         <v>0.8</v>
@@ -17644,7 +17653,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17722,7 +17731,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ80">
         <v>1.2</v>
@@ -17931,7 +17940,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ81">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
         <v>1.51</v>
@@ -18056,7 +18065,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -18262,7 +18271,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18755,7 +18764,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ85">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR85">
         <v>1.32</v>
@@ -19086,7 +19095,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19167,7 +19176,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ87">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR87">
         <v>1.2</v>
@@ -19576,7 +19585,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ89">
         <v>1.47</v>
@@ -19704,7 +19713,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19910,7 +19919,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -20116,7 +20125,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -20403,7 +20412,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ93">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR93">
         <v>1.95</v>
@@ -20528,7 +20537,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20734,7 +20743,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20812,7 +20821,7 @@
         <v>2.67</v>
       </c>
       <c r="AP95">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ95">
         <v>1.81</v>
@@ -20940,7 +20949,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -21352,7 +21361,7 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21430,10 +21439,10 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ98">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR98">
         <v>1.1</v>
@@ -21558,7 +21567,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21636,10 +21645,10 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ99">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR99">
         <v>1.5</v>
@@ -21842,7 +21851,7 @@
         <v>1.43</v>
       </c>
       <c r="AP100">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ100">
         <v>1.53</v>
@@ -23078,7 +23087,7 @@
         <v>1.86</v>
       </c>
       <c r="AP106">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ106">
         <v>2.13</v>
@@ -23490,10 +23499,10 @@
         <v>1.71</v>
       </c>
       <c r="AP108">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ108">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR108">
         <v>1.22</v>
@@ -24030,7 +24039,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q111">
         <v>1.57</v>
@@ -24111,7 +24120,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ111">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR111">
         <v>1.89</v>
@@ -24236,7 +24245,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24523,7 +24532,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR113">
         <v>1.13</v>
@@ -24726,7 +24735,7 @@
         <v>0.75</v>
       </c>
       <c r="AP114">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ114">
         <v>0.5</v>
@@ -25060,7 +25069,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25266,7 +25275,7 @@
         <v>159</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q117">
         <v>8.5</v>
@@ -25472,7 +25481,7 @@
         <v>84</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25678,7 +25687,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25884,7 +25893,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -26296,7 +26305,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26374,7 +26383,7 @@
         <v>2.13</v>
       </c>
       <c r="AP122">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ122">
         <v>1.44</v>
@@ -26502,7 +26511,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q123">
         <v>4.33</v>
@@ -26580,7 +26589,7 @@
         <v>1.38</v>
       </c>
       <c r="AP123">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ123">
         <v>1.81</v>
@@ -26708,7 +26717,7 @@
         <v>163</v>
       </c>
       <c r="P124" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q124">
         <v>1.62</v>
@@ -26789,7 +26798,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ124">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR124">
         <v>1.66</v>
@@ -27201,7 +27210,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ126">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR126">
         <v>1.41</v>
@@ -27407,7 +27416,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ127">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR127">
         <v>1.2</v>
@@ -27610,10 +27619,10 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ128">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR128">
         <v>1.37</v>
@@ -27738,7 +27747,7 @@
         <v>108</v>
       </c>
       <c r="P129" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -27944,7 +27953,7 @@
         <v>104</v>
       </c>
       <c r="P130" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28846,7 +28855,7 @@
         <v>0.67</v>
       </c>
       <c r="AP134">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ134">
         <v>0.5</v>
@@ -28974,7 +28983,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q135">
         <v>3.75</v>
@@ -29180,7 +29189,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29673,7 +29682,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ138">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR138">
         <v>2.02</v>
@@ -29798,7 +29807,7 @@
         <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -29876,7 +29885,7 @@
         <v>0.89</v>
       </c>
       <c r="AP139">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ139">
         <v>1.25</v>
@@ -30085,7 +30094,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ140">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR140">
         <v>1.7</v>
@@ -30416,7 +30425,7 @@
         <v>172</v>
       </c>
       <c r="P142" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30622,7 +30631,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q143">
         <v>3.25</v>
@@ -30700,10 +30709,10 @@
         <v>1.5</v>
       </c>
       <c r="AP143">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ143">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR143">
         <v>1.33</v>
@@ -31112,7 +31121,7 @@
         <v>1.1</v>
       </c>
       <c r="AP145">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ145">
         <v>1.25</v>
@@ -31240,7 +31249,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31939,7 +31948,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ149">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR149">
         <v>1.24</v>
@@ -32064,7 +32073,7 @@
         <v>84</v>
       </c>
       <c r="P150" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q150">
         <v>5.5</v>
@@ -32270,7 +32279,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q151">
         <v>1.8</v>
@@ -32888,7 +32897,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -32966,10 +32975,10 @@
         <v>0.8</v>
       </c>
       <c r="AP154">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ154">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR154">
         <v>1.07</v>
@@ -33094,7 +33103,7 @@
         <v>147</v>
       </c>
       <c r="P155" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33506,7 +33515,7 @@
         <v>177</v>
       </c>
       <c r="P157" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33712,7 +33721,7 @@
         <v>178</v>
       </c>
       <c r="P158" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q158">
         <v>4.33</v>
@@ -33918,7 +33927,7 @@
         <v>179</v>
       </c>
       <c r="P159" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q159">
         <v>1.73</v>
@@ -33999,7 +34008,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ159">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR159">
         <v>1.89</v>
@@ -34124,7 +34133,7 @@
         <v>84</v>
       </c>
       <c r="P160" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q160">
         <v>13</v>
@@ -34202,7 +34211,7 @@
         <v>2.09</v>
       </c>
       <c r="AP160">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ160">
         <v>2.13</v>
@@ -34742,7 +34751,7 @@
         <v>182</v>
       </c>
       <c r="P163" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34820,7 +34829,7 @@
         <v>1.36</v>
       </c>
       <c r="AP163">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ163">
         <v>1.2</v>
@@ -35154,7 +35163,7 @@
         <v>184</v>
       </c>
       <c r="P165" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35235,7 +35244,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ165">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR165">
         <v>1.27</v>
@@ -35360,7 +35369,7 @@
         <v>185</v>
       </c>
       <c r="P166" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q166">
         <v>2.2</v>
@@ -35441,7 +35450,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ166">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR166">
         <v>1.46</v>
@@ -35566,7 +35575,7 @@
         <v>186</v>
       </c>
       <c r="P167" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -35644,7 +35653,7 @@
         <v>1.73</v>
       </c>
       <c r="AP167">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ167">
         <v>1.44</v>
@@ -35772,7 +35781,7 @@
         <v>84</v>
       </c>
       <c r="P168" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -35978,7 +35987,7 @@
         <v>187</v>
       </c>
       <c r="P169" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36184,7 +36193,7 @@
         <v>188</v>
       </c>
       <c r="P170" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q170">
         <v>4</v>
@@ -36390,7 +36399,7 @@
         <v>189</v>
       </c>
       <c r="P171" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36468,7 +36477,7 @@
         <v>0.67</v>
       </c>
       <c r="AP171">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ171">
         <v>0.88</v>
@@ -36677,7 +36686,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ172">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR172">
         <v>1.91</v>
@@ -36802,7 +36811,7 @@
         <v>122</v>
       </c>
       <c r="P173" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q173">
         <v>3.6</v>
@@ -37420,7 +37429,7 @@
         <v>84</v>
       </c>
       <c r="P176" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -37707,7 +37716,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ177">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR177">
         <v>1.15</v>
@@ -37910,10 +37919,10 @@
         <v>1.33</v>
       </c>
       <c r="AP178">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ178">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR178">
         <v>1.11</v>
@@ -38244,7 +38253,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q180">
         <v>6.5</v>
@@ -38322,7 +38331,7 @@
         <v>2.17</v>
       </c>
       <c r="AP180">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ180">
         <v>1.81</v>
@@ -38656,7 +38665,7 @@
         <v>196</v>
       </c>
       <c r="P182" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -38862,7 +38871,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -39068,7 +39077,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39352,10 +39361,10 @@
         <v>1.23</v>
       </c>
       <c r="AP185">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ185">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR185">
         <v>1.5</v>
@@ -39480,7 +39489,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q186">
         <v>3.6</v>
@@ -39686,7 +39695,7 @@
         <v>200</v>
       </c>
       <c r="P187" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q187">
         <v>3.5</v>
@@ -39767,7 +39776,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ187">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR187">
         <v>1.23</v>
@@ -39892,7 +39901,7 @@
         <v>113</v>
       </c>
       <c r="P188" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q188">
         <v>2.63</v>
@@ -39970,7 +39979,7 @@
         <v>0.46</v>
       </c>
       <c r="AP188">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ188">
         <v>0.5</v>
@@ -40098,7 +40107,7 @@
         <v>201</v>
       </c>
       <c r="P189" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40304,7 +40313,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q190">
         <v>2.38</v>
@@ -40922,7 +40931,7 @@
         <v>84</v>
       </c>
       <c r="P193" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q193">
         <v>4.75</v>
@@ -41000,7 +41009,7 @@
         <v>0.62</v>
       </c>
       <c r="AP193">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ193">
         <v>0.88</v>
@@ -41209,7 +41218,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ194">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR194">
         <v>1.24</v>
@@ -41540,7 +41549,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q196">
         <v>3.5</v>
@@ -42236,7 +42245,7 @@
         <v>0.79</v>
       </c>
       <c r="AP199">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ199">
         <v>0.88</v>
@@ -42445,7 +42454,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ200">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR200">
         <v>1.26</v>
@@ -42776,7 +42785,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -43472,10 +43481,10 @@
         <v>1.21</v>
       </c>
       <c r="AP205">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ205">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR205">
         <v>1.4</v>
@@ -43600,7 +43609,7 @@
         <v>200</v>
       </c>
       <c r="P206" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q206">
         <v>7.5</v>
@@ -43678,10 +43687,10 @@
         <v>1.21</v>
       </c>
       <c r="AP206">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ206">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR206">
         <v>1.08</v>
@@ -43806,7 +43815,7 @@
         <v>84</v>
       </c>
       <c r="P207" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -43884,10 +43893,10 @@
         <v>1.2</v>
       </c>
       <c r="AP207">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ207">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR207">
         <v>1.46</v>
@@ -44012,7 +44021,7 @@
         <v>84</v>
       </c>
       <c r="P208" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q208">
         <v>3.25</v>
@@ -44218,7 +44227,7 @@
         <v>134</v>
       </c>
       <c r="P209" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q209">
         <v>3.6</v>
@@ -44424,7 +44433,7 @@
         <v>84</v>
       </c>
       <c r="P210" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44630,7 +44639,7 @@
         <v>211</v>
       </c>
       <c r="P211" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q211">
         <v>2.6</v>
@@ -45454,7 +45463,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45660,7 +45669,7 @@
         <v>214</v>
       </c>
       <c r="P216" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -45866,7 +45875,7 @@
         <v>194</v>
       </c>
       <c r="P217" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q217">
         <v>2.75</v>
@@ -46072,7 +46081,7 @@
         <v>215</v>
       </c>
       <c r="P218" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46229,6 +46238,624 @@
       </c>
       <c r="BP218">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7856981</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45782.5</v>
+      </c>
+      <c r="F219">
+        <v>6</v>
+      </c>
+      <c r="G219" t="s">
+        <v>78</v>
+      </c>
+      <c r="H219" t="s">
+        <v>70</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>3</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219" t="s">
+        <v>216</v>
+      </c>
+      <c r="P219" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q219">
+        <v>2.09</v>
+      </c>
+      <c r="R219">
+        <v>2.09</v>
+      </c>
+      <c r="S219">
+        <v>7.3</v>
+      </c>
+      <c r="T219">
+        <v>1.44</v>
+      </c>
+      <c r="U219">
+        <v>2.5</v>
+      </c>
+      <c r="V219">
+        <v>3.28</v>
+      </c>
+      <c r="W219">
+        <v>1.27</v>
+      </c>
+      <c r="X219">
+        <v>9.1</v>
+      </c>
+      <c r="Y219">
+        <v>1</v>
+      </c>
+      <c r="Z219">
+        <v>1.69</v>
+      </c>
+      <c r="AA219">
+        <v>3.3</v>
+      </c>
+      <c r="AB219">
+        <v>5.1</v>
+      </c>
+      <c r="AC219">
+        <v>1.02</v>
+      </c>
+      <c r="AD219">
+        <v>8</v>
+      </c>
+      <c r="AE219">
+        <v>1.38</v>
+      </c>
+      <c r="AF219">
+        <v>2.7</v>
+      </c>
+      <c r="AG219">
+        <v>2.1</v>
+      </c>
+      <c r="AH219">
+        <v>1.6</v>
+      </c>
+      <c r="AI219">
+        <v>2.36</v>
+      </c>
+      <c r="AJ219">
+        <v>1.52</v>
+      </c>
+      <c r="AK219">
+        <v>1.1</v>
+      </c>
+      <c r="AL219">
+        <v>1.26</v>
+      </c>
+      <c r="AM219">
+        <v>2.53</v>
+      </c>
+      <c r="AN219">
+        <v>1.31</v>
+      </c>
+      <c r="AO219">
+        <v>1.33</v>
+      </c>
+      <c r="AP219">
+        <v>1.41</v>
+      </c>
+      <c r="AQ219">
+        <v>1.25</v>
+      </c>
+      <c r="AR219">
+        <v>1.46</v>
+      </c>
+      <c r="AS219">
+        <v>1.12</v>
+      </c>
+      <c r="AT219">
+        <v>2.58</v>
+      </c>
+      <c r="AU219">
+        <v>8</v>
+      </c>
+      <c r="AV219">
+        <v>9</v>
+      </c>
+      <c r="AW219">
+        <v>13</v>
+      </c>
+      <c r="AX219">
+        <v>5</v>
+      </c>
+      <c r="AY219">
+        <v>26</v>
+      </c>
+      <c r="AZ219">
+        <v>16</v>
+      </c>
+      <c r="BA219">
+        <v>3</v>
+      </c>
+      <c r="BB219">
+        <v>4</v>
+      </c>
+      <c r="BC219">
+        <v>7</v>
+      </c>
+      <c r="BD219">
+        <v>1.32</v>
+      </c>
+      <c r="BE219">
+        <v>7</v>
+      </c>
+      <c r="BF219">
+        <v>3.8</v>
+      </c>
+      <c r="BG219">
+        <v>1.5</v>
+      </c>
+      <c r="BH219">
+        <v>2.25</v>
+      </c>
+      <c r="BI219">
+        <v>1.83</v>
+      </c>
+      <c r="BJ219">
+        <v>1.77</v>
+      </c>
+      <c r="BK219">
+        <v>2.35</v>
+      </c>
+      <c r="BL219">
+        <v>1.46</v>
+      </c>
+      <c r="BM219">
+        <v>3.1</v>
+      </c>
+      <c r="BN219">
+        <v>1.27</v>
+      </c>
+      <c r="BO219">
+        <v>4.2</v>
+      </c>
+      <c r="BP219">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7856984</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45782.5</v>
+      </c>
+      <c r="F220">
+        <v>6</v>
+      </c>
+      <c r="G220" t="s">
+        <v>83</v>
+      </c>
+      <c r="H220" t="s">
+        <v>76</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220" t="s">
+        <v>84</v>
+      </c>
+      <c r="P220" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q220">
+        <v>2.5</v>
+      </c>
+      <c r="R220">
+        <v>2.05</v>
+      </c>
+      <c r="S220">
+        <v>5</v>
+      </c>
+      <c r="T220">
+        <v>1.5</v>
+      </c>
+      <c r="U220">
+        <v>2.5</v>
+      </c>
+      <c r="V220">
+        <v>3.4</v>
+      </c>
+      <c r="W220">
+        <v>1.3</v>
+      </c>
+      <c r="X220">
+        <v>10</v>
+      </c>
+      <c r="Y220">
+        <v>1.06</v>
+      </c>
+      <c r="Z220">
+        <v>1.8</v>
+      </c>
+      <c r="AA220">
+        <v>3.2</v>
+      </c>
+      <c r="AB220">
+        <v>4.4</v>
+      </c>
+      <c r="AC220">
+        <v>1.04</v>
+      </c>
+      <c r="AD220">
+        <v>6.75</v>
+      </c>
+      <c r="AE220">
+        <v>1.41</v>
+      </c>
+      <c r="AF220">
+        <v>2.6</v>
+      </c>
+      <c r="AG220">
+        <v>2.25</v>
+      </c>
+      <c r="AH220">
+        <v>1.53</v>
+      </c>
+      <c r="AI220">
+        <v>2.05</v>
+      </c>
+      <c r="AJ220">
+        <v>1.7</v>
+      </c>
+      <c r="AK220">
+        <v>1.2</v>
+      </c>
+      <c r="AL220">
+        <v>1.33</v>
+      </c>
+      <c r="AM220">
+        <v>1.91</v>
+      </c>
+      <c r="AN220">
+        <v>0.93</v>
+      </c>
+      <c r="AO220">
+        <v>1.2</v>
+      </c>
+      <c r="AP220">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ220">
+        <v>1.19</v>
+      </c>
+      <c r="AR220">
+        <v>1.46</v>
+      </c>
+      <c r="AS220">
+        <v>1</v>
+      </c>
+      <c r="AT220">
+        <v>2.46</v>
+      </c>
+      <c r="AU220">
+        <v>4</v>
+      </c>
+      <c r="AV220">
+        <v>0</v>
+      </c>
+      <c r="AW220">
+        <v>11</v>
+      </c>
+      <c r="AX220">
+        <v>8</v>
+      </c>
+      <c r="AY220">
+        <v>18</v>
+      </c>
+      <c r="AZ220">
+        <v>9</v>
+      </c>
+      <c r="BA220">
+        <v>10</v>
+      </c>
+      <c r="BB220">
+        <v>4</v>
+      </c>
+      <c r="BC220">
+        <v>14</v>
+      </c>
+      <c r="BD220">
+        <v>1.49</v>
+      </c>
+      <c r="BE220">
+        <v>6.5</v>
+      </c>
+      <c r="BF220">
+        <v>2.9</v>
+      </c>
+      <c r="BG220">
+        <v>1.42</v>
+      </c>
+      <c r="BH220">
+        <v>2.45</v>
+      </c>
+      <c r="BI220">
+        <v>1.73</v>
+      </c>
+      <c r="BJ220">
+        <v>1.88</v>
+      </c>
+      <c r="BK220">
+        <v>2.16</v>
+      </c>
+      <c r="BL220">
+        <v>1.54</v>
+      </c>
+      <c r="BM220">
+        <v>2.8</v>
+      </c>
+      <c r="BN220">
+        <v>1.33</v>
+      </c>
+      <c r="BO220">
+        <v>3.75</v>
+      </c>
+      <c r="BP220">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7856985</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45782.58333333334</v>
+      </c>
+      <c r="F221">
+        <v>6</v>
+      </c>
+      <c r="G221" t="s">
+        <v>81</v>
+      </c>
+      <c r="H221" t="s">
+        <v>72</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>3</v>
+      </c>
+      <c r="K221">
+        <v>4</v>
+      </c>
+      <c r="L221">
+        <v>2</v>
+      </c>
+      <c r="M221">
+        <v>3</v>
+      </c>
+      <c r="N221">
+        <v>5</v>
+      </c>
+      <c r="O221" t="s">
+        <v>217</v>
+      </c>
+      <c r="P221" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q221">
+        <v>6</v>
+      </c>
+      <c r="R221">
+        <v>2.1</v>
+      </c>
+      <c r="S221">
+        <v>2.3</v>
+      </c>
+      <c r="T221">
+        <v>1.5</v>
+      </c>
+      <c r="U221">
+        <v>2.5</v>
+      </c>
+      <c r="V221">
+        <v>3.4</v>
+      </c>
+      <c r="W221">
+        <v>1.3</v>
+      </c>
+      <c r="X221">
+        <v>10</v>
+      </c>
+      <c r="Y221">
+        <v>1.06</v>
+      </c>
+      <c r="Z221">
+        <v>5.7</v>
+      </c>
+      <c r="AA221">
+        <v>3.5</v>
+      </c>
+      <c r="AB221">
+        <v>1.59</v>
+      </c>
+      <c r="AC221">
+        <v>1.04</v>
+      </c>
+      <c r="AD221">
+        <v>7</v>
+      </c>
+      <c r="AE221">
+        <v>1.4</v>
+      </c>
+      <c r="AF221">
+        <v>2.63</v>
+      </c>
+      <c r="AG221">
+        <v>2.2</v>
+      </c>
+      <c r="AH221">
+        <v>1.55</v>
+      </c>
+      <c r="AI221">
+        <v>2.2</v>
+      </c>
+      <c r="AJ221">
+        <v>1.62</v>
+      </c>
+      <c r="AK221">
+        <v>2.15</v>
+      </c>
+      <c r="AL221">
+        <v>1.3</v>
+      </c>
+      <c r="AM221">
+        <v>1.15</v>
+      </c>
+      <c r="AN221">
+        <v>0.6</v>
+      </c>
+      <c r="AO221">
+        <v>1.31</v>
+      </c>
+      <c r="AP221">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ221">
+        <v>1.41</v>
+      </c>
+      <c r="AR221">
+        <v>1.04</v>
+      </c>
+      <c r="AS221">
+        <v>1.18</v>
+      </c>
+      <c r="AT221">
+        <v>2.22</v>
+      </c>
+      <c r="AU221">
+        <v>4</v>
+      </c>
+      <c r="AV221">
+        <v>6</v>
+      </c>
+      <c r="AW221">
+        <v>4</v>
+      </c>
+      <c r="AX221">
+        <v>9</v>
+      </c>
+      <c r="AY221">
+        <v>10</v>
+      </c>
+      <c r="AZ221">
+        <v>17</v>
+      </c>
+      <c r="BA221">
+        <v>4</v>
+      </c>
+      <c r="BB221">
+        <v>4</v>
+      </c>
+      <c r="BC221">
+        <v>8</v>
+      </c>
+      <c r="BD221">
+        <v>3.56</v>
+      </c>
+      <c r="BE221">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF221">
+        <v>1.45</v>
+      </c>
+      <c r="BG221">
+        <v>1.46</v>
+      </c>
+      <c r="BH221">
+        <v>2.45</v>
+      </c>
+      <c r="BI221">
+        <v>1.85</v>
+      </c>
+      <c r="BJ221">
+        <v>1.85</v>
+      </c>
+      <c r="BK221">
+        <v>2.4</v>
+      </c>
+      <c r="BL221">
+        <v>1.48</v>
+      </c>
+      <c r="BM221">
+        <v>3.28</v>
+      </c>
+      <c r="BN221">
+        <v>1.25</v>
+      </c>
+      <c r="BO221">
+        <v>4.25</v>
+      </c>
+      <c r="BP221">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="322">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -670,6 +670,15 @@
     <t>['33', '51']</t>
   </si>
   <si>
+    <t>['62', '79']</t>
+  </si>
+  <si>
+    <t>['7', '72', '90', '90+7']</t>
+  </si>
+  <si>
+    <t>['12', '23', '56', '77']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -965,6 +974,12 @@
   </si>
   <si>
     <t>['15', '24', '41']</t>
+  </si>
+  <si>
+    <t>['72', '89']</t>
+  </si>
+  <si>
+    <t>['34', '45+2', '55']</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP221"/>
+  <dimension ref="A1:BP226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,7 +1600,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1791,7 +1806,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1872,7 +1887,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ3">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2075,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ4">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2284,7 +2299,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ5">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2409,7 +2424,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2487,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ6">
         <v>1.25</v>
@@ -2696,7 +2711,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ7">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2821,7 +2836,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2899,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -3233,7 +3248,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3439,7 +3454,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3726,7 +3741,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4344,7 +4359,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ15">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4469,7 +4484,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4547,7 +4562,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ16">
         <v>2.13</v>
@@ -4675,7 +4690,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4753,10 +4768,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4959,10 +4974,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ18">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -5087,7 +5102,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5165,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ19">
         <v>1.53</v>
@@ -5293,7 +5308,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5374,7 +5389,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ20">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -5499,7 +5514,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5577,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ21">
         <v>1.81</v>
@@ -5705,7 +5720,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5989,10 +6004,10 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ23">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR23">
         <v>0.92</v>
@@ -6117,7 +6132,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6323,7 +6338,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6735,7 +6750,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7228,7 +7243,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ29">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -7353,7 +7368,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7637,7 +7652,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ31">
         <v>2.13</v>
@@ -7765,7 +7780,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7843,10 +7858,10 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ32">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -8049,10 +8064,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR33">
         <v>0.97</v>
@@ -8177,7 +8192,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8258,7 +8273,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ34">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR34">
         <v>1.44</v>
@@ -8383,7 +8398,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8461,7 +8476,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ35">
         <v>0.5</v>
@@ -8876,7 +8891,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ37">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR37">
         <v>1.17</v>
@@ -9001,7 +9016,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -9207,7 +9222,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -10031,7 +10046,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10109,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ43">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR43">
         <v>1.06</v>
@@ -10237,7 +10252,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10315,10 +10330,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ44">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR44">
         <v>1.35</v>
@@ -10521,7 +10536,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ45">
         <v>1.53</v>
@@ -10727,7 +10742,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ46">
         <v>0.5</v>
@@ -10855,7 +10870,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10936,7 +10951,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ47">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR47">
         <v>1.06</v>
@@ -11061,7 +11076,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -11142,7 +11157,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR48">
         <v>1.58</v>
@@ -11267,7 +11282,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11345,7 +11360,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49">
         <v>1.81</v>
@@ -11760,7 +11775,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ51">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -11885,7 +11900,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11963,7 +11978,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ52">
         <v>1.19</v>
@@ -12169,10 +12184,10 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ53">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR53">
         <v>1.1</v>
@@ -12297,7 +12312,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12787,10 +12802,10 @@
         <v>0.75</v>
       </c>
       <c r="AP56">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ56">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR56">
         <v>1.14</v>
@@ -12915,7 +12930,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13121,7 +13136,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13199,10 +13214,10 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ58">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR58">
         <v>1.3</v>
@@ -13327,7 +13342,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13405,7 +13420,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ59">
         <v>0.5</v>
@@ -13945,7 +13960,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14151,7 +14166,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -14232,7 +14247,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ63">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14357,7 +14372,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14644,7 +14659,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ65">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR65">
         <v>1.98</v>
@@ -14975,7 +14990,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -15053,7 +15068,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ67">
         <v>1.41</v>
@@ -15387,7 +15402,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15465,7 +15480,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ69">
         <v>1.53</v>
@@ -15593,7 +15608,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15671,7 +15686,7 @@
         <v>2.5</v>
       </c>
       <c r="AP70">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ70">
         <v>1.81</v>
@@ -15880,7 +15895,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ71">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR71">
         <v>1.51</v>
@@ -16083,7 +16098,7 @@
         <v>1.6</v>
       </c>
       <c r="AP72">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ72">
         <v>1.25</v>
@@ -16211,7 +16226,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16498,7 +16513,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ74">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR74">
         <v>1.64</v>
@@ -16623,7 +16638,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16704,7 +16719,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ75">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR75">
         <v>1.19</v>
@@ -16829,7 +16844,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16907,10 +16922,10 @@
         <v>2.25</v>
       </c>
       <c r="AP76">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR76">
         <v>1.06</v>
@@ -17241,7 +17256,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17447,7 +17462,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17528,7 +17543,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ79">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17653,7 +17668,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17731,10 +17746,10 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ80">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR80">
         <v>1.08</v>
@@ -17937,10 +17952,10 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR81">
         <v>1.51</v>
@@ -18065,7 +18080,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -18143,7 +18158,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ82">
         <v>1.44</v>
@@ -18271,7 +18286,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18761,7 +18776,7 @@
         <v>0.6</v>
       </c>
       <c r="AP85">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ85">
         <v>1.41</v>
@@ -19095,7 +19110,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19173,7 +19188,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ87">
         <v>1.19</v>
@@ -19588,7 +19603,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ89">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR89">
         <v>1.12</v>
@@ -19713,7 +19728,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19919,7 +19934,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -20000,7 +20015,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ91">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR91">
         <v>1.68</v>
@@ -20125,7 +20140,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -20412,7 +20427,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ93">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR93">
         <v>1.95</v>
@@ -20537,7 +20552,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20615,7 +20630,7 @@
         <v>1.83</v>
       </c>
       <c r="AP94">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ94">
         <v>1.81</v>
@@ -20743,7 +20758,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20949,7 +20964,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -21361,7 +21376,7 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21439,7 +21454,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ98">
         <v>1.19</v>
@@ -21567,7 +21582,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21851,7 +21866,7 @@
         <v>1.43</v>
       </c>
       <c r="AP100">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ100">
         <v>1.53</v>
@@ -22057,10 +22072,10 @@
         <v>1.57</v>
       </c>
       <c r="AP101">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ101">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR101">
         <v>1.32</v>
@@ -22266,7 +22281,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ102">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR102">
         <v>1.38</v>
@@ -22469,10 +22484,10 @@
         <v>1.29</v>
       </c>
       <c r="AP103">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ103">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR103">
         <v>1.47</v>
@@ -22675,7 +22690,7 @@
         <v>2</v>
       </c>
       <c r="AP104">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ104">
         <v>1.44</v>
@@ -22881,7 +22896,7 @@
         <v>2.71</v>
       </c>
       <c r="AP105">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ105">
         <v>1.81</v>
@@ -23708,7 +23723,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ109">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR109">
         <v>1.74</v>
@@ -24039,7 +24054,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q111">
         <v>1.57</v>
@@ -24245,7 +24260,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24532,7 +24547,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ113">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR113">
         <v>1.13</v>
@@ -24941,10 +24956,10 @@
         <v>1.13</v>
       </c>
       <c r="AP115">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ115">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR115">
         <v>1.12</v>
@@ -25069,7 +25084,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25147,10 +25162,10 @@
         <v>1.5</v>
       </c>
       <c r="AP116">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ116">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR116">
         <v>1.47</v>
@@ -25275,7 +25290,7 @@
         <v>159</v>
       </c>
       <c r="P117" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>8.5</v>
@@ -25481,7 +25496,7 @@
         <v>84</v>
       </c>
       <c r="P118" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25559,10 +25574,10 @@
         <v>1.13</v>
       </c>
       <c r="AP118">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ118">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR118">
         <v>1.32</v>
@@ -25687,7 +25702,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25893,7 +25908,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -25971,7 +25986,7 @@
         <v>1.75</v>
       </c>
       <c r="AP120">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ120">
         <v>2.13</v>
@@ -26305,7 +26320,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26511,7 +26526,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q123">
         <v>4.33</v>
@@ -26589,7 +26604,7 @@
         <v>1.38</v>
       </c>
       <c r="AP123">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ123">
         <v>1.81</v>
@@ -26717,7 +26732,7 @@
         <v>163</v>
       </c>
       <c r="P124" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q124">
         <v>1.62</v>
@@ -26798,7 +26813,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ124">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR124">
         <v>1.66</v>
@@ -27004,7 +27019,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ125">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR125">
         <v>1.95</v>
@@ -27622,7 +27637,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ128">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR128">
         <v>1.37</v>
@@ -27747,7 +27762,7 @@
         <v>108</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -27825,7 +27840,7 @@
         <v>1.89</v>
       </c>
       <c r="AP129">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ129">
         <v>2.13</v>
@@ -27953,7 +27968,7 @@
         <v>104</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28031,10 +28046,10 @@
         <v>1.33</v>
       </c>
       <c r="AP130">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ130">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR130">
         <v>1.17</v>
@@ -28237,10 +28252,10 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ131">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR131">
         <v>1.17</v>
@@ -28443,7 +28458,7 @@
         <v>2.44</v>
       </c>
       <c r="AP132">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ132">
         <v>1.81</v>
@@ -28983,7 +28998,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q135">
         <v>3.75</v>
@@ -29189,7 +29204,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29270,7 +29285,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ136">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR136">
         <v>1.31</v>
@@ -29476,7 +29491,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ137">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR137">
         <v>1.4</v>
@@ -29807,7 +29822,7 @@
         <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -29885,7 +29900,7 @@
         <v>0.89</v>
       </c>
       <c r="AP139">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ139">
         <v>1.25</v>
@@ -30425,7 +30440,7 @@
         <v>172</v>
       </c>
       <c r="P142" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30506,7 +30521,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ142">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR142">
         <v>1.82</v>
@@ -30631,7 +30646,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q143">
         <v>3.25</v>
@@ -30712,7 +30727,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ143">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR143">
         <v>1.33</v>
@@ -30915,7 +30930,7 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ144">
         <v>2.13</v>
@@ -31249,7 +31264,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31533,7 +31548,7 @@
         <v>1.7</v>
       </c>
       <c r="AP147">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ147">
         <v>1.81</v>
@@ -32073,7 +32088,7 @@
         <v>84</v>
       </c>
       <c r="P150" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q150">
         <v>5.5</v>
@@ -32279,7 +32294,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q151">
         <v>1.8</v>
@@ -32360,7 +32375,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ151">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR151">
         <v>1.88</v>
@@ -32563,7 +32578,7 @@
         <v>1.9</v>
       </c>
       <c r="AP152">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ152">
         <v>1.44</v>
@@ -32772,7 +32787,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ153">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR153">
         <v>2.03</v>
@@ -32897,7 +32912,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -32975,7 +32990,7 @@
         <v>0.8</v>
       </c>
       <c r="AP154">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ154">
         <v>1.41</v>
@@ -33103,7 +33118,7 @@
         <v>147</v>
       </c>
       <c r="P155" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33181,10 +33196,10 @@
         <v>0.5</v>
       </c>
       <c r="AP155">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ155">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR155">
         <v>1.19</v>
@@ -33390,7 +33405,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ156">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR156">
         <v>1.37</v>
@@ -33515,7 +33530,7 @@
         <v>177</v>
       </c>
       <c r="P157" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33721,7 +33736,7 @@
         <v>178</v>
       </c>
       <c r="P158" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q158">
         <v>4.33</v>
@@ -33799,7 +33814,7 @@
         <v>1.27</v>
       </c>
       <c r="AP158">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ158">
         <v>1.25</v>
@@ -33927,7 +33942,7 @@
         <v>179</v>
       </c>
       <c r="P159" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q159">
         <v>1.73</v>
@@ -34008,7 +34023,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ159">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR159">
         <v>1.89</v>
@@ -34133,7 +34148,7 @@
         <v>84</v>
       </c>
       <c r="P160" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q160">
         <v>13</v>
@@ -34623,10 +34638,10 @@
         <v>0.73</v>
       </c>
       <c r="AP162">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ162">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR162">
         <v>1.12</v>
@@ -34751,7 +34766,7 @@
         <v>182</v>
       </c>
       <c r="P163" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34832,7 +34847,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ163">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR163">
         <v>1.4</v>
@@ -35035,10 +35050,10 @@
         <v>0.82</v>
       </c>
       <c r="AP164">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ164">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR164">
         <v>1.26</v>
@@ -35163,7 +35178,7 @@
         <v>184</v>
       </c>
       <c r="P165" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35369,7 +35384,7 @@
         <v>185</v>
       </c>
       <c r="P166" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q166">
         <v>2.2</v>
@@ -35447,7 +35462,7 @@
         <v>1.45</v>
       </c>
       <c r="AP166">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ166">
         <v>1.19</v>
@@ -35575,7 +35590,7 @@
         <v>186</v>
       </c>
       <c r="P167" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -35653,7 +35668,7 @@
         <v>1.73</v>
       </c>
       <c r="AP167">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ167">
         <v>1.44</v>
@@ -35781,7 +35796,7 @@
         <v>84</v>
       </c>
       <c r="P168" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -35987,7 +36002,7 @@
         <v>187</v>
       </c>
       <c r="P169" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36193,7 +36208,7 @@
         <v>188</v>
       </c>
       <c r="P170" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q170">
         <v>4</v>
@@ -36399,7 +36414,7 @@
         <v>189</v>
       </c>
       <c r="P171" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36480,7 +36495,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ171">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR171">
         <v>1.27</v>
@@ -36811,7 +36826,7 @@
         <v>122</v>
       </c>
       <c r="P173" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q173">
         <v>3.6</v>
@@ -36889,7 +36904,7 @@
         <v>1.67</v>
       </c>
       <c r="AP173">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ173">
         <v>1.81</v>
@@ -37304,7 +37319,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ175">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR175">
         <v>1.77</v>
@@ -37429,7 +37444,7 @@
         <v>84</v>
       </c>
       <c r="P176" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -37713,7 +37728,7 @@
         <v>1.17</v>
       </c>
       <c r="AP177">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ177">
         <v>1.41</v>
@@ -37919,10 +37934,10 @@
         <v>1.33</v>
       </c>
       <c r="AP178">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ178">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR178">
         <v>1.11</v>
@@ -38128,7 +38143,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ179">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR179">
         <v>1.95</v>
@@ -38253,7 +38268,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q180">
         <v>6.5</v>
@@ -38537,7 +38552,7 @@
         <v>1.83</v>
       </c>
       <c r="AP181">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ181">
         <v>1.53</v>
@@ -38665,7 +38680,7 @@
         <v>196</v>
       </c>
       <c r="P182" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -38743,7 +38758,7 @@
         <v>1.58</v>
       </c>
       <c r="AP182">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ182">
         <v>1.44</v>
@@ -38871,7 +38886,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -38952,7 +38967,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ183">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR183">
         <v>1.35</v>
@@ -39077,7 +39092,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39364,7 +39379,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ185">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR185">
         <v>1.5</v>
@@ -39489,7 +39504,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q186">
         <v>3.6</v>
@@ -39695,7 +39710,7 @@
         <v>200</v>
       </c>
       <c r="P187" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q187">
         <v>3.5</v>
@@ -39773,7 +39788,7 @@
         <v>1.15</v>
       </c>
       <c r="AP187">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ187">
         <v>1.41</v>
@@ -39901,7 +39916,7 @@
         <v>113</v>
       </c>
       <c r="P188" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q188">
         <v>2.63</v>
@@ -40107,7 +40122,7 @@
         <v>201</v>
       </c>
       <c r="P189" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40313,7 +40328,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q190">
         <v>2.38</v>
@@ -40597,10 +40612,10 @@
         <v>0.92</v>
       </c>
       <c r="AP191">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ191">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR191">
         <v>1.2</v>
@@ -40803,10 +40818,10 @@
         <v>1.38</v>
       </c>
       <c r="AP192">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ192">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR192">
         <v>1.49</v>
@@ -40931,7 +40946,7 @@
         <v>84</v>
       </c>
       <c r="P193" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q193">
         <v>4.75</v>
@@ -41009,10 +41024,10 @@
         <v>0.62</v>
       </c>
       <c r="AP193">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ193">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR193">
         <v>1.11</v>
@@ -41549,7 +41564,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q196">
         <v>3.5</v>
@@ -41833,10 +41848,10 @@
         <v>1.23</v>
       </c>
       <c r="AP197">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ197">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR197">
         <v>1.31</v>
@@ -42039,7 +42054,7 @@
         <v>0.5</v>
       </c>
       <c r="AP198">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ198">
         <v>0.5</v>
@@ -42248,7 +42263,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ199">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR199">
         <v>1.34</v>
@@ -42660,7 +42675,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ201">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR201">
         <v>1.34</v>
@@ -42785,7 +42800,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -43069,7 +43084,7 @@
         <v>1.86</v>
       </c>
       <c r="AP203">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ203">
         <v>1.81</v>
@@ -43609,7 +43624,7 @@
         <v>200</v>
       </c>
       <c r="P206" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q206">
         <v>7.5</v>
@@ -43687,10 +43702,10 @@
         <v>1.21</v>
       </c>
       <c r="AP206">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ206">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR206">
         <v>1.08</v>
@@ -43815,7 +43830,7 @@
         <v>84</v>
       </c>
       <c r="P207" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44021,7 +44036,7 @@
         <v>84</v>
       </c>
       <c r="P208" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q208">
         <v>3.25</v>
@@ -44102,7 +44117,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ208">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR208">
         <v>1.47</v>
@@ -44227,7 +44242,7 @@
         <v>134</v>
       </c>
       <c r="P209" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q209">
         <v>3.6</v>
@@ -44305,7 +44320,7 @@
         <v>1.29</v>
       </c>
       <c r="AP209">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ209">
         <v>1.25</v>
@@ -44433,7 +44448,7 @@
         <v>84</v>
       </c>
       <c r="P210" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44639,7 +44654,7 @@
         <v>211</v>
       </c>
       <c r="P211" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q211">
         <v>2.6</v>
@@ -44923,7 +44938,7 @@
         <v>0.47</v>
       </c>
       <c r="AP212">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ212">
         <v>0.5</v>
@@ -45129,10 +45144,10 @@
         <v>0.73</v>
       </c>
       <c r="AP213">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ213">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR213">
         <v>1.2</v>
@@ -45338,7 +45353,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ214">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR214">
         <v>1.26</v>
@@ -45463,7 +45478,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45669,7 +45684,7 @@
         <v>214</v>
       </c>
       <c r="P216" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -45875,7 +45890,7 @@
         <v>194</v>
       </c>
       <c r="P217" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q217">
         <v>2.75</v>
@@ -46081,7 +46096,7 @@
         <v>215</v>
       </c>
       <c r="P218" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46368,7 +46383,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ219">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR219">
         <v>1.46</v>
@@ -46699,7 +46714,7 @@
         <v>217</v>
       </c>
       <c r="P221" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -46777,7 +46792,7 @@
         <v>1.31</v>
       </c>
       <c r="AP221">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ221">
         <v>1.41</v>
@@ -46856,6 +46871,1036 @@
       </c>
       <c r="BP221">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7856987</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45787.45833333334</v>
+      </c>
+      <c r="F222">
+        <v>7</v>
+      </c>
+      <c r="G222" t="s">
+        <v>81</v>
+      </c>
+      <c r="H222" t="s">
+        <v>78</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>2</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>3</v>
+      </c>
+      <c r="O222" t="s">
+        <v>218</v>
+      </c>
+      <c r="P222" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q222">
+        <v>5.75</v>
+      </c>
+      <c r="R222">
+        <v>2.05</v>
+      </c>
+      <c r="S222">
+        <v>2.2</v>
+      </c>
+      <c r="T222">
+        <v>1.47</v>
+      </c>
+      <c r="U222">
+        <v>2.5</v>
+      </c>
+      <c r="V222">
+        <v>3.1</v>
+      </c>
+      <c r="W222">
+        <v>1.31</v>
+      </c>
+      <c r="X222">
+        <v>8.5</v>
+      </c>
+      <c r="Y222">
+        <v>1.06</v>
+      </c>
+      <c r="Z222">
+        <v>4.9</v>
+      </c>
+      <c r="AA222">
+        <v>3.3</v>
+      </c>
+      <c r="AB222">
+        <v>1.71</v>
+      </c>
+      <c r="AC222">
+        <v>1.03</v>
+      </c>
+      <c r="AD222">
+        <v>7.2</v>
+      </c>
+      <c r="AE222">
+        <v>1.41</v>
+      </c>
+      <c r="AF222">
+        <v>2.77</v>
+      </c>
+      <c r="AG222">
+        <v>2.3</v>
+      </c>
+      <c r="AH222">
+        <v>1.5</v>
+      </c>
+      <c r="AI222">
+        <v>2.25</v>
+      </c>
+      <c r="AJ222">
+        <v>1.57</v>
+      </c>
+      <c r="AK222">
+        <v>2.2</v>
+      </c>
+      <c r="AL222">
+        <v>1.28</v>
+      </c>
+      <c r="AM222">
+        <v>1.13</v>
+      </c>
+      <c r="AN222">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO222">
+        <v>0.8</v>
+      </c>
+      <c r="AP222">
+        <v>0.71</v>
+      </c>
+      <c r="AQ222">
+        <v>0.75</v>
+      </c>
+      <c r="AR222">
+        <v>1.03</v>
+      </c>
+      <c r="AS222">
+        <v>1.21</v>
+      </c>
+      <c r="AT222">
+        <v>2.24</v>
+      </c>
+      <c r="AU222">
+        <v>3</v>
+      </c>
+      <c r="AV222">
+        <v>2</v>
+      </c>
+      <c r="AW222">
+        <v>11</v>
+      </c>
+      <c r="AX222">
+        <v>5</v>
+      </c>
+      <c r="AY222">
+        <v>17</v>
+      </c>
+      <c r="AZ222">
+        <v>10</v>
+      </c>
+      <c r="BA222">
+        <v>7</v>
+      </c>
+      <c r="BB222">
+        <v>5</v>
+      </c>
+      <c r="BC222">
+        <v>12</v>
+      </c>
+      <c r="BD222">
+        <v>3.35</v>
+      </c>
+      <c r="BE222">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF222">
+        <v>1.47</v>
+      </c>
+      <c r="BG222">
+        <v>1.42</v>
+      </c>
+      <c r="BH222">
+        <v>2.57</v>
+      </c>
+      <c r="BI222">
+        <v>1.77</v>
+      </c>
+      <c r="BJ222">
+        <v>1.94</v>
+      </c>
+      <c r="BK222">
+        <v>2.28</v>
+      </c>
+      <c r="BL222">
+        <v>1.53</v>
+      </c>
+      <c r="BM222">
+        <v>3.08</v>
+      </c>
+      <c r="BN222">
+        <v>1.28</v>
+      </c>
+      <c r="BO222">
+        <v>3.8</v>
+      </c>
+      <c r="BP222">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7856986</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45787.45833333334</v>
+      </c>
+      <c r="F223">
+        <v>7</v>
+      </c>
+      <c r="G223" t="s">
+        <v>72</v>
+      </c>
+      <c r="H223" t="s">
+        <v>83</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>4</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223">
+        <v>5</v>
+      </c>
+      <c r="O223" t="s">
+        <v>219</v>
+      </c>
+      <c r="P223" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q223">
+        <v>2.85</v>
+      </c>
+      <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
+        <v>3.7</v>
+      </c>
+      <c r="T223">
+        <v>1.44</v>
+      </c>
+      <c r="U223">
+        <v>2.55</v>
+      </c>
+      <c r="V223">
+        <v>3.1</v>
+      </c>
+      <c r="W223">
+        <v>1.32</v>
+      </c>
+      <c r="X223">
+        <v>8.25</v>
+      </c>
+      <c r="Y223">
+        <v>1.06</v>
+      </c>
+      <c r="Z223">
+        <v>2.1</v>
+      </c>
+      <c r="AA223">
+        <v>3.3</v>
+      </c>
+      <c r="AB223">
+        <v>3.2</v>
+      </c>
+      <c r="AC223">
+        <v>1.01</v>
+      </c>
+      <c r="AD223">
+        <v>9</v>
+      </c>
+      <c r="AE223">
+        <v>1.36</v>
+      </c>
+      <c r="AF223">
+        <v>2.99</v>
+      </c>
+      <c r="AG223">
+        <v>2.1</v>
+      </c>
+      <c r="AH223">
+        <v>1.61</v>
+      </c>
+      <c r="AI223">
+        <v>1.88</v>
+      </c>
+      <c r="AJ223">
+        <v>1.8</v>
+      </c>
+      <c r="AK223">
+        <v>1.34</v>
+      </c>
+      <c r="AL223">
+        <v>1.31</v>
+      </c>
+      <c r="AM223">
+        <v>1.62</v>
+      </c>
+      <c r="AN223">
+        <v>1.13</v>
+      </c>
+      <c r="AO223">
+        <v>0.88</v>
+      </c>
+      <c r="AP223">
+        <v>1.25</v>
+      </c>
+      <c r="AQ223">
+        <v>0.82</v>
+      </c>
+      <c r="AR223">
+        <v>1.29</v>
+      </c>
+      <c r="AS223">
+        <v>1.03</v>
+      </c>
+      <c r="AT223">
+        <v>2.32</v>
+      </c>
+      <c r="AU223">
+        <v>11</v>
+      </c>
+      <c r="AV223">
+        <v>2</v>
+      </c>
+      <c r="AW223">
+        <v>2</v>
+      </c>
+      <c r="AX223">
+        <v>7</v>
+      </c>
+      <c r="AY223">
+        <v>14</v>
+      </c>
+      <c r="AZ223">
+        <v>11</v>
+      </c>
+      <c r="BA223">
+        <v>2</v>
+      </c>
+      <c r="BB223">
+        <v>9</v>
+      </c>
+      <c r="BC223">
+        <v>11</v>
+      </c>
+      <c r="BD223">
+        <v>1.7</v>
+      </c>
+      <c r="BE223">
+        <v>6.75</v>
+      </c>
+      <c r="BF223">
+        <v>2.4</v>
+      </c>
+      <c r="BG223">
+        <v>1.33</v>
+      </c>
+      <c r="BH223">
+        <v>2.75</v>
+      </c>
+      <c r="BI223">
+        <v>1.58</v>
+      </c>
+      <c r="BJ223">
+        <v>2.1</v>
+      </c>
+      <c r="BK223">
+        <v>1.96</v>
+      </c>
+      <c r="BL223">
+        <v>1.66</v>
+      </c>
+      <c r="BM223">
+        <v>2.5</v>
+      </c>
+      <c r="BN223">
+        <v>1.4</v>
+      </c>
+      <c r="BO223">
+        <v>3.3</v>
+      </c>
+      <c r="BP223">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7856988</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45787.58333333334</v>
+      </c>
+      <c r="F224">
+        <v>6</v>
+      </c>
+      <c r="G224" t="s">
+        <v>82</v>
+      </c>
+      <c r="H224" t="s">
+        <v>79</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>2</v>
+      </c>
+      <c r="L224">
+        <v>4</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+      <c r="N224">
+        <v>6</v>
+      </c>
+      <c r="O224" t="s">
+        <v>220</v>
+      </c>
+      <c r="P224" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q224">
+        <v>2.3</v>
+      </c>
+      <c r="R224">
+        <v>2.2</v>
+      </c>
+      <c r="S224">
+        <v>5.5</v>
+      </c>
+      <c r="T224">
+        <v>1.44</v>
+      </c>
+      <c r="U224">
+        <v>2.63</v>
+      </c>
+      <c r="V224">
+        <v>3</v>
+      </c>
+      <c r="W224">
+        <v>1.36</v>
+      </c>
+      <c r="X224">
+        <v>9</v>
+      </c>
+      <c r="Y224">
+        <v>1.07</v>
+      </c>
+      <c r="Z224">
+        <v>1.63</v>
+      </c>
+      <c r="AA224">
+        <v>4</v>
+      </c>
+      <c r="AB224">
+        <v>4.3</v>
+      </c>
+      <c r="AC224">
+        <v>1.06</v>
+      </c>
+      <c r="AD224">
+        <v>8</v>
+      </c>
+      <c r="AE224">
+        <v>1.35</v>
+      </c>
+      <c r="AF224">
+        <v>3</v>
+      </c>
+      <c r="AG224">
+        <v>2</v>
+      </c>
+      <c r="AH224">
+        <v>1.67</v>
+      </c>
+      <c r="AI224">
+        <v>2</v>
+      </c>
+      <c r="AJ224">
+        <v>1.75</v>
+      </c>
+      <c r="AK224">
+        <v>1.16</v>
+      </c>
+      <c r="AL224">
+        <v>1.27</v>
+      </c>
+      <c r="AM224">
+        <v>2.1</v>
+      </c>
+      <c r="AN224">
+        <v>2.2</v>
+      </c>
+      <c r="AO224">
+        <v>1.47</v>
+      </c>
+      <c r="AP224">
+        <v>2.25</v>
+      </c>
+      <c r="AQ224">
+        <v>1.38</v>
+      </c>
+      <c r="AR224">
+        <v>1.56</v>
+      </c>
+      <c r="AS224">
+        <v>1.09</v>
+      </c>
+      <c r="AT224">
+        <v>2.65</v>
+      </c>
+      <c r="AU224">
+        <v>7</v>
+      </c>
+      <c r="AV224">
+        <v>4</v>
+      </c>
+      <c r="AW224">
+        <v>4</v>
+      </c>
+      <c r="AX224">
+        <v>5</v>
+      </c>
+      <c r="AY224">
+        <v>11</v>
+      </c>
+      <c r="AZ224">
+        <v>9</v>
+      </c>
+      <c r="BA224">
+        <v>2</v>
+      </c>
+      <c r="BB224">
+        <v>2</v>
+      </c>
+      <c r="BC224">
+        <v>4</v>
+      </c>
+      <c r="BD224">
+        <v>1.58</v>
+      </c>
+      <c r="BE224">
+        <v>6.4</v>
+      </c>
+      <c r="BF224">
+        <v>2.65</v>
+      </c>
+      <c r="BG224">
+        <v>1.44</v>
+      </c>
+      <c r="BH224">
+        <v>2.4</v>
+      </c>
+      <c r="BI224">
+        <v>1.76</v>
+      </c>
+      <c r="BJ224">
+        <v>1.83</v>
+      </c>
+      <c r="BK224">
+        <v>2.23</v>
+      </c>
+      <c r="BL224">
+        <v>1.52</v>
+      </c>
+      <c r="BM224">
+        <v>2.9</v>
+      </c>
+      <c r="BN224">
+        <v>1.3</v>
+      </c>
+      <c r="BO224">
+        <v>3.9</v>
+      </c>
+      <c r="BP224">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7856989</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45787.58333333334</v>
+      </c>
+      <c r="F225">
+        <v>6</v>
+      </c>
+      <c r="G225" t="s">
+        <v>74</v>
+      </c>
+      <c r="H225" t="s">
+        <v>77</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225" t="s">
+        <v>84</v>
+      </c>
+      <c r="P225" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q225">
+        <v>2.5</v>
+      </c>
+      <c r="R225">
+        <v>2.1</v>
+      </c>
+      <c r="S225">
+        <v>4.75</v>
+      </c>
+      <c r="T225">
+        <v>1.44</v>
+      </c>
+      <c r="U225">
+        <v>2.63</v>
+      </c>
+      <c r="V225">
+        <v>3</v>
+      </c>
+      <c r="W225">
+        <v>1.36</v>
+      </c>
+      <c r="X225">
+        <v>9</v>
+      </c>
+      <c r="Y225">
+        <v>1.07</v>
+      </c>
+      <c r="Z225">
+        <v>1.87</v>
+      </c>
+      <c r="AA225">
+        <v>4.1</v>
+      </c>
+      <c r="AB225">
+        <v>3.2</v>
+      </c>
+      <c r="AC225">
+        <v>1.06</v>
+      </c>
+      <c r="AD225">
+        <v>8</v>
+      </c>
+      <c r="AE225">
+        <v>1.36</v>
+      </c>
+      <c r="AF225">
+        <v>3</v>
+      </c>
+      <c r="AG225">
+        <v>1.95</v>
+      </c>
+      <c r="AH225">
+        <v>1.7</v>
+      </c>
+      <c r="AI225">
+        <v>1.95</v>
+      </c>
+      <c r="AJ225">
+        <v>1.8</v>
+      </c>
+      <c r="AK225">
+        <v>1.25</v>
+      </c>
+      <c r="AL225">
+        <v>1.3</v>
+      </c>
+      <c r="AM225">
+        <v>1.82</v>
+      </c>
+      <c r="AN225">
+        <v>0.87</v>
+      </c>
+      <c r="AO225">
+        <v>1.2</v>
+      </c>
+      <c r="AP225">
+        <v>0.88</v>
+      </c>
+      <c r="AQ225">
+        <v>1.19</v>
+      </c>
+      <c r="AR225">
+        <v>1.4</v>
+      </c>
+      <c r="AS225">
+        <v>0.99</v>
+      </c>
+      <c r="AT225">
+        <v>2.39</v>
+      </c>
+      <c r="AU225">
+        <v>6</v>
+      </c>
+      <c r="AV225">
+        <v>3</v>
+      </c>
+      <c r="AW225">
+        <v>10</v>
+      </c>
+      <c r="AX225">
+        <v>10</v>
+      </c>
+      <c r="AY225">
+        <v>16</v>
+      </c>
+      <c r="AZ225">
+        <v>13</v>
+      </c>
+      <c r="BA225">
+        <v>5</v>
+      </c>
+      <c r="BB225">
+        <v>4</v>
+      </c>
+      <c r="BC225">
+        <v>9</v>
+      </c>
+      <c r="BD225">
+        <v>1.63</v>
+      </c>
+      <c r="BE225">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF225">
+        <v>2.8</v>
+      </c>
+      <c r="BG225">
+        <v>1.41</v>
+      </c>
+      <c r="BH225">
+        <v>2.6</v>
+      </c>
+      <c r="BI225">
+        <v>1.8</v>
+      </c>
+      <c r="BJ225">
+        <v>2</v>
+      </c>
+      <c r="BK225">
+        <v>2.23</v>
+      </c>
+      <c r="BL225">
+        <v>1.55</v>
+      </c>
+      <c r="BM225">
+        <v>3.04</v>
+      </c>
+      <c r="BN225">
+        <v>1.29</v>
+      </c>
+      <c r="BO225">
+        <v>4.3</v>
+      </c>
+      <c r="BP225">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7856990</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45787.58333333334</v>
+      </c>
+      <c r="F226">
+        <v>7</v>
+      </c>
+      <c r="G226" t="s">
+        <v>76</v>
+      </c>
+      <c r="H226" t="s">
+        <v>70</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>2</v>
+      </c>
+      <c r="K226">
+        <v>2</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>3</v>
+      </c>
+      <c r="N226">
+        <v>3</v>
+      </c>
+      <c r="O226" t="s">
+        <v>84</v>
+      </c>
+      <c r="P226" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q226">
+        <v>4.8</v>
+      </c>
+      <c r="R226">
+        <v>1.9</v>
+      </c>
+      <c r="S226">
+        <v>2.6</v>
+      </c>
+      <c r="T226">
+        <v>1.55</v>
+      </c>
+      <c r="U226">
+        <v>2.25</v>
+      </c>
+      <c r="V226">
+        <v>3.5</v>
+      </c>
+      <c r="W226">
+        <v>1.26</v>
+      </c>
+      <c r="X226">
+        <v>10</v>
+      </c>
+      <c r="Y226">
+        <v>1.04</v>
+      </c>
+      <c r="Z226">
+        <v>4.3</v>
+      </c>
+      <c r="AA226">
+        <v>3</v>
+      </c>
+      <c r="AB226">
+        <v>1.91</v>
+      </c>
+      <c r="AC226">
+        <v>1.1</v>
+      </c>
+      <c r="AD226">
+        <v>6.25</v>
+      </c>
+      <c r="AE226">
+        <v>1.5</v>
+      </c>
+      <c r="AF226">
+        <v>2.3</v>
+      </c>
+      <c r="AG226">
+        <v>2.4</v>
+      </c>
+      <c r="AH226">
+        <v>1.51</v>
+      </c>
+      <c r="AI226">
+        <v>2.25</v>
+      </c>
+      <c r="AJ226">
+        <v>1.57</v>
+      </c>
+      <c r="AK226">
+        <v>1.83</v>
+      </c>
+      <c r="AL226">
+        <v>1.34</v>
+      </c>
+      <c r="AM226">
+        <v>1.2</v>
+      </c>
+      <c r="AN226">
+        <v>1.25</v>
+      </c>
+      <c r="AO226">
+        <v>1.25</v>
+      </c>
+      <c r="AP226">
+        <v>1.18</v>
+      </c>
+      <c r="AQ226">
+        <v>1.35</v>
+      </c>
+      <c r="AR226">
+        <v>1.21</v>
+      </c>
+      <c r="AS226">
+        <v>1.16</v>
+      </c>
+      <c r="AT226">
+        <v>2.37</v>
+      </c>
+      <c r="AU226">
+        <v>3</v>
+      </c>
+      <c r="AV226">
+        <v>9</v>
+      </c>
+      <c r="AW226">
+        <v>11</v>
+      </c>
+      <c r="AX226">
+        <v>6</v>
+      </c>
+      <c r="AY226">
+        <v>20</v>
+      </c>
+      <c r="AZ226">
+        <v>18</v>
+      </c>
+      <c r="BA226">
+        <v>3</v>
+      </c>
+      <c r="BB226">
+        <v>6</v>
+      </c>
+      <c r="BC226">
+        <v>9</v>
+      </c>
+      <c r="BD226">
+        <v>2.8</v>
+      </c>
+      <c r="BE226">
+        <v>6.4</v>
+      </c>
+      <c r="BF226">
+        <v>1.54</v>
+      </c>
+      <c r="BG226">
+        <v>1.54</v>
+      </c>
+      <c r="BH226">
+        <v>2.18</v>
+      </c>
+      <c r="BI226">
+        <v>1.91</v>
+      </c>
+      <c r="BJ226">
+        <v>1.7</v>
+      </c>
+      <c r="BK226">
+        <v>2.45</v>
+      </c>
+      <c r="BL226">
+        <v>1.42</v>
+      </c>
+      <c r="BM226">
+        <v>3.25</v>
+      </c>
+      <c r="BN226">
+        <v>1.24</v>
+      </c>
+      <c r="BO226">
+        <v>4.4</v>
+      </c>
+      <c r="BP226">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
@@ -47299,7 +47299,7 @@
         <v>69</v>
       </c>
       <c r="E224" s="2">
-        <v>45787.58333333334</v>
+        <v>45787.52083333334</v>
       </c>
       <c r="F224">
         <v>6</v>
@@ -47505,7 +47505,7 @@
         <v>69</v>
       </c>
       <c r="E225" s="2">
-        <v>45787.58333333334</v>
+        <v>45787.55208333334</v>
       </c>
       <c r="F225">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="323">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,6 +679,9 @@
     <t>['12', '23', '56', '77']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -1341,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP226"/>
+  <dimension ref="A1:BP228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1600,7 +1603,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1681,7 +1684,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ2">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1806,7 +1809,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1884,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ3">
         <v>0.75</v>
@@ -2296,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ5">
         <v>1.38</v>
@@ -2424,7 +2427,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2836,7 +2839,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -3248,7 +3251,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3454,7 +3457,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3944,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ13">
         <v>1.19</v>
@@ -4150,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ14">
         <v>1.41</v>
@@ -4484,7 +4487,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4565,7 +4568,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ16">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4690,7 +4693,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5102,7 +5105,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5183,7 +5186,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ19">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -5308,7 +5311,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5514,7 +5517,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5720,7 +5723,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -6132,7 +6135,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6338,7 +6341,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6750,7 +6753,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7034,7 +7037,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ28">
         <v>1.44</v>
@@ -7368,7 +7371,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7655,7 +7658,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ31">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7780,7 +7783,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -8192,7 +8195,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8270,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ34">
         <v>0.75</v>
@@ -8398,7 +8401,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8685,7 +8688,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ36">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR36">
         <v>2.14</v>
@@ -9016,7 +9019,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -9222,7 +9225,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9712,7 +9715,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ41">
         <v>1.25</v>
@@ -10046,7 +10049,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10252,7 +10255,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10539,7 +10542,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ45">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR45">
         <v>1.33</v>
@@ -10870,7 +10873,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11076,7 +11079,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -11282,7 +11285,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11566,10 +11569,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ50">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR50">
         <v>1.74</v>
@@ -11900,7 +11903,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -12312,7 +12315,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12930,7 +12933,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13136,7 +13139,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13342,7 +13345,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13629,7 +13632,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ60">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR60">
         <v>1.32</v>
@@ -13835,7 +13838,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ61">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR61">
         <v>1.69</v>
@@ -13960,7 +13963,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14038,7 +14041,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ62">
         <v>1.25</v>
@@ -14166,7 +14169,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -14244,7 +14247,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ63">
         <v>1.19</v>
@@ -14372,7 +14375,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14990,7 +14993,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -15402,7 +15405,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15483,7 +15486,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ69">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR69">
         <v>1.44</v>
@@ -15608,7 +15611,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -16226,7 +16229,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16638,7 +16641,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16844,7 +16847,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17128,7 +17131,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77">
         <v>0.5</v>
@@ -17256,7 +17259,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17334,10 +17337,10 @@
         <v>1.4</v>
       </c>
       <c r="AP78">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ78">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR78">
         <v>1.72</v>
@@ -17462,7 +17465,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17668,7 +17671,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18080,7 +18083,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -18286,7 +18289,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18573,7 +18576,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ84">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR84">
         <v>2.03</v>
@@ -19110,7 +19113,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19728,7 +19731,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19809,7 +19812,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ90">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR90">
         <v>1.22</v>
@@ -19934,7 +19937,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -20012,7 +20015,7 @@
         <v>0.67</v>
       </c>
       <c r="AP91">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ91">
         <v>0.82</v>
@@ -20140,7 +20143,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -20218,7 +20221,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ92">
         <v>1.81</v>
@@ -20552,7 +20555,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20758,7 +20761,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20964,7 +20967,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -21045,7 +21048,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ96">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR96">
         <v>1.22</v>
@@ -21376,7 +21379,7 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21582,7 +21585,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21869,7 +21872,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ100">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR100">
         <v>1.18</v>
@@ -23105,7 +23108,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ106">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR106">
         <v>1.5</v>
@@ -23720,7 +23723,7 @@
         <v>0.71</v>
       </c>
       <c r="AP109">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ109">
         <v>0.82</v>
@@ -23926,7 +23929,7 @@
         <v>1.57</v>
       </c>
       <c r="AP110">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ110">
         <v>1.81</v>
@@ -24054,7 +24057,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q111">
         <v>1.57</v>
@@ -24260,7 +24263,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -25084,7 +25087,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25290,7 +25293,7 @@
         <v>159</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q117">
         <v>8.5</v>
@@ -25371,7 +25374,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ117">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR117">
         <v>1.31</v>
@@ -25496,7 +25499,7 @@
         <v>84</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25702,7 +25705,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25780,7 +25783,7 @@
         <v>2.75</v>
       </c>
       <c r="AP119">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ119">
         <v>1.81</v>
@@ -25908,7 +25911,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -25989,7 +25992,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ120">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
@@ -26320,7 +26323,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26526,7 +26529,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q123">
         <v>4.33</v>
@@ -26732,7 +26735,7 @@
         <v>163</v>
       </c>
       <c r="P124" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q124">
         <v>1.62</v>
@@ -26810,7 +26813,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ124">
         <v>1.35</v>
@@ -27762,7 +27765,7 @@
         <v>108</v>
       </c>
       <c r="P129" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -27843,7 +27846,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ129">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR129">
         <v>1.26</v>
@@ -27968,7 +27971,7 @@
         <v>104</v>
       </c>
       <c r="P130" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28664,10 +28667,10 @@
         <v>1.78</v>
       </c>
       <c r="AP133">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ133">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR133">
         <v>1.91</v>
@@ -28998,7 +29001,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q135">
         <v>3.75</v>
@@ -29204,7 +29207,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29822,7 +29825,7 @@
         <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -30106,7 +30109,7 @@
         <v>0.89</v>
       </c>
       <c r="AP140">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ140">
         <v>1.41</v>
@@ -30440,7 +30443,7 @@
         <v>172</v>
       </c>
       <c r="P142" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30518,7 +30521,7 @@
         <v>1.5</v>
       </c>
       <c r="AP142">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ142">
         <v>1.19</v>
@@ -30646,7 +30649,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q143">
         <v>3.25</v>
@@ -30933,7 +30936,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ144">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR144">
         <v>1.16</v>
@@ -31264,7 +31267,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31342,10 +31345,10 @@
         <v>1.6</v>
       </c>
       <c r="AP146">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ146">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR146">
         <v>1.73</v>
@@ -32088,7 +32091,7 @@
         <v>84</v>
       </c>
       <c r="P150" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q150">
         <v>5.5</v>
@@ -32294,7 +32297,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q151">
         <v>1.8</v>
@@ -32912,7 +32915,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33118,7 +33121,7 @@
         <v>147</v>
       </c>
       <c r="P155" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33530,7 +33533,7 @@
         <v>177</v>
       </c>
       <c r="P157" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33736,7 +33739,7 @@
         <v>178</v>
       </c>
       <c r="P158" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q158">
         <v>4.33</v>
@@ -33942,7 +33945,7 @@
         <v>179</v>
       </c>
       <c r="P159" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q159">
         <v>1.73</v>
@@ -34020,7 +34023,7 @@
         <v>1.45</v>
       </c>
       <c r="AP159">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ159">
         <v>1.35</v>
@@ -34148,7 +34151,7 @@
         <v>84</v>
       </c>
       <c r="P160" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q160">
         <v>13</v>
@@ -34229,7 +34232,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ160">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR160">
         <v>1.33</v>
@@ -34432,7 +34435,7 @@
         <v>0.55</v>
       </c>
       <c r="AP161">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ161">
         <v>0.5</v>
@@ -34766,7 +34769,7 @@
         <v>182</v>
       </c>
       <c r="P163" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -35178,7 +35181,7 @@
         <v>184</v>
       </c>
       <c r="P165" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35384,7 +35387,7 @@
         <v>185</v>
       </c>
       <c r="P166" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q166">
         <v>2.2</v>
@@ -35590,7 +35593,7 @@
         <v>186</v>
       </c>
       <c r="P167" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -35796,7 +35799,7 @@
         <v>84</v>
       </c>
       <c r="P168" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -35877,7 +35880,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ168">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR168">
         <v>1.45</v>
@@ -36002,7 +36005,7 @@
         <v>187</v>
       </c>
       <c r="P169" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36208,7 +36211,7 @@
         <v>188</v>
       </c>
       <c r="P170" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q170">
         <v>4</v>
@@ -36414,7 +36417,7 @@
         <v>189</v>
       </c>
       <c r="P171" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36698,7 +36701,7 @@
         <v>1.33</v>
       </c>
       <c r="AP172">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ172">
         <v>1.19</v>
@@ -36826,7 +36829,7 @@
         <v>122</v>
       </c>
       <c r="P173" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q173">
         <v>3.6</v>
@@ -37316,7 +37319,7 @@
         <v>1.33</v>
       </c>
       <c r="AP175">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ175">
         <v>1.38</v>
@@ -37444,7 +37447,7 @@
         <v>84</v>
       </c>
       <c r="P176" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -37525,7 +37528,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ176">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR176">
         <v>2.18</v>
@@ -38268,7 +38271,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q180">
         <v>6.5</v>
@@ -38555,7 +38558,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ181">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR181">
         <v>1.55</v>
@@ -38680,7 +38683,7 @@
         <v>196</v>
       </c>
       <c r="P182" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -38886,7 +38889,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -39092,7 +39095,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39504,7 +39507,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q186">
         <v>3.6</v>
@@ -39710,7 +39713,7 @@
         <v>200</v>
       </c>
       <c r="P187" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q187">
         <v>3.5</v>
@@ -39916,7 +39919,7 @@
         <v>113</v>
       </c>
       <c r="P188" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q188">
         <v>2.63</v>
@@ -40122,7 +40125,7 @@
         <v>201</v>
       </c>
       <c r="P189" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40328,7 +40331,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q190">
         <v>2.38</v>
@@ -40946,7 +40949,7 @@
         <v>84</v>
       </c>
       <c r="P193" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q193">
         <v>4.75</v>
@@ -41436,10 +41439,10 @@
         <v>2.23</v>
       </c>
       <c r="AP195">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ195">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR195">
         <v>1.78</v>
@@ -41564,7 +41567,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q196">
         <v>3.5</v>
@@ -41642,10 +41645,10 @@
         <v>1.77</v>
       </c>
       <c r="AP196">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ196">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR196">
         <v>1.96</v>
@@ -42800,7 +42803,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -42878,7 +42881,7 @@
         <v>2.07</v>
       </c>
       <c r="AP202">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ202">
         <v>1.81</v>
@@ -43293,7 +43296,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ204">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR204">
         <v>1.99</v>
@@ -43624,7 +43627,7 @@
         <v>200</v>
       </c>
       <c r="P206" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q206">
         <v>7.5</v>
@@ -43830,7 +43833,7 @@
         <v>84</v>
       </c>
       <c r="P207" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44036,7 +44039,7 @@
         <v>84</v>
       </c>
       <c r="P208" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q208">
         <v>3.25</v>
@@ -44242,7 +44245,7 @@
         <v>134</v>
       </c>
       <c r="P209" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q209">
         <v>3.6</v>
@@ -44448,7 +44451,7 @@
         <v>84</v>
       </c>
       <c r="P210" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44529,7 +44532,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ210">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR210">
         <v>2.03</v>
@@ -44654,7 +44657,7 @@
         <v>211</v>
       </c>
       <c r="P211" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q211">
         <v>2.6</v>
@@ -44732,7 +44735,7 @@
         <v>1.43</v>
       </c>
       <c r="AP211">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ211">
         <v>1.44</v>
@@ -45478,7 +45481,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45684,7 +45687,7 @@
         <v>214</v>
       </c>
       <c r="P216" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -45890,7 +45893,7 @@
         <v>194</v>
       </c>
       <c r="P217" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q217">
         <v>2.75</v>
@@ -46096,7 +46099,7 @@
         <v>215</v>
       </c>
       <c r="P218" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46714,7 +46717,7 @@
         <v>217</v>
       </c>
       <c r="P221" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -47126,7 +47129,7 @@
         <v>219</v>
       </c>
       <c r="P223" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q223">
         <v>2.85</v>
@@ -47332,7 +47335,7 @@
         <v>220</v>
       </c>
       <c r="P224" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q224">
         <v>2.3</v>
@@ -47744,7 +47747,7 @@
         <v>84</v>
       </c>
       <c r="P226" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q226">
         <v>4.8</v>
@@ -47901,6 +47904,418 @@
       </c>
       <c r="BP226">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7856991</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45788.58333333334</v>
+      </c>
+      <c r="F227">
+        <v>6</v>
+      </c>
+      <c r="G227" t="s">
+        <v>71</v>
+      </c>
+      <c r="H227" t="s">
+        <v>75</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="O227" t="s">
+        <v>221</v>
+      </c>
+      <c r="P227" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q227">
+        <v>2.88</v>
+      </c>
+      <c r="R227">
+        <v>2.1</v>
+      </c>
+      <c r="S227">
+        <v>3.75</v>
+      </c>
+      <c r="T227">
+        <v>1.4</v>
+      </c>
+      <c r="U227">
+        <v>2.75</v>
+      </c>
+      <c r="V227">
+        <v>3</v>
+      </c>
+      <c r="W227">
+        <v>1.36</v>
+      </c>
+      <c r="X227">
+        <v>9</v>
+      </c>
+      <c r="Y227">
+        <v>1.07</v>
+      </c>
+      <c r="Z227">
+        <v>2.6</v>
+      </c>
+      <c r="AA227">
+        <v>3.1</v>
+      </c>
+      <c r="AB227">
+        <v>2.55</v>
+      </c>
+      <c r="AC227">
+        <v>1</v>
+      </c>
+      <c r="AD227">
+        <v>9</v>
+      </c>
+      <c r="AE227">
+        <v>1.3</v>
+      </c>
+      <c r="AF227">
+        <v>3.08</v>
+      </c>
+      <c r="AG227">
+        <v>2.05</v>
+      </c>
+      <c r="AH227">
+        <v>1.61</v>
+      </c>
+      <c r="AI227">
+        <v>1.8</v>
+      </c>
+      <c r="AJ227">
+        <v>1.95</v>
+      </c>
+      <c r="AK227">
+        <v>1.35</v>
+      </c>
+      <c r="AL227">
+        <v>1.32</v>
+      </c>
+      <c r="AM227">
+        <v>1.6</v>
+      </c>
+      <c r="AN227">
+        <v>1.73</v>
+      </c>
+      <c r="AO227">
+        <v>1.53</v>
+      </c>
+      <c r="AP227">
+        <v>1.81</v>
+      </c>
+      <c r="AQ227">
+        <v>1.44</v>
+      </c>
+      <c r="AR227">
+        <v>1.74</v>
+      </c>
+      <c r="AS227">
+        <v>1.68</v>
+      </c>
+      <c r="AT227">
+        <v>3.42</v>
+      </c>
+      <c r="AU227">
+        <v>5</v>
+      </c>
+      <c r="AV227">
+        <v>2</v>
+      </c>
+      <c r="AW227">
+        <v>5</v>
+      </c>
+      <c r="AX227">
+        <v>11</v>
+      </c>
+      <c r="AY227">
+        <v>10</v>
+      </c>
+      <c r="AZ227">
+        <v>13</v>
+      </c>
+      <c r="BA227">
+        <v>3</v>
+      </c>
+      <c r="BB227">
+        <v>4</v>
+      </c>
+      <c r="BC227">
+        <v>7</v>
+      </c>
+      <c r="BD227">
+        <v>1.97</v>
+      </c>
+      <c r="BE227">
+        <v>6.5</v>
+      </c>
+      <c r="BF227">
+        <v>2</v>
+      </c>
+      <c r="BG227">
+        <v>1.41</v>
+      </c>
+      <c r="BH227">
+        <v>2.5</v>
+      </c>
+      <c r="BI227">
+        <v>1.7</v>
+      </c>
+      <c r="BJ227">
+        <v>1.91</v>
+      </c>
+      <c r="BK227">
+        <v>2.14</v>
+      </c>
+      <c r="BL227">
+        <v>1.55</v>
+      </c>
+      <c r="BM227">
+        <v>2.75</v>
+      </c>
+      <c r="BN227">
+        <v>1.33</v>
+      </c>
+      <c r="BO227">
+        <v>3.75</v>
+      </c>
+      <c r="BP227">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7856992</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45788.58333333334</v>
+      </c>
+      <c r="F228">
+        <v>6</v>
+      </c>
+      <c r="G228" t="s">
+        <v>73</v>
+      </c>
+      <c r="H228" t="s">
+        <v>80</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
+        <v>1</v>
+      </c>
+      <c r="O228" t="s">
+        <v>84</v>
+      </c>
+      <c r="P228" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q228">
+        <v>3.1</v>
+      </c>
+      <c r="R228">
+        <v>2.05</v>
+      </c>
+      <c r="S228">
+        <v>3.6</v>
+      </c>
+      <c r="T228">
+        <v>1.44</v>
+      </c>
+      <c r="U228">
+        <v>2.63</v>
+      </c>
+      <c r="V228">
+        <v>3.25</v>
+      </c>
+      <c r="W228">
+        <v>1.33</v>
+      </c>
+      <c r="X228">
+        <v>9</v>
+      </c>
+      <c r="Y228">
+        <v>1.07</v>
+      </c>
+      <c r="Z228">
+        <v>2.85</v>
+      </c>
+      <c r="AA228">
+        <v>3</v>
+      </c>
+      <c r="AB228">
+        <v>2.45</v>
+      </c>
+      <c r="AC228">
+        <v>1.04</v>
+      </c>
+      <c r="AD228">
+        <v>7.1</v>
+      </c>
+      <c r="AE228">
+        <v>1.36</v>
+      </c>
+      <c r="AF228">
+        <v>2.78</v>
+      </c>
+      <c r="AG228">
+        <v>2.1</v>
+      </c>
+      <c r="AH228">
+        <v>1.6</v>
+      </c>
+      <c r="AI228">
+        <v>1.91</v>
+      </c>
+      <c r="AJ228">
+        <v>1.91</v>
+      </c>
+      <c r="AK228">
+        <v>1.37</v>
+      </c>
+      <c r="AL228">
+        <v>1.34</v>
+      </c>
+      <c r="AM228">
+        <v>1.53</v>
+      </c>
+      <c r="AN228">
+        <v>2.4</v>
+      </c>
+      <c r="AO228">
+        <v>2.13</v>
+      </c>
+      <c r="AP228">
+        <v>2.25</v>
+      </c>
+      <c r="AQ228">
+        <v>2.19</v>
+      </c>
+      <c r="AR228">
+        <v>1.87</v>
+      </c>
+      <c r="AS228">
+        <v>1.72</v>
+      </c>
+      <c r="AT228">
+        <v>3.59</v>
+      </c>
+      <c r="AU228">
+        <v>5</v>
+      </c>
+      <c r="AV228">
+        <v>7</v>
+      </c>
+      <c r="AW228">
+        <v>7</v>
+      </c>
+      <c r="AX228">
+        <v>3</v>
+      </c>
+      <c r="AY228">
+        <v>14</v>
+      </c>
+      <c r="AZ228">
+        <v>12</v>
+      </c>
+      <c r="BA228">
+        <v>8</v>
+      </c>
+      <c r="BB228">
+        <v>5</v>
+      </c>
+      <c r="BC228">
+        <v>13</v>
+      </c>
+      <c r="BD228">
+        <v>1.9</v>
+      </c>
+      <c r="BE228">
+        <v>5.8</v>
+      </c>
+      <c r="BF228">
+        <v>2.15</v>
+      </c>
+      <c r="BG228">
+        <v>1.5</v>
+      </c>
+      <c r="BH228">
+        <v>2.25</v>
+      </c>
+      <c r="BI228">
+        <v>1.84</v>
+      </c>
+      <c r="BJ228">
+        <v>1.76</v>
+      </c>
+      <c r="BK228">
+        <v>2.35</v>
+      </c>
+      <c r="BL228">
+        <v>1.46</v>
+      </c>
+      <c r="BM228">
+        <v>3.15</v>
+      </c>
+      <c r="BN228">
+        <v>1.26</v>
+      </c>
+      <c r="BO228">
+        <v>4.25</v>
+      </c>
+      <c r="BP228">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,6 +682,12 @@
     <t>['45']</t>
   </si>
   <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['2', '38', '40']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -892,9 +898,6 @@
     <t>['9', '45']</t>
   </si>
   <si>
-    <t>['10']</t>
-  </si>
-  <si>
     <t>['29']</t>
   </si>
   <si>
@@ -983,6 +986,9 @@
   </si>
   <si>
     <t>['34', '45+2', '55']</t>
+  </si>
+  <si>
+    <t>['39', '45+2']</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP228"/>
+  <dimension ref="A1:BP231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1603,7 +1609,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1681,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ2">
         <v>2.19</v>
@@ -1809,7 +1815,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1890,7 +1896,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2093,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ4">
         <v>0.82</v>
@@ -2427,7 +2433,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2839,7 +2845,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2920,7 +2926,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3251,7 +3257,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3457,7 +3463,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3538,7 +3544,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR11">
         <v>2.01</v>
@@ -3950,7 +3956,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ13">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR13">
         <v>1.83</v>
@@ -4487,7 +4493,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4693,7 +4699,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4980,7 +4986,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ18">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -5105,7 +5111,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5183,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ19">
         <v>1.44</v>
@@ -5311,7 +5317,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5389,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ20">
         <v>1.19</v>
@@ -5517,7 +5523,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5723,7 +5729,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -6135,7 +6141,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6341,7 +6347,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6628,7 +6634,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ26">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR26">
         <v>1.48</v>
@@ -6753,7 +6759,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7371,7 +7377,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7449,7 +7455,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ30">
         <v>1.81</v>
@@ -7783,7 +7789,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -8067,7 +8073,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ33">
         <v>1.19</v>
@@ -8195,7 +8201,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8276,7 +8282,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ34">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR34">
         <v>1.44</v>
@@ -8401,7 +8407,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8482,7 +8488,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ35">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR35">
         <v>1.08</v>
@@ -8891,7 +8897,7 @@
         <v>0.67</v>
       </c>
       <c r="AP37">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ37">
         <v>0.82</v>
@@ -9019,7 +9025,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -9225,7 +9231,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9306,7 +9312,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ39">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR39">
         <v>1.2</v>
@@ -10049,7 +10055,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10130,7 +10136,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR43">
         <v>1.06</v>
@@ -10255,7 +10261,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10748,7 +10754,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ46">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR46">
         <v>1.16</v>
@@ -10873,7 +10879,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11079,7 +11085,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -11285,7 +11291,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11363,7 +11369,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ49">
         <v>1.81</v>
@@ -11775,10 +11781,10 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ51">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -11903,7 +11909,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11984,7 +11990,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ52">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -12315,7 +12321,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12933,7 +12939,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13139,7 +13145,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13345,7 +13351,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13423,10 +13429,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ59">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR59">
         <v>0.99</v>
@@ -13963,7 +13969,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14169,7 +14175,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -14375,7 +14381,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14662,7 +14668,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ65">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR65">
         <v>1.98</v>
@@ -14868,7 +14874,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ66">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR66">
         <v>1.31</v>
@@ -14993,7 +14999,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -15277,7 +15283,7 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ68">
         <v>1.44</v>
@@ -15405,7 +15411,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15611,7 +15617,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -16229,7 +16235,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16641,7 +16647,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16847,7 +16853,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16925,7 +16931,7 @@
         <v>2.25</v>
       </c>
       <c r="AP76">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ76">
         <v>1.35</v>
@@ -17134,7 +17140,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ77">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR77">
         <v>1.69</v>
@@ -17259,7 +17265,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17465,7 +17471,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17546,7 +17552,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ79">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17671,7 +17677,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18083,7 +18089,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -18289,7 +18295,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18985,10 +18991,10 @@
         <v>0.83</v>
       </c>
       <c r="AP86">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ86">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR86">
         <v>1.38</v>
@@ -19113,7 +19119,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19191,10 +19197,10 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ87">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR87">
         <v>1.2</v>
@@ -19731,7 +19737,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19937,7 +19943,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -20143,7 +20149,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -20555,7 +20561,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20761,7 +20767,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20967,7 +20973,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -21379,7 +21385,7 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21460,7 +21466,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ98">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR98">
         <v>1.1</v>
@@ -21585,7 +21591,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22281,7 +22287,7 @@
         <v>1.29</v>
       </c>
       <c r="AP102">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ102">
         <v>1.38</v>
@@ -22490,7 +22496,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ103">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR103">
         <v>1.47</v>
@@ -22693,7 +22699,7 @@
         <v>2</v>
       </c>
       <c r="AP104">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ104">
         <v>1.44</v>
@@ -23314,7 +23320,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ107">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR107">
         <v>1.96</v>
@@ -23520,7 +23526,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ108">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR108">
         <v>1.22</v>
@@ -24057,7 +24063,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>1.57</v>
@@ -24263,7 +24269,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24756,7 +24762,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ114">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR114">
         <v>1.39</v>
@@ -24959,10 +24965,10 @@
         <v>1.13</v>
       </c>
       <c r="AP115">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ115">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR115">
         <v>1.12</v>
@@ -25087,7 +25093,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25293,7 +25299,7 @@
         <v>159</v>
       </c>
       <c r="P117" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q117">
         <v>8.5</v>
@@ -25371,7 +25377,7 @@
         <v>1.63</v>
       </c>
       <c r="AP117">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ117">
         <v>1.44</v>
@@ -25499,7 +25505,7 @@
         <v>84</v>
       </c>
       <c r="P118" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25705,7 +25711,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25911,7 +25917,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -26323,7 +26329,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26529,7 +26535,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q123">
         <v>4.33</v>
@@ -26735,7 +26741,7 @@
         <v>163</v>
       </c>
       <c r="P124" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q124">
         <v>1.62</v>
@@ -27228,7 +27234,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ126">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR126">
         <v>1.41</v>
@@ -27765,7 +27771,7 @@
         <v>108</v>
       </c>
       <c r="P129" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -27971,7 +27977,7 @@
         <v>104</v>
       </c>
       <c r="P130" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28049,7 +28055,7 @@
         <v>1.33</v>
       </c>
       <c r="AP130">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ130">
         <v>1.38</v>
@@ -28876,7 +28882,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ134">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR134">
         <v>1.25</v>
@@ -29001,7 +29007,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q135">
         <v>3.75</v>
@@ -29079,7 +29085,7 @@
         <v>1.56</v>
       </c>
       <c r="AP135">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ135">
         <v>1.81</v>
@@ -29207,7 +29213,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29288,7 +29294,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ136">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR136">
         <v>1.31</v>
@@ -29700,7 +29706,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ138">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR138">
         <v>2.02</v>
@@ -29825,7 +29831,7 @@
         <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -30443,7 +30449,7 @@
         <v>172</v>
       </c>
       <c r="P142" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30649,7 +30655,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q143">
         <v>3.25</v>
@@ -30933,7 +30939,7 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ144">
         <v>2.19</v>
@@ -31267,7 +31273,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31760,7 +31766,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ148">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR148">
         <v>1.44</v>
@@ -31963,10 +31969,10 @@
         <v>1.3</v>
       </c>
       <c r="AP149">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ149">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR149">
         <v>1.24</v>
@@ -32091,7 +32097,7 @@
         <v>84</v>
       </c>
       <c r="P150" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q150">
         <v>5.5</v>
@@ -32297,7 +32303,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q151">
         <v>1.8</v>
@@ -32790,7 +32796,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ153">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR153">
         <v>2.03</v>
@@ -32915,7 +32921,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33121,7 +33127,7 @@
         <v>147</v>
       </c>
       <c r="P155" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33533,7 +33539,7 @@
         <v>177</v>
       </c>
       <c r="P157" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33739,7 +33745,7 @@
         <v>178</v>
       </c>
       <c r="P158" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q158">
         <v>4.33</v>
@@ -33817,7 +33823,7 @@
         <v>1.27</v>
       </c>
       <c r="AP158">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ158">
         <v>1.25</v>
@@ -33945,7 +33951,7 @@
         <v>179</v>
       </c>
       <c r="P159" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q159">
         <v>1.73</v>
@@ -34151,7 +34157,7 @@
         <v>84</v>
       </c>
       <c r="P160" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q160">
         <v>13</v>
@@ -34438,7 +34444,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ161">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR161">
         <v>1.7</v>
@@ -34769,7 +34775,7 @@
         <v>182</v>
       </c>
       <c r="P163" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -35056,7 +35062,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ164">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR164">
         <v>1.26</v>
@@ -35181,7 +35187,7 @@
         <v>184</v>
       </c>
       <c r="P165" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35259,7 +35265,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ165">
         <v>1.41</v>
@@ -35387,7 +35393,7 @@
         <v>185</v>
       </c>
       <c r="P166" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q166">
         <v>2.2</v>
@@ -35468,7 +35474,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ166">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR166">
         <v>1.46</v>
@@ -35593,7 +35599,7 @@
         <v>186</v>
       </c>
       <c r="P167" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -35799,7 +35805,7 @@
         <v>84</v>
       </c>
       <c r="P168" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -36005,7 +36011,7 @@
         <v>187</v>
       </c>
       <c r="P169" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36211,7 +36217,7 @@
         <v>188</v>
       </c>
       <c r="P170" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q170">
         <v>4</v>
@@ -36289,7 +36295,7 @@
         <v>1.17</v>
       </c>
       <c r="AP170">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ170">
         <v>1.25</v>
@@ -36417,7 +36423,7 @@
         <v>189</v>
       </c>
       <c r="P171" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36704,7 +36710,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ172">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR172">
         <v>1.91</v>
@@ -36829,7 +36835,7 @@
         <v>122</v>
       </c>
       <c r="P173" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q173">
         <v>3.6</v>
@@ -36907,7 +36913,7 @@
         <v>1.67</v>
       </c>
       <c r="AP173">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ173">
         <v>1.81</v>
@@ -37116,7 +37122,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ174">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR174">
         <v>1.42</v>
@@ -37447,7 +37453,7 @@
         <v>84</v>
       </c>
       <c r="P176" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -38271,7 +38277,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q180">
         <v>6.5</v>
@@ -38683,7 +38689,7 @@
         <v>196</v>
       </c>
       <c r="P182" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -38889,7 +38895,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -38970,7 +38976,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ183">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR183">
         <v>1.35</v>
@@ -39095,7 +39101,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39507,7 +39513,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q186">
         <v>3.6</v>
@@ -39713,7 +39719,7 @@
         <v>200</v>
       </c>
       <c r="P187" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q187">
         <v>3.5</v>
@@ -39919,7 +39925,7 @@
         <v>113</v>
       </c>
       <c r="P188" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q188">
         <v>2.63</v>
@@ -40000,7 +40006,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ188">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR188">
         <v>1.32</v>
@@ -40125,7 +40131,7 @@
         <v>201</v>
       </c>
       <c r="P189" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40331,7 +40337,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q190">
         <v>2.38</v>
@@ -40615,10 +40621,10 @@
         <v>0.92</v>
       </c>
       <c r="AP191">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ191">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR191">
         <v>1.2</v>
@@ -40949,7 +40955,7 @@
         <v>84</v>
       </c>
       <c r="P193" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q193">
         <v>4.75</v>
@@ -41233,10 +41239,10 @@
         <v>1.23</v>
       </c>
       <c r="AP194">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ194">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR194">
         <v>1.24</v>
@@ -41567,7 +41573,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q196">
         <v>3.5</v>
@@ -42060,7 +42066,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ198">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR198">
         <v>1.19</v>
@@ -42469,7 +42475,7 @@
         <v>1.29</v>
       </c>
       <c r="AP200">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ200">
         <v>1.41</v>
@@ -42803,7 +42809,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -43502,7 +43508,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ205">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR205">
         <v>1.4</v>
@@ -43627,7 +43633,7 @@
         <v>200</v>
       </c>
       <c r="P206" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q206">
         <v>7.5</v>
@@ -43833,7 +43839,7 @@
         <v>84</v>
       </c>
       <c r="P207" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44039,7 +44045,7 @@
         <v>84</v>
       </c>
       <c r="P208" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q208">
         <v>3.25</v>
@@ -44245,7 +44251,7 @@
         <v>134</v>
       </c>
       <c r="P209" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q209">
         <v>3.6</v>
@@ -44451,7 +44457,7 @@
         <v>84</v>
       </c>
       <c r="P210" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44657,7 +44663,7 @@
         <v>211</v>
       </c>
       <c r="P211" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q211">
         <v>2.6</v>
@@ -44941,10 +44947,10 @@
         <v>0.47</v>
       </c>
       <c r="AP212">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ212">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR212">
         <v>1.28</v>
@@ -45353,10 +45359,10 @@
         <v>0.86</v>
       </c>
       <c r="AP214">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ214">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR214">
         <v>1.26</v>
@@ -45481,7 +45487,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45687,7 +45693,7 @@
         <v>214</v>
       </c>
       <c r="P216" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -45893,7 +45899,7 @@
         <v>194</v>
       </c>
       <c r="P217" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q217">
         <v>2.75</v>
@@ -46099,7 +46105,7 @@
         <v>215</v>
       </c>
       <c r="P218" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46592,7 +46598,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ220">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR220">
         <v>1.46</v>
@@ -46717,7 +46723,7 @@
         <v>217</v>
       </c>
       <c r="P221" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -47004,7 +47010,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ222">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR222">
         <v>1.03</v>
@@ -47129,7 +47135,7 @@
         <v>219</v>
       </c>
       <c r="P223" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q223">
         <v>2.85</v>
@@ -47207,7 +47213,7 @@
         <v>0.88</v>
       </c>
       <c r="AP223">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ223">
         <v>0.82</v>
@@ -47335,7 +47341,7 @@
         <v>220</v>
       </c>
       <c r="P224" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q224">
         <v>2.3</v>
@@ -47747,7 +47753,7 @@
         <v>84</v>
       </c>
       <c r="P226" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q226">
         <v>4.8</v>
@@ -48316,6 +48322,624 @@
       </c>
       <c r="BP228">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7856995</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45791.5</v>
+      </c>
+      <c r="F229">
+        <v>8</v>
+      </c>
+      <c r="G229" t="s">
+        <v>72</v>
+      </c>
+      <c r="H229" t="s">
+        <v>76</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>2</v>
+      </c>
+      <c r="K229">
+        <v>3</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>2</v>
+      </c>
+      <c r="N229">
+        <v>3</v>
+      </c>
+      <c r="O229" t="s">
+        <v>173</v>
+      </c>
+      <c r="P229" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q229">
+        <v>2.38</v>
+      </c>
+      <c r="R229">
+        <v>2</v>
+      </c>
+      <c r="S229">
+        <v>5</v>
+      </c>
+      <c r="T229">
+        <v>1.48</v>
+      </c>
+      <c r="U229">
+        <v>2.45</v>
+      </c>
+      <c r="V229">
+        <v>3.3</v>
+      </c>
+      <c r="W229">
+        <v>1.28</v>
+      </c>
+      <c r="X229">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y229">
+        <v>1.01</v>
+      </c>
+      <c r="Z229">
+        <v>1.58</v>
+      </c>
+      <c r="AA229">
+        <v>3.9</v>
+      </c>
+      <c r="AB229">
+        <v>5.2</v>
+      </c>
+      <c r="AC229">
+        <v>1.03</v>
+      </c>
+      <c r="AD229">
+        <v>9</v>
+      </c>
+      <c r="AE229">
+        <v>1.36</v>
+      </c>
+      <c r="AF229">
+        <v>2.88</v>
+      </c>
+      <c r="AG229">
+        <v>1.85</v>
+      </c>
+      <c r="AH229">
+        <v>1.75</v>
+      </c>
+      <c r="AI229">
+        <v>2.15</v>
+      </c>
+      <c r="AJ229">
+        <v>1.57</v>
+      </c>
+      <c r="AK229">
+        <v>1.13</v>
+      </c>
+      <c r="AL229">
+        <v>1.25</v>
+      </c>
+      <c r="AM229">
+        <v>2.05</v>
+      </c>
+      <c r="AN229">
+        <v>1.25</v>
+      </c>
+      <c r="AO229">
+        <v>1.19</v>
+      </c>
+      <c r="AP229">
+        <v>1.18</v>
+      </c>
+      <c r="AQ229">
+        <v>1.29</v>
+      </c>
+      <c r="AR229">
+        <v>1.32</v>
+      </c>
+      <c r="AS229">
+        <v>0.98</v>
+      </c>
+      <c r="AT229">
+        <v>2.3</v>
+      </c>
+      <c r="AU229">
+        <v>3</v>
+      </c>
+      <c r="AV229">
+        <v>3</v>
+      </c>
+      <c r="AW229">
+        <v>15</v>
+      </c>
+      <c r="AX229">
+        <v>10</v>
+      </c>
+      <c r="AY229">
+        <v>23</v>
+      </c>
+      <c r="AZ229">
+        <v>15</v>
+      </c>
+      <c r="BA229">
+        <v>8</v>
+      </c>
+      <c r="BB229">
+        <v>5</v>
+      </c>
+      <c r="BC229">
+        <v>13</v>
+      </c>
+      <c r="BD229">
+        <v>1.38</v>
+      </c>
+      <c r="BE229">
+        <v>6.75</v>
+      </c>
+      <c r="BF229">
+        <v>3.4</v>
+      </c>
+      <c r="BG229">
+        <v>1.46</v>
+      </c>
+      <c r="BH229">
+        <v>2.35</v>
+      </c>
+      <c r="BI229">
+        <v>1.78</v>
+      </c>
+      <c r="BJ229">
+        <v>1.81</v>
+      </c>
+      <c r="BK229">
+        <v>2.25</v>
+      </c>
+      <c r="BL229">
+        <v>1.49</v>
+      </c>
+      <c r="BM229">
+        <v>2.95</v>
+      </c>
+      <c r="BN229">
+        <v>1.29</v>
+      </c>
+      <c r="BO229">
+        <v>4</v>
+      </c>
+      <c r="BP229">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7856993</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45791.58333333334</v>
+      </c>
+      <c r="F230">
+        <v>8</v>
+      </c>
+      <c r="G230" t="s">
+        <v>83</v>
+      </c>
+      <c r="H230" t="s">
+        <v>78</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>1</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="O230" t="s">
+        <v>222</v>
+      </c>
+      <c r="P230" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q230">
+        <v>2.3</v>
+      </c>
+      <c r="R230">
+        <v>2.15</v>
+      </c>
+      <c r="S230">
+        <v>4.5</v>
+      </c>
+      <c r="T230">
+        <v>1.38</v>
+      </c>
+      <c r="U230">
+        <v>2.8</v>
+      </c>
+      <c r="V230">
+        <v>2.75</v>
+      </c>
+      <c r="W230">
+        <v>1.4</v>
+      </c>
+      <c r="X230">
+        <v>7.1</v>
+      </c>
+      <c r="Y230">
+        <v>1.04</v>
+      </c>
+      <c r="Z230">
+        <v>1.96</v>
+      </c>
+      <c r="AA230">
+        <v>3.4</v>
+      </c>
+      <c r="AB230">
+        <v>3.65</v>
+      </c>
+      <c r="AC230">
+        <v>1.05</v>
+      </c>
+      <c r="AD230">
+        <v>8.5</v>
+      </c>
+      <c r="AE230">
+        <v>1.27</v>
+      </c>
+      <c r="AF230">
+        <v>3.44</v>
+      </c>
+      <c r="AG230">
+        <v>1.85</v>
+      </c>
+      <c r="AH230">
+        <v>1.8</v>
+      </c>
+      <c r="AI230">
+        <v>1.77</v>
+      </c>
+      <c r="AJ230">
+        <v>1.85</v>
+      </c>
+      <c r="AK230">
+        <v>1.18</v>
+      </c>
+      <c r="AL230">
+        <v>1.22</v>
+      </c>
+      <c r="AM230">
+        <v>2</v>
+      </c>
+      <c r="AN230">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO230">
+        <v>0.75</v>
+      </c>
+      <c r="AP230">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ230">
+        <v>0.76</v>
+      </c>
+      <c r="AR230">
+        <v>1.49</v>
+      </c>
+      <c r="AS230">
+        <v>1.19</v>
+      </c>
+      <c r="AT230">
+        <v>2.68</v>
+      </c>
+      <c r="AU230">
+        <v>4</v>
+      </c>
+      <c r="AV230">
+        <v>6</v>
+      </c>
+      <c r="AW230">
+        <v>3</v>
+      </c>
+      <c r="AX230">
+        <v>9</v>
+      </c>
+      <c r="AY230">
+        <v>8</v>
+      </c>
+      <c r="AZ230">
+        <v>17</v>
+      </c>
+      <c r="BA230">
+        <v>3</v>
+      </c>
+      <c r="BB230">
+        <v>2</v>
+      </c>
+      <c r="BC230">
+        <v>5</v>
+      </c>
+      <c r="BD230">
+        <v>1.41</v>
+      </c>
+      <c r="BE230">
+        <v>9.1</v>
+      </c>
+      <c r="BF230">
+        <v>3.65</v>
+      </c>
+      <c r="BG230">
+        <v>1.36</v>
+      </c>
+      <c r="BH230">
+        <v>2.79</v>
+      </c>
+      <c r="BI230">
+        <v>1.67</v>
+      </c>
+      <c r="BJ230">
+        <v>2.08</v>
+      </c>
+      <c r="BK230">
+        <v>2.11</v>
+      </c>
+      <c r="BL230">
+        <v>1.62</v>
+      </c>
+      <c r="BM230">
+        <v>2.78</v>
+      </c>
+      <c r="BN230">
+        <v>1.34</v>
+      </c>
+      <c r="BO230">
+        <v>3.62</v>
+      </c>
+      <c r="BP230">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7856994</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45791.58333333334</v>
+      </c>
+      <c r="F231">
+        <v>8</v>
+      </c>
+      <c r="G231" t="s">
+        <v>70</v>
+      </c>
+      <c r="H231" t="s">
+        <v>81</v>
+      </c>
+      <c r="I231">
+        <v>3</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>3</v>
+      </c>
+      <c r="L231">
+        <v>3</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>3</v>
+      </c>
+      <c r="O231" t="s">
+        <v>223</v>
+      </c>
+      <c r="P231" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q231">
+        <v>1.73</v>
+      </c>
+      <c r="R231">
+        <v>2.45</v>
+      </c>
+      <c r="S231">
+        <v>7.5</v>
+      </c>
+      <c r="T231">
+        <v>1.33</v>
+      </c>
+      <c r="U231">
+        <v>3</v>
+      </c>
+      <c r="V231">
+        <v>2.55</v>
+      </c>
+      <c r="W231">
+        <v>1.45</v>
+      </c>
+      <c r="X231">
+        <v>6.4</v>
+      </c>
+      <c r="Y231">
+        <v>1.05</v>
+      </c>
+      <c r="Z231">
+        <v>1.29</v>
+      </c>
+      <c r="AA231">
+        <v>4.9</v>
+      </c>
+      <c r="AB231">
+        <v>9.6</v>
+      </c>
+      <c r="AC231">
+        <v>1.04</v>
+      </c>
+      <c r="AD231">
+        <v>9</v>
+      </c>
+      <c r="AE231">
+        <v>1.25</v>
+      </c>
+      <c r="AF231">
+        <v>3.7</v>
+      </c>
+      <c r="AG231">
+        <v>1.75</v>
+      </c>
+      <c r="AH231">
+        <v>1.85</v>
+      </c>
+      <c r="AI231">
+        <v>2.2</v>
+      </c>
+      <c r="AJ231">
+        <v>1.55</v>
+      </c>
+      <c r="AK231">
+        <v>1.04</v>
+      </c>
+      <c r="AL231">
+        <v>1.16</v>
+      </c>
+      <c r="AM231">
+        <v>3.44</v>
+      </c>
+      <c r="AN231">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO231">
+        <v>0.5</v>
+      </c>
+      <c r="AP231">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ231">
+        <v>0.47</v>
+      </c>
+      <c r="AR231">
+        <v>1.29</v>
+      </c>
+      <c r="AS231">
+        <v>0.97</v>
+      </c>
+      <c r="AT231">
+        <v>2.26</v>
+      </c>
+      <c r="AU231">
+        <v>9</v>
+      </c>
+      <c r="AV231">
+        <v>2</v>
+      </c>
+      <c r="AW231">
+        <v>9</v>
+      </c>
+      <c r="AX231">
+        <v>3</v>
+      </c>
+      <c r="AY231">
+        <v>20</v>
+      </c>
+      <c r="AZ231">
+        <v>7</v>
+      </c>
+      <c r="BA231">
+        <v>4</v>
+      </c>
+      <c r="BB231">
+        <v>0</v>
+      </c>
+      <c r="BC231">
+        <v>4</v>
+      </c>
+      <c r="BD231">
+        <v>1.14</v>
+      </c>
+      <c r="BE231">
+        <v>12</v>
+      </c>
+      <c r="BF231">
+        <v>7.4</v>
+      </c>
+      <c r="BG231">
+        <v>1.44</v>
+      </c>
+      <c r="BH231">
+        <v>2.5</v>
+      </c>
+      <c r="BI231">
+        <v>1.82</v>
+      </c>
+      <c r="BJ231">
+        <v>1.98</v>
+      </c>
+      <c r="BK231">
+        <v>2.34</v>
+      </c>
+      <c r="BL231">
+        <v>1.5</v>
+      </c>
+      <c r="BM231">
+        <v>3.14</v>
+      </c>
+      <c r="BN231">
+        <v>1.27</v>
+      </c>
+      <c r="BO231">
+        <v>4.15</v>
+      </c>
+      <c r="BP231">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="326">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -990,6 +990,9 @@
   <si>
     <t>['39', '45+2']</t>
   </si>
+  <si>
+    <t>['27', '72']</t>
+  </si>
 </sst>
 </file>
 
@@ -1350,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP231"/>
+  <dimension ref="A1:BP232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1687,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ2">
         <v>2.19</v>
@@ -2102,7 +2105,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ4">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -4368,7 +4371,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ15">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5395,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ20">
         <v>1.19</v>
@@ -6016,7 +6019,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ23">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR23">
         <v>0.92</v>
@@ -7455,7 +7458,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ30">
         <v>1.81</v>
@@ -8897,10 +8900,10 @@
         <v>0.67</v>
       </c>
       <c r="AP37">
+        <v>0.89</v>
+      </c>
+      <c r="AQ37">
         <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ37">
-        <v>0.82</v>
       </c>
       <c r="AR37">
         <v>1.17</v>
@@ -11781,7 +11784,7 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ51">
         <v>0.76</v>
@@ -12814,7 +12817,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ56">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR56">
         <v>1.14</v>
@@ -15283,7 +15286,7 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ68">
         <v>1.44</v>
@@ -16728,7 +16731,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ75">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR75">
         <v>1.19</v>
@@ -18991,7 +18994,7 @@
         <v>0.83</v>
       </c>
       <c r="AP86">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ86">
         <v>0.47</v>
@@ -20024,7 +20027,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ91">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR91">
         <v>1.68</v>
@@ -22287,7 +22290,7 @@
         <v>1.29</v>
       </c>
       <c r="AP102">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ102">
         <v>1.38</v>
@@ -23732,7 +23735,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ109">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR109">
         <v>1.74</v>
@@ -25377,7 +25380,7 @@
         <v>1.63</v>
       </c>
       <c r="AP117">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ117">
         <v>1.44</v>
@@ -27028,7 +27031,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ125">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR125">
         <v>1.95</v>
@@ -29085,7 +29088,7 @@
         <v>1.56</v>
       </c>
       <c r="AP135">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ135">
         <v>1.81</v>
@@ -29500,7 +29503,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ137">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR137">
         <v>1.4</v>
@@ -31969,7 +31972,7 @@
         <v>1.3</v>
       </c>
       <c r="AP149">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ149">
         <v>1.29</v>
@@ -33208,7 +33211,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ155">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR155">
         <v>1.19</v>
@@ -34650,7 +34653,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ162">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR162">
         <v>1.12</v>
@@ -35265,7 +35268,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ165">
         <v>1.41</v>
@@ -36295,7 +36298,7 @@
         <v>1.17</v>
       </c>
       <c r="AP170">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ170">
         <v>1.25</v>
@@ -36504,7 +36507,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ171">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR171">
         <v>1.27</v>
@@ -41036,7 +41039,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ193">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR193">
         <v>1.11</v>
@@ -41239,7 +41242,7 @@
         <v>1.23</v>
       </c>
       <c r="AP194">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ194">
         <v>1.29</v>
@@ -42272,7 +42275,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ199">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR199">
         <v>1.34</v>
@@ -42475,7 +42478,7 @@
         <v>1.29</v>
       </c>
       <c r="AP200">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ200">
         <v>1.41</v>
@@ -45156,7 +45159,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ213">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR213">
         <v>1.2</v>
@@ -45359,7 +45362,7 @@
         <v>0.86</v>
       </c>
       <c r="AP214">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ214">
         <v>0.76</v>
@@ -47216,7 +47219,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ223">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR223">
         <v>1.29</v>
@@ -48861,7 +48864,7 @@
         <v>0.5</v>
       </c>
       <c r="AP231">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ231">
         <v>0.47</v>
@@ -48940,6 +48943,212 @@
       </c>
       <c r="BP231">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7856996</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45795.58333333334</v>
+      </c>
+      <c r="F232">
+        <v>9</v>
+      </c>
+      <c r="G232" t="s">
+        <v>70</v>
+      </c>
+      <c r="H232" t="s">
+        <v>83</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>2</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232" t="s">
+        <v>84</v>
+      </c>
+      <c r="P232" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q232">
+        <v>2.7</v>
+      </c>
+      <c r="R232">
+        <v>2.05</v>
+      </c>
+      <c r="S232">
+        <v>3.8</v>
+      </c>
+      <c r="T232">
+        <v>1.42</v>
+      </c>
+      <c r="U232">
+        <v>2.65</v>
+      </c>
+      <c r="V232">
+        <v>2.95</v>
+      </c>
+      <c r="W232">
+        <v>1.35</v>
+      </c>
+      <c r="X232">
+        <v>8</v>
+      </c>
+      <c r="Y232">
+        <v>1.02</v>
+      </c>
+      <c r="Z232">
+        <v>2</v>
+      </c>
+      <c r="AA232">
+        <v>3.4</v>
+      </c>
+      <c r="AB232">
+        <v>3.55</v>
+      </c>
+      <c r="AC232">
+        <v>1.05</v>
+      </c>
+      <c r="AD232">
+        <v>8.5</v>
+      </c>
+      <c r="AE232">
+        <v>1.33</v>
+      </c>
+      <c r="AF232">
+        <v>3.1</v>
+      </c>
+      <c r="AG232">
+        <v>1.95</v>
+      </c>
+      <c r="AH232">
+        <v>1.7</v>
+      </c>
+      <c r="AI232">
+        <v>1.8</v>
+      </c>
+      <c r="AJ232">
+        <v>1.85</v>
+      </c>
+      <c r="AK232">
+        <v>1.3</v>
+      </c>
+      <c r="AL232">
+        <v>1.25</v>
+      </c>
+      <c r="AM232">
+        <v>1.7</v>
+      </c>
+      <c r="AN232">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO232">
+        <v>0.82</v>
+      </c>
+      <c r="AP232">
+        <v>0.89</v>
+      </c>
+      <c r="AQ232">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR232">
+        <v>1.34</v>
+      </c>
+      <c r="AS232">
+        <v>1.03</v>
+      </c>
+      <c r="AT232">
+        <v>2.37</v>
+      </c>
+      <c r="AU232">
+        <v>-1</v>
+      </c>
+      <c r="AV232">
+        <v>-1</v>
+      </c>
+      <c r="AW232">
+        <v>-1</v>
+      </c>
+      <c r="AX232">
+        <v>-1</v>
+      </c>
+      <c r="AY232">
+        <v>-1</v>
+      </c>
+      <c r="AZ232">
+        <v>-1</v>
+      </c>
+      <c r="BA232">
+        <v>-1</v>
+      </c>
+      <c r="BB232">
+        <v>-1</v>
+      </c>
+      <c r="BC232">
+        <v>-1</v>
+      </c>
+      <c r="BD232">
+        <v>1.91</v>
+      </c>
+      <c r="BE232">
+        <v>6.25</v>
+      </c>
+      <c r="BF232">
+        <v>2.08</v>
+      </c>
+      <c r="BG232">
+        <v>1.42</v>
+      </c>
+      <c r="BH232">
+        <v>2.45</v>
+      </c>
+      <c r="BI232">
+        <v>1.72</v>
+      </c>
+      <c r="BJ232">
+        <v>1.89</v>
+      </c>
+      <c r="BK232">
+        <v>2.18</v>
+      </c>
+      <c r="BL232">
+        <v>1.54</v>
+      </c>
+      <c r="BM232">
+        <v>2.85</v>
+      </c>
+      <c r="BN232">
+        <v>1.32</v>
+      </c>
+      <c r="BO232">
+        <v>3.85</v>
+      </c>
+      <c r="BP232">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="326">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1353,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP232"/>
+  <dimension ref="A1:BP233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3338,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>1.25</v>
@@ -4165,7 +4165,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ14">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>1.21</v>
@@ -6428,10 +6428,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR25">
         <v>0.98</v>
@@ -9109,7 +9109,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ38">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -10960,7 +10960,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47">
         <v>1.19</v>
@@ -12405,7 +12405,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ54">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>2.03</v>
@@ -13638,7 +13638,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>1.44</v>
@@ -15083,7 +15083,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ67">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.46</v>
@@ -16316,7 +16316,7 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73">
         <v>1.81</v>
@@ -18791,7 +18791,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ85">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR85">
         <v>1.32</v>
@@ -19612,7 +19612,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89">
         <v>1.38</v>
@@ -20848,7 +20848,7 @@
         <v>2.67</v>
       </c>
       <c r="AP95">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ95">
         <v>1.81</v>
@@ -21675,7 +21675,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ99">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
         <v>1.5</v>
@@ -23526,7 +23526,7 @@
         <v>1.71</v>
       </c>
       <c r="AP108">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108">
         <v>1.29</v>
@@ -24147,7 +24147,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ111">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR111">
         <v>1.89</v>
@@ -26410,7 +26410,7 @@
         <v>2.13</v>
       </c>
       <c r="AP122">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122">
         <v>1.44</v>
@@ -27443,7 +27443,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ127">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
         <v>1.2</v>
@@ -28882,7 +28882,7 @@
         <v>0.67</v>
       </c>
       <c r="AP134">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ134">
         <v>0.47</v>
@@ -30121,7 +30121,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ140">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR140">
         <v>1.7</v>
@@ -30736,7 +30736,7 @@
         <v>1.5</v>
       </c>
       <c r="AP143">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ143">
         <v>1.35</v>
@@ -33005,7 +33005,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ154">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR154">
         <v>1.07</v>
@@ -34238,7 +34238,7 @@
         <v>2.09</v>
       </c>
       <c r="AP160">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ160">
         <v>2.19</v>
@@ -35271,7 +35271,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ165">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR165">
         <v>1.27</v>
@@ -36504,7 +36504,7 @@
         <v>0.67</v>
       </c>
       <c r="AP171">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ171">
         <v>0.9399999999999999</v>
@@ -37743,7 +37743,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ177">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR177">
         <v>1.15</v>
@@ -39803,7 +39803,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ187">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR187">
         <v>1.23</v>
@@ -40006,7 +40006,7 @@
         <v>0.46</v>
       </c>
       <c r="AP188">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ188">
         <v>0.47</v>
@@ -42272,7 +42272,7 @@
         <v>0.79</v>
       </c>
       <c r="AP199">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ199">
         <v>0.9399999999999999</v>
@@ -42481,7 +42481,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ200">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR200">
         <v>1.26</v>
@@ -43508,7 +43508,7 @@
         <v>1.21</v>
       </c>
       <c r="AP205">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ205">
         <v>1.29</v>
@@ -43923,7 +43923,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ207">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR207">
         <v>1.46</v>
@@ -46392,7 +46392,7 @@
         <v>1.33</v>
       </c>
       <c r="AP219">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ219">
         <v>1.35</v>
@@ -46807,7 +46807,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ221">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR221">
         <v>1.04</v>
@@ -48950,7 +48950,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>7856996</v>
+        <v>7856997</v>
       </c>
       <c r="C232" t="s">
         <v>68</v>
@@ -48959,16 +48959,16 @@
         <v>69</v>
       </c>
       <c r="E232" s="2">
-        <v>45795.58333333334</v>
+        <v>45795.375</v>
       </c>
       <c r="F232">
         <v>9</v>
       </c>
       <c r="G232" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H232" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -48983,31 +48983,31 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O232" t="s">
         <v>84</v>
       </c>
       <c r="P232" t="s">
-        <v>325</v>
+        <v>114</v>
       </c>
       <c r="Q232">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="R232">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S232">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T232">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="U232">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="V232">
         <v>2.95</v>
@@ -49016,19 +49016,19 @@
         <v>1.35</v>
       </c>
       <c r="X232">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="Y232">
         <v>1.02</v>
       </c>
       <c r="Z232">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="AA232">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB232">
-        <v>3.55</v>
+        <v>2.55</v>
       </c>
       <c r="AC232">
         <v>1.05</v>
@@ -49037,19 +49037,19 @@
         <v>8.5</v>
       </c>
       <c r="AE232">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF232">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AG232">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AH232">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AI232">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AJ232">
         <v>1.85</v>
@@ -49064,25 +49064,25 @@
         <v>1.7</v>
       </c>
       <c r="AN232">
-        <v>0.9399999999999999</v>
+        <v>1.41</v>
       </c>
       <c r="AO232">
-        <v>0.82</v>
+        <v>1.41</v>
       </c>
       <c r="AP232">
-        <v>0.89</v>
+        <v>1.33</v>
       </c>
       <c r="AQ232">
-        <v>0.9399999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="AR232">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="AS232">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="AT232">
-        <v>2.37</v>
+        <v>2.7</v>
       </c>
       <c r="AU232">
         <v>-1</v>
@@ -49112,42 +49112,248 @@
         <v>-1</v>
       </c>
       <c r="BD232">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="BE232">
-        <v>6.25</v>
+        <v>6.15</v>
       </c>
       <c r="BF232">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="BG232">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="BH232">
         <v>2.45</v>
       </c>
       <c r="BI232">
+        <v>1.9</v>
+      </c>
+      <c r="BJ232">
+        <v>1.9</v>
+      </c>
+      <c r="BK232">
+        <v>2.41</v>
+      </c>
+      <c r="BL232">
+        <v>1.53</v>
+      </c>
+      <c r="BM232">
+        <v>3.28</v>
+      </c>
+      <c r="BN232">
+        <v>1.25</v>
+      </c>
+      <c r="BO232">
+        <v>4.25</v>
+      </c>
+      <c r="BP232">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>7856996</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45795.58333333334</v>
+      </c>
+      <c r="F233">
+        <v>9</v>
+      </c>
+      <c r="G233" t="s">
+        <v>70</v>
+      </c>
+      <c r="H233" t="s">
+        <v>83</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>2</v>
+      </c>
+      <c r="N233">
+        <v>2</v>
+      </c>
+      <c r="O233" t="s">
+        <v>84</v>
+      </c>
+      <c r="P233" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q233">
+        <v>2.7</v>
+      </c>
+      <c r="R233">
+        <v>2.05</v>
+      </c>
+      <c r="S233">
+        <v>3.8</v>
+      </c>
+      <c r="T233">
+        <v>1.42</v>
+      </c>
+      <c r="U233">
+        <v>2.65</v>
+      </c>
+      <c r="V233">
+        <v>2.95</v>
+      </c>
+      <c r="W233">
+        <v>1.35</v>
+      </c>
+      <c r="X233">
+        <v>8</v>
+      </c>
+      <c r="Y233">
+        <v>1.02</v>
+      </c>
+      <c r="Z233">
+        <v>2</v>
+      </c>
+      <c r="AA233">
+        <v>3.4</v>
+      </c>
+      <c r="AB233">
+        <v>3.55</v>
+      </c>
+      <c r="AC233">
+        <v>1.05</v>
+      </c>
+      <c r="AD233">
+        <v>8.5</v>
+      </c>
+      <c r="AE233">
+        <v>1.33</v>
+      </c>
+      <c r="AF233">
+        <v>3.1</v>
+      </c>
+      <c r="AG233">
+        <v>1.95</v>
+      </c>
+      <c r="AH233">
+        <v>1.7</v>
+      </c>
+      <c r="AI233">
+        <v>1.8</v>
+      </c>
+      <c r="AJ233">
+        <v>1.85</v>
+      </c>
+      <c r="AK233">
+        <v>1.3</v>
+      </c>
+      <c r="AL233">
+        <v>1.25</v>
+      </c>
+      <c r="AM233">
+        <v>1.7</v>
+      </c>
+      <c r="AN233">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO233">
+        <v>0.82</v>
+      </c>
+      <c r="AP233">
+        <v>0.89</v>
+      </c>
+      <c r="AQ233">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR233">
+        <v>1.34</v>
+      </c>
+      <c r="AS233">
+        <v>1.03</v>
+      </c>
+      <c r="AT233">
+        <v>2.37</v>
+      </c>
+      <c r="AU233">
+        <v>-1</v>
+      </c>
+      <c r="AV233">
+        <v>-1</v>
+      </c>
+      <c r="AW233">
+        <v>-1</v>
+      </c>
+      <c r="AX233">
+        <v>-1</v>
+      </c>
+      <c r="AY233">
+        <v>-1</v>
+      </c>
+      <c r="AZ233">
+        <v>-1</v>
+      </c>
+      <c r="BA233">
+        <v>-1</v>
+      </c>
+      <c r="BB233">
+        <v>-1</v>
+      </c>
+      <c r="BC233">
+        <v>-1</v>
+      </c>
+      <c r="BD233">
+        <v>1.91</v>
+      </c>
+      <c r="BE233">
+        <v>6.25</v>
+      </c>
+      <c r="BF233">
+        <v>2.08</v>
+      </c>
+      <c r="BG233">
+        <v>1.42</v>
+      </c>
+      <c r="BH233">
+        <v>2.45</v>
+      </c>
+      <c r="BI233">
         <v>1.72</v>
       </c>
-      <c r="BJ232">
+      <c r="BJ233">
         <v>1.89</v>
       </c>
-      <c r="BK232">
+      <c r="BK233">
         <v>2.18</v>
       </c>
-      <c r="BL232">
+      <c r="BL233">
         <v>1.54</v>
       </c>
-      <c r="BM232">
+      <c r="BM233">
         <v>2.85</v>
       </c>
-      <c r="BN232">
+      <c r="BN233">
         <v>1.32</v>
       </c>
-      <c r="BO232">
+      <c r="BO233">
         <v>3.85</v>
       </c>
-      <c r="BP232">
+      <c r="BP233">
         <v>1.18</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="327">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -991,6 +991,9 @@
     <t>['39', '45+2']</t>
   </si>
   <si>
+    <t>['16', '68', '76']</t>
+  </si>
+  <si>
     <t>['27', '72']</t>
   </si>
 </sst>
@@ -1353,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP233"/>
+  <dimension ref="A1:BP234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3959,7 +3962,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ13">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR13">
         <v>1.83</v>
@@ -4574,7 +4577,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ16">
         <v>2.19</v>
@@ -6016,7 +6019,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ23">
         <v>0.9399999999999999</v>
@@ -6637,7 +6640,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ26">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR26">
         <v>1.48</v>
@@ -9315,7 +9318,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ39">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR39">
         <v>1.2</v>
@@ -10136,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ43">
         <v>0.76</v>
@@ -11993,7 +11996,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -12196,7 +12199,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ53">
         <v>1.38</v>
@@ -14877,7 +14880,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ66">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR66">
         <v>1.31</v>
@@ -15698,7 +15701,7 @@
         <v>2.5</v>
       </c>
       <c r="AP70">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ70">
         <v>1.81</v>
@@ -17758,7 +17761,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ80">
         <v>1.19</v>
@@ -19203,7 +19206,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ87">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR87">
         <v>1.2</v>
@@ -21466,10 +21469,10 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ98">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR98">
         <v>1.1</v>
@@ -21878,7 +21881,7 @@
         <v>1.43</v>
       </c>
       <c r="AP100">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ100">
         <v>1.44</v>
@@ -23529,7 +23532,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ108">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR108">
         <v>1.22</v>
@@ -26616,7 +26619,7 @@
         <v>1.38</v>
       </c>
       <c r="AP123">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ123">
         <v>1.81</v>
@@ -27237,7 +27240,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ126">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR126">
         <v>1.41</v>
@@ -29709,7 +29712,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ138">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR138">
         <v>2.02</v>
@@ -29912,7 +29915,7 @@
         <v>0.89</v>
       </c>
       <c r="AP139">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ139">
         <v>1.25</v>
@@ -31975,7 +31978,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ149">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR149">
         <v>1.24</v>
@@ -33002,7 +33005,7 @@
         <v>0.8</v>
       </c>
       <c r="AP154">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ154">
         <v>1.5</v>
@@ -35477,7 +35480,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ166">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR166">
         <v>1.46</v>
@@ -35680,7 +35683,7 @@
         <v>1.73</v>
       </c>
       <c r="AP167">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ167">
         <v>1.44</v>
@@ -36713,7 +36716,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ172">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR172">
         <v>1.91</v>
@@ -37946,7 +37949,7 @@
         <v>1.33</v>
       </c>
       <c r="AP178">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ178">
         <v>1.35</v>
@@ -41036,7 +41039,7 @@
         <v>0.62</v>
       </c>
       <c r="AP193">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ193">
         <v>0.9399999999999999</v>
@@ -41245,7 +41248,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ194">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR194">
         <v>1.24</v>
@@ -43511,7 +43514,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ205">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR205">
         <v>1.4</v>
@@ -43714,7 +43717,7 @@
         <v>1.21</v>
       </c>
       <c r="AP206">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ206">
         <v>1.35</v>
@@ -46601,7 +46604,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ220">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR220">
         <v>1.46</v>
@@ -46804,7 +46807,7 @@
         <v>1.31</v>
       </c>
       <c r="AP221">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ221">
         <v>1.5</v>
@@ -47010,7 +47013,7 @@
         <v>0.8</v>
       </c>
       <c r="AP222">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ222">
         <v>0.76</v>
@@ -48455,7 +48458,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ229">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR229">
         <v>1.32</v>
@@ -49085,31 +49088,31 @@
         <v>2.7</v>
       </c>
       <c r="AU232">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV232">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW232">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX232">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AY232">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ232">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="BA232">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB232">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC232">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD232">
         <v>1.96</v>
@@ -49156,7 +49159,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>7856996</v>
+        <v>7856998</v>
       </c>
       <c r="C233" t="s">
         <v>68</v>
@@ -49165,195 +49168,401 @@
         <v>69</v>
       </c>
       <c r="E233" s="2">
-        <v>45795.58333333334</v>
+        <v>45795.5</v>
       </c>
       <c r="F233">
         <v>9</v>
       </c>
       <c r="G233" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H233" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233">
         <v>1</v>
       </c>
       <c r="K233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N233">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O233" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="P233" t="s">
         <v>325</v>
       </c>
       <c r="Q233">
+        <v>3.85</v>
+      </c>
+      <c r="R233">
+        <v>1.93</v>
+      </c>
+      <c r="S233">
+        <v>2.9</v>
+      </c>
+      <c r="T233">
+        <v>1.53</v>
+      </c>
+      <c r="U233">
+        <v>2.38</v>
+      </c>
+      <c r="V233">
+        <v>3.5</v>
+      </c>
+      <c r="W233">
+        <v>1.25</v>
+      </c>
+      <c r="X233">
+        <v>9.6</v>
+      </c>
+      <c r="Y233">
+        <v>1.04</v>
+      </c>
+      <c r="Z233">
+        <v>3.2</v>
+      </c>
+      <c r="AA233">
+        <v>3.15</v>
+      </c>
+      <c r="AB233">
+        <v>2.23</v>
+      </c>
+      <c r="AC233">
+        <v>1.09</v>
+      </c>
+      <c r="AD233">
+        <v>6.5</v>
+      </c>
+      <c r="AE233">
+        <v>1.48</v>
+      </c>
+      <c r="AF233">
+        <v>2.55</v>
+      </c>
+      <c r="AG233">
+        <v>2.2</v>
+      </c>
+      <c r="AH233">
+        <v>1.55</v>
+      </c>
+      <c r="AI233">
+        <v>2</v>
+      </c>
+      <c r="AJ233">
+        <v>1.67</v>
+      </c>
+      <c r="AK233">
+        <v>1.62</v>
+      </c>
+      <c r="AL233">
+        <v>1.3</v>
+      </c>
+      <c r="AM233">
+        <v>1.33</v>
+      </c>
+      <c r="AN233">
+        <v>0.71</v>
+      </c>
+      <c r="AO233">
+        <v>1.29</v>
+      </c>
+      <c r="AP233">
+        <v>0.67</v>
+      </c>
+      <c r="AQ233">
+        <v>1.39</v>
+      </c>
+      <c r="AR233">
+        <v>1.06</v>
+      </c>
+      <c r="AS233">
+        <v>1</v>
+      </c>
+      <c r="AT233">
+        <v>2.06</v>
+      </c>
+      <c r="AU233">
+        <v>3</v>
+      </c>
+      <c r="AV233">
+        <v>5</v>
+      </c>
+      <c r="AW233">
+        <v>7</v>
+      </c>
+      <c r="AX233">
+        <v>5</v>
+      </c>
+      <c r="AY233">
+        <v>14</v>
+      </c>
+      <c r="AZ233">
+        <v>12</v>
+      </c>
+      <c r="BA233">
+        <v>2</v>
+      </c>
+      <c r="BB233">
+        <v>4</v>
+      </c>
+      <c r="BC233">
+        <v>6</v>
+      </c>
+      <c r="BD233">
+        <v>2.31</v>
+      </c>
+      <c r="BE233">
+        <v>6.15</v>
+      </c>
+      <c r="BF233">
+        <v>2.01</v>
+      </c>
+      <c r="BG233">
+        <v>1.5</v>
+      </c>
+      <c r="BH233">
+        <v>2.52</v>
+      </c>
+      <c r="BI233">
+        <v>1.85</v>
+      </c>
+      <c r="BJ233">
+        <v>1.95</v>
+      </c>
+      <c r="BK233">
+        <v>2.34</v>
+      </c>
+      <c r="BL233">
+        <v>1.57</v>
+      </c>
+      <c r="BM233">
+        <v>3.14</v>
+      </c>
+      <c r="BN233">
+        <v>1.27</v>
+      </c>
+      <c r="BO233">
+        <v>4.3</v>
+      </c>
+      <c r="BP233">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>7856996</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45795.58333333334</v>
+      </c>
+      <c r="F234">
+        <v>9</v>
+      </c>
+      <c r="G234" t="s">
+        <v>70</v>
+      </c>
+      <c r="H234" t="s">
+        <v>83</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>2</v>
+      </c>
+      <c r="N234">
+        <v>2</v>
+      </c>
+      <c r="O234" t="s">
+        <v>84</v>
+      </c>
+      <c r="P234" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q234">
         <v>2.7</v>
       </c>
-      <c r="R233">
+      <c r="R234">
         <v>2.05</v>
       </c>
-      <c r="S233">
+      <c r="S234">
         <v>3.8</v>
       </c>
-      <c r="T233">
+      <c r="T234">
         <v>1.42</v>
       </c>
-      <c r="U233">
+      <c r="U234">
         <v>2.65</v>
       </c>
-      <c r="V233">
+      <c r="V234">
         <v>2.95</v>
       </c>
-      <c r="W233">
+      <c r="W234">
         <v>1.35</v>
       </c>
-      <c r="X233">
+      <c r="X234">
         <v>8</v>
       </c>
-      <c r="Y233">
+      <c r="Y234">
         <v>1.02</v>
       </c>
-      <c r="Z233">
-        <v>2</v>
-      </c>
-      <c r="AA233">
+      <c r="Z234">
+        <v>2</v>
+      </c>
+      <c r="AA234">
         <v>3.4</v>
       </c>
-      <c r="AB233">
+      <c r="AB234">
         <v>3.55</v>
       </c>
-      <c r="AC233">
+      <c r="AC234">
         <v>1.05</v>
       </c>
-      <c r="AD233">
+      <c r="AD234">
         <v>8.5</v>
       </c>
-      <c r="AE233">
+      <c r="AE234">
         <v>1.33</v>
       </c>
-      <c r="AF233">
+      <c r="AF234">
         <v>3.1</v>
       </c>
-      <c r="AG233">
+      <c r="AG234">
         <v>1.95</v>
       </c>
-      <c r="AH233">
+      <c r="AH234">
         <v>1.7</v>
       </c>
-      <c r="AI233">
+      <c r="AI234">
         <v>1.8</v>
       </c>
-      <c r="AJ233">
+      <c r="AJ234">
         <v>1.85</v>
       </c>
-      <c r="AK233">
+      <c r="AK234">
         <v>1.3</v>
       </c>
-      <c r="AL233">
+      <c r="AL234">
         <v>1.25</v>
       </c>
-      <c r="AM233">
+      <c r="AM234">
         <v>1.7</v>
       </c>
-      <c r="AN233">
+      <c r="AN234">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AO233">
+      <c r="AO234">
         <v>0.82</v>
       </c>
-      <c r="AP233">
+      <c r="AP234">
         <v>0.89</v>
       </c>
-      <c r="AQ233">
+      <c r="AQ234">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AR233">
+      <c r="AR234">
         <v>1.34</v>
       </c>
-      <c r="AS233">
+      <c r="AS234">
         <v>1.03</v>
       </c>
-      <c r="AT233">
+      <c r="AT234">
         <v>2.37</v>
       </c>
-      <c r="AU233">
-        <v>-1</v>
-      </c>
-      <c r="AV233">
-        <v>-1</v>
-      </c>
-      <c r="AW233">
-        <v>-1</v>
-      </c>
-      <c r="AX233">
-        <v>-1</v>
-      </c>
-      <c r="AY233">
-        <v>-1</v>
-      </c>
-      <c r="AZ233">
-        <v>-1</v>
-      </c>
-      <c r="BA233">
-        <v>-1</v>
-      </c>
-      <c r="BB233">
-        <v>-1</v>
-      </c>
-      <c r="BC233">
-        <v>-1</v>
-      </c>
-      <c r="BD233">
+      <c r="AU234">
+        <v>3</v>
+      </c>
+      <c r="AV234">
+        <v>6</v>
+      </c>
+      <c r="AW234">
+        <v>13</v>
+      </c>
+      <c r="AX234">
+        <v>4</v>
+      </c>
+      <c r="AY234">
+        <v>18</v>
+      </c>
+      <c r="AZ234">
+        <v>12</v>
+      </c>
+      <c r="BA234">
+        <v>6</v>
+      </c>
+      <c r="BB234">
+        <v>3</v>
+      </c>
+      <c r="BC234">
+        <v>9</v>
+      </c>
+      <c r="BD234">
         <v>1.91</v>
       </c>
-      <c r="BE233">
+      <c r="BE234">
         <v>6.25</v>
       </c>
-      <c r="BF233">
+      <c r="BF234">
         <v>2.08</v>
       </c>
-      <c r="BG233">
+      <c r="BG234">
         <v>1.42</v>
       </c>
-      <c r="BH233">
+      <c r="BH234">
         <v>2.45</v>
       </c>
-      <c r="BI233">
+      <c r="BI234">
         <v>1.72</v>
       </c>
-      <c r="BJ233">
+      <c r="BJ234">
         <v>1.89</v>
       </c>
-      <c r="BK233">
+      <c r="BK234">
         <v>2.18</v>
       </c>
-      <c r="BL233">
+      <c r="BL234">
         <v>1.54</v>
       </c>
-      <c r="BM233">
+      <c r="BM234">
         <v>2.85</v>
       </c>
-      <c r="BN233">
+      <c r="BN234">
         <v>1.32</v>
       </c>
-      <c r="BO233">
+      <c r="BO234">
         <v>3.85</v>
       </c>
-      <c r="BP233">
+      <c r="BP234">
         <v>1.18</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -688,6 +688,9 @@
     <t>['2', '38', '40']</t>
   </si>
   <si>
+    <t>['27', '47', '54']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -995,6 +998,9 @@
   </si>
   <si>
     <t>['27', '72']</t>
+  </si>
+  <si>
+    <t>['20', '62']</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP234"/>
+  <dimension ref="A1:BP236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1615,7 +1621,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1821,7 +1827,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1902,7 +1908,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ3">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2105,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ4">
         <v>0.9399999999999999</v>
@@ -2439,7 +2445,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2851,7 +2857,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2929,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ8">
         <v>0.47</v>
@@ -3263,7 +3269,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3469,7 +3475,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3756,7 +3762,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4499,7 +4505,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4705,7 +4711,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4989,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ18">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -5117,7 +5123,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5195,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ19">
         <v>1.44</v>
@@ -5323,7 +5329,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5529,7 +5535,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5735,7 +5741,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -6147,7 +6153,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6353,7 +6359,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6765,7 +6771,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7258,7 +7264,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ29">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -7383,7 +7389,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7795,7 +7801,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7873,7 +7879,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ32">
         <v>1.38</v>
@@ -8079,7 +8085,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ33">
         <v>1.19</v>
@@ -8207,7 +8213,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8288,7 +8294,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ34">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR34">
         <v>1.44</v>
@@ -8413,7 +8419,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -9031,7 +9037,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -9237,7 +9243,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -10061,7 +10067,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10142,7 +10148,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ43">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR43">
         <v>1.06</v>
@@ -10267,7 +10273,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10348,7 +10354,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ44">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR44">
         <v>1.35</v>
@@ -10551,7 +10557,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ45">
         <v>1.44</v>
@@ -10885,7 +10891,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11091,7 +11097,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -11297,7 +11303,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11375,7 +11381,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ49">
         <v>1.81</v>
@@ -11790,7 +11796,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ51">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -11915,7 +11921,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -12327,7 +12333,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12945,7 +12951,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13151,7 +13157,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13229,10 +13235,10 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ58">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR58">
         <v>1.3</v>
@@ -13357,7 +13363,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13435,7 +13441,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ59">
         <v>0.47</v>
@@ -13975,7 +13981,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14181,7 +14187,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -14387,7 +14393,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14674,7 +14680,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ65">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR65">
         <v>1.98</v>
@@ -15005,7 +15011,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -15417,7 +15423,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15623,7 +15629,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -16113,7 +16119,7 @@
         <v>1.6</v>
       </c>
       <c r="AP72">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ72">
         <v>1.25</v>
@@ -16241,7 +16247,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16653,7 +16659,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16859,7 +16865,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16937,10 +16943,10 @@
         <v>2.25</v>
       </c>
       <c r="AP76">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ76">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR76">
         <v>1.06</v>
@@ -17271,7 +17277,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17477,7 +17483,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17558,7 +17564,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ79">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17683,7 +17689,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17970,7 +17976,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ81">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR81">
         <v>1.51</v>
@@ -18095,7 +18101,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -18173,7 +18179,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ82">
         <v>1.44</v>
@@ -18301,7 +18307,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -19125,7 +19131,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19203,7 +19209,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ87">
         <v>1.39</v>
@@ -19743,7 +19749,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19949,7 +19955,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -20155,7 +20161,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -20442,7 +20448,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ93">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR93">
         <v>1.95</v>
@@ -20567,7 +20573,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20773,7 +20779,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20979,7 +20985,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -21391,7 +21397,7 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21597,7 +21603,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -22502,7 +22508,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ103">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR103">
         <v>1.47</v>
@@ -22705,7 +22711,7 @@
         <v>2</v>
       </c>
       <c r="AP104">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ104">
         <v>1.44</v>
@@ -22911,7 +22917,7 @@
         <v>2.71</v>
       </c>
       <c r="AP105">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ105">
         <v>1.81</v>
@@ -24069,7 +24075,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q111">
         <v>1.57</v>
@@ -24275,7 +24281,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24562,7 +24568,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ113">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR113">
         <v>1.13</v>
@@ -24971,10 +24977,10 @@
         <v>1.13</v>
       </c>
       <c r="AP115">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ115">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR115">
         <v>1.12</v>
@@ -25099,7 +25105,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25305,7 +25311,7 @@
         <v>159</v>
       </c>
       <c r="P117" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q117">
         <v>8.5</v>
@@ -25511,7 +25517,7 @@
         <v>84</v>
       </c>
       <c r="P118" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25717,7 +25723,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25923,7 +25929,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -26001,7 +26007,7 @@
         <v>1.75</v>
       </c>
       <c r="AP120">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ120">
         <v>2.19</v>
@@ -26335,7 +26341,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26541,7 +26547,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q123">
         <v>4.33</v>
@@ -26747,7 +26753,7 @@
         <v>163</v>
       </c>
       <c r="P124" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q124">
         <v>1.62</v>
@@ -26828,7 +26834,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ124">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR124">
         <v>1.66</v>
@@ -27652,7 +27658,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ128">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR128">
         <v>1.37</v>
@@ -27777,7 +27783,7 @@
         <v>108</v>
       </c>
       <c r="P129" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -27983,7 +27989,7 @@
         <v>104</v>
       </c>
       <c r="P130" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28061,7 +28067,7 @@
         <v>1.33</v>
       </c>
       <c r="AP130">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ130">
         <v>1.38</v>
@@ -28267,7 +28273,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ131">
         <v>1.19</v>
@@ -29013,7 +29019,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q135">
         <v>3.75</v>
@@ -29219,7 +29225,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29300,7 +29306,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ136">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR136">
         <v>1.31</v>
@@ -29837,7 +29843,7 @@
         <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -30455,7 +30461,7 @@
         <v>172</v>
       </c>
       <c r="P142" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30661,7 +30667,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q143">
         <v>3.25</v>
@@ -30742,7 +30748,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ143">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR143">
         <v>1.33</v>
@@ -30945,7 +30951,7 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ144">
         <v>2.19</v>
@@ -31279,7 +31285,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31563,7 +31569,7 @@
         <v>1.7</v>
       </c>
       <c r="AP147">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ147">
         <v>1.81</v>
@@ -32103,7 +32109,7 @@
         <v>84</v>
       </c>
       <c r="P150" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q150">
         <v>5.5</v>
@@ -32309,7 +32315,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q151">
         <v>1.8</v>
@@ -32802,7 +32808,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ153">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR153">
         <v>2.03</v>
@@ -32927,7 +32933,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33133,7 +33139,7 @@
         <v>147</v>
       </c>
       <c r="P155" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33751,7 +33757,7 @@
         <v>178</v>
       </c>
       <c r="P158" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q158">
         <v>4.33</v>
@@ -33829,7 +33835,7 @@
         <v>1.27</v>
       </c>
       <c r="AP158">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ158">
         <v>1.25</v>
@@ -33957,7 +33963,7 @@
         <v>179</v>
       </c>
       <c r="P159" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q159">
         <v>1.73</v>
@@ -34038,7 +34044,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ159">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR159">
         <v>1.89</v>
@@ -34163,7 +34169,7 @@
         <v>84</v>
       </c>
       <c r="P160" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q160">
         <v>13</v>
@@ -34653,7 +34659,7 @@
         <v>0.73</v>
       </c>
       <c r="AP162">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ162">
         <v>0.9399999999999999</v>
@@ -34781,7 +34787,7 @@
         <v>182</v>
       </c>
       <c r="P163" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -35068,7 +35074,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ164">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR164">
         <v>1.26</v>
@@ -35193,7 +35199,7 @@
         <v>184</v>
       </c>
       <c r="P165" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35399,7 +35405,7 @@
         <v>185</v>
       </c>
       <c r="P166" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q166">
         <v>2.2</v>
@@ -35605,7 +35611,7 @@
         <v>186</v>
       </c>
       <c r="P167" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -35811,7 +35817,7 @@
         <v>84</v>
       </c>
       <c r="P168" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -36017,7 +36023,7 @@
         <v>187</v>
       </c>
       <c r="P169" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36223,7 +36229,7 @@
         <v>188</v>
       </c>
       <c r="P170" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q170">
         <v>4</v>
@@ -36429,7 +36435,7 @@
         <v>189</v>
       </c>
       <c r="P171" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36841,7 +36847,7 @@
         <v>122</v>
       </c>
       <c r="P173" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q173">
         <v>3.6</v>
@@ -36919,7 +36925,7 @@
         <v>1.67</v>
       </c>
       <c r="AP173">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ173">
         <v>1.81</v>
@@ -37459,7 +37465,7 @@
         <v>84</v>
       </c>
       <c r="P176" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -37743,7 +37749,7 @@
         <v>1.17</v>
       </c>
       <c r="AP177">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ177">
         <v>1.5</v>
@@ -37952,7 +37958,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ178">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR178">
         <v>1.11</v>
@@ -38283,7 +38289,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q180">
         <v>6.5</v>
@@ -38695,7 +38701,7 @@
         <v>196</v>
       </c>
       <c r="P182" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -38901,7 +38907,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -38982,7 +38988,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ183">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR183">
         <v>1.35</v>
@@ -39107,7 +39113,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39394,7 +39400,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ185">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR185">
         <v>1.5</v>
@@ -39519,7 +39525,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q186">
         <v>3.6</v>
@@ -39725,7 +39731,7 @@
         <v>200</v>
       </c>
       <c r="P187" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q187">
         <v>3.5</v>
@@ -39803,7 +39809,7 @@
         <v>1.15</v>
       </c>
       <c r="AP187">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ187">
         <v>1.5</v>
@@ -39931,7 +39937,7 @@
         <v>113</v>
       </c>
       <c r="P188" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q188">
         <v>2.63</v>
@@ -40137,7 +40143,7 @@
         <v>201</v>
       </c>
       <c r="P189" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40343,7 +40349,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q190">
         <v>2.38</v>
@@ -40627,10 +40633,10 @@
         <v>0.92</v>
       </c>
       <c r="AP191">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ191">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR191">
         <v>1.2</v>
@@ -40961,7 +40967,7 @@
         <v>84</v>
       </c>
       <c r="P193" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q193">
         <v>4.75</v>
@@ -41579,7 +41585,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q196">
         <v>3.5</v>
@@ -42069,7 +42075,7 @@
         <v>0.5</v>
       </c>
       <c r="AP198">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ198">
         <v>0.47</v>
@@ -42815,7 +42821,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -43639,7 +43645,7 @@
         <v>200</v>
       </c>
       <c r="P206" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q206">
         <v>7.5</v>
@@ -43720,7 +43726,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ206">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR206">
         <v>1.08</v>
@@ -43845,7 +43851,7 @@
         <v>84</v>
       </c>
       <c r="P207" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44051,7 +44057,7 @@
         <v>84</v>
       </c>
       <c r="P208" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q208">
         <v>3.25</v>
@@ -44257,7 +44263,7 @@
         <v>134</v>
       </c>
       <c r="P209" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q209">
         <v>3.6</v>
@@ -44463,7 +44469,7 @@
         <v>84</v>
       </c>
       <c r="P210" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44669,7 +44675,7 @@
         <v>211</v>
       </c>
       <c r="P211" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q211">
         <v>2.6</v>
@@ -44953,7 +44959,7 @@
         <v>0.47</v>
       </c>
       <c r="AP212">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ212">
         <v>0.47</v>
@@ -45159,7 +45165,7 @@
         <v>0.73</v>
       </c>
       <c r="AP213">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ213">
         <v>0.9399999999999999</v>
@@ -45368,7 +45374,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ214">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR214">
         <v>1.26</v>
@@ -45493,7 +45499,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45699,7 +45705,7 @@
         <v>214</v>
       </c>
       <c r="P216" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -45905,7 +45911,7 @@
         <v>194</v>
       </c>
       <c r="P217" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q217">
         <v>2.75</v>
@@ -46111,7 +46117,7 @@
         <v>215</v>
       </c>
       <c r="P218" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46398,7 +46404,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ219">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR219">
         <v>1.46</v>
@@ -46729,7 +46735,7 @@
         <v>217</v>
       </c>
       <c r="P221" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -47016,7 +47022,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ222">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR222">
         <v>1.03</v>
@@ -47141,7 +47147,7 @@
         <v>219</v>
       </c>
       <c r="P223" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q223">
         <v>2.85</v>
@@ -47219,7 +47225,7 @@
         <v>0.88</v>
       </c>
       <c r="AP223">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ223">
         <v>0.9399999999999999</v>
@@ -47347,7 +47353,7 @@
         <v>220</v>
       </c>
       <c r="P224" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q224">
         <v>2.3</v>
@@ -47759,7 +47765,7 @@
         <v>84</v>
       </c>
       <c r="P226" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q226">
         <v>4.8</v>
@@ -47837,10 +47843,10 @@
         <v>1.25</v>
       </c>
       <c r="AP226">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ226">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR226">
         <v>1.21</v>
@@ -48377,7 +48383,7 @@
         <v>173</v>
       </c>
       <c r="P229" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q229">
         <v>2.38</v>
@@ -48455,7 +48461,7 @@
         <v>1.19</v>
       </c>
       <c r="AP229">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ229">
         <v>1.39</v>
@@ -48664,7 +48670,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ230">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR230">
         <v>1.49</v>
@@ -49201,7 +49207,7 @@
         <v>104</v>
       </c>
       <c r="P233" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q233">
         <v>3.85</v>
@@ -49407,7 +49413,7 @@
         <v>84</v>
       </c>
       <c r="P234" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q234">
         <v>2.7</v>
@@ -49564,6 +49570,418 @@
       </c>
       <c r="BP234">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7857000</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45799.5</v>
+      </c>
+      <c r="F235">
+        <v>10</v>
+      </c>
+      <c r="G235" t="s">
+        <v>72</v>
+      </c>
+      <c r="H235" t="s">
+        <v>70</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>2</v>
+      </c>
+      <c r="L235">
+        <v>3</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+      <c r="N235">
+        <v>5</v>
+      </c>
+      <c r="O235" t="s">
+        <v>224</v>
+      </c>
+      <c r="P235" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q235">
+        <v>2.75</v>
+      </c>
+      <c r="R235">
+        <v>2.2</v>
+      </c>
+      <c r="S235">
+        <v>3.75</v>
+      </c>
+      <c r="T235">
+        <v>1.38</v>
+      </c>
+      <c r="U235">
+        <v>2.8</v>
+      </c>
+      <c r="V235">
+        <v>2.8</v>
+      </c>
+      <c r="W235">
+        <v>1.38</v>
+      </c>
+      <c r="X235">
+        <v>6.4</v>
+      </c>
+      <c r="Y235">
+        <v>1.08</v>
+      </c>
+      <c r="Z235">
+        <v>2.19</v>
+      </c>
+      <c r="AA235">
+        <v>3.4</v>
+      </c>
+      <c r="AB235">
+        <v>3.05</v>
+      </c>
+      <c r="AC235">
+        <v>1.05</v>
+      </c>
+      <c r="AD235">
+        <v>8.5</v>
+      </c>
+      <c r="AE235">
+        <v>1.29</v>
+      </c>
+      <c r="AF235">
+        <v>3.3</v>
+      </c>
+      <c r="AG235">
+        <v>1.85</v>
+      </c>
+      <c r="AH235">
+        <v>1.75</v>
+      </c>
+      <c r="AI235">
+        <v>1.7</v>
+      </c>
+      <c r="AJ235">
+        <v>1.95</v>
+      </c>
+      <c r="AK235">
+        <v>1.35</v>
+      </c>
+      <c r="AL235">
+        <v>1.25</v>
+      </c>
+      <c r="AM235">
+        <v>1.62</v>
+      </c>
+      <c r="AN235">
+        <v>1.18</v>
+      </c>
+      <c r="AO235">
+        <v>1.35</v>
+      </c>
+      <c r="AP235">
+        <v>1.28</v>
+      </c>
+      <c r="AQ235">
+        <v>1.28</v>
+      </c>
+      <c r="AR235">
+        <v>1.35</v>
+      </c>
+      <c r="AS235">
+        <v>1.21</v>
+      </c>
+      <c r="AT235">
+        <v>2.56</v>
+      </c>
+      <c r="AU235">
+        <v>5</v>
+      </c>
+      <c r="AV235">
+        <v>3</v>
+      </c>
+      <c r="AW235">
+        <v>11</v>
+      </c>
+      <c r="AX235">
+        <v>8</v>
+      </c>
+      <c r="AY235">
+        <v>17</v>
+      </c>
+      <c r="AZ235">
+        <v>15</v>
+      </c>
+      <c r="BA235">
+        <v>2</v>
+      </c>
+      <c r="BB235">
+        <v>6</v>
+      </c>
+      <c r="BC235">
+        <v>8</v>
+      </c>
+      <c r="BD235">
+        <v>1.68</v>
+      </c>
+      <c r="BE235">
+        <v>6.4</v>
+      </c>
+      <c r="BF235">
+        <v>2.48</v>
+      </c>
+      <c r="BG235">
+        <v>1.54</v>
+      </c>
+      <c r="BH235">
+        <v>2.41</v>
+      </c>
+      <c r="BI235">
+        <v>1.85</v>
+      </c>
+      <c r="BJ235">
+        <v>1.85</v>
+      </c>
+      <c r="BK235">
+        <v>2.46</v>
+      </c>
+      <c r="BL235">
+        <v>1.52</v>
+      </c>
+      <c r="BM235">
+        <v>2.85</v>
+      </c>
+      <c r="BN235">
+        <v>1.32</v>
+      </c>
+      <c r="BO235">
+        <v>3.8</v>
+      </c>
+      <c r="BP235">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7857001</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45799.5</v>
+      </c>
+      <c r="F236">
+        <v>10</v>
+      </c>
+      <c r="G236" t="s">
+        <v>76</v>
+      </c>
+      <c r="H236" t="s">
+        <v>78</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" t="s">
+        <v>108</v>
+      </c>
+      <c r="P236" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q236">
+        <v>2.75</v>
+      </c>
+      <c r="R236">
+        <v>2.2</v>
+      </c>
+      <c r="S236">
+        <v>3.75</v>
+      </c>
+      <c r="T236">
+        <v>1.4</v>
+      </c>
+      <c r="U236">
+        <v>2.7</v>
+      </c>
+      <c r="V236">
+        <v>2.88</v>
+      </c>
+      <c r="W236">
+        <v>1.36</v>
+      </c>
+      <c r="X236">
+        <v>7</v>
+      </c>
+      <c r="Y236">
+        <v>1.07</v>
+      </c>
+      <c r="Z236">
+        <v>2.18</v>
+      </c>
+      <c r="AA236">
+        <v>3.35</v>
+      </c>
+      <c r="AB236">
+        <v>3.05</v>
+      </c>
+      <c r="AC236">
+        <v>1.06</v>
+      </c>
+      <c r="AD236">
+        <v>8</v>
+      </c>
+      <c r="AE236">
+        <v>1.33</v>
+      </c>
+      <c r="AF236">
+        <v>3.1</v>
+      </c>
+      <c r="AG236">
+        <v>1.85</v>
+      </c>
+      <c r="AH236">
+        <v>1.75</v>
+      </c>
+      <c r="AI236">
+        <v>1.77</v>
+      </c>
+      <c r="AJ236">
+        <v>1.85</v>
+      </c>
+      <c r="AK236">
+        <v>1.33</v>
+      </c>
+      <c r="AL236">
+        <v>1.25</v>
+      </c>
+      <c r="AM236">
+        <v>1.67</v>
+      </c>
+      <c r="AN236">
+        <v>1.18</v>
+      </c>
+      <c r="AO236">
+        <v>0.76</v>
+      </c>
+      <c r="AP236">
+        <v>1.28</v>
+      </c>
+      <c r="AQ236">
+        <v>0.72</v>
+      </c>
+      <c r="AR236">
+        <v>1.22</v>
+      </c>
+      <c r="AS236">
+        <v>1.21</v>
+      </c>
+      <c r="AT236">
+        <v>2.43</v>
+      </c>
+      <c r="AU236">
+        <v>5</v>
+      </c>
+      <c r="AV236">
+        <v>4</v>
+      </c>
+      <c r="AW236">
+        <v>13</v>
+      </c>
+      <c r="AX236">
+        <v>4</v>
+      </c>
+      <c r="AY236">
+        <v>23</v>
+      </c>
+      <c r="AZ236">
+        <v>8</v>
+      </c>
+      <c r="BA236">
+        <v>9</v>
+      </c>
+      <c r="BB236">
+        <v>1</v>
+      </c>
+      <c r="BC236">
+        <v>10</v>
+      </c>
+      <c r="BD236">
+        <v>1.97</v>
+      </c>
+      <c r="BE236">
+        <v>6.15</v>
+      </c>
+      <c r="BF236">
+        <v>2.36</v>
+      </c>
+      <c r="BG236">
+        <v>1.46</v>
+      </c>
+      <c r="BH236">
+        <v>2.61</v>
+      </c>
+      <c r="BI236">
+        <v>1.77</v>
+      </c>
+      <c r="BJ236">
+        <v>1.95</v>
+      </c>
+      <c r="BK236">
+        <v>2.27</v>
+      </c>
+      <c r="BL236">
+        <v>1.6</v>
+      </c>
+      <c r="BM236">
+        <v>3.05</v>
+      </c>
+      <c r="BN236">
+        <v>1.28</v>
+      </c>
+      <c r="BO236">
+        <v>3.6</v>
+      </c>
+      <c r="BP236">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -691,6 +691,9 @@
     <t>['27', '47', '54']</t>
   </si>
   <si>
+    <t>['12', '54', '59']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -1362,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP236"/>
+  <dimension ref="A1:BP237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1621,7 +1624,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1827,7 +1830,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -2445,7 +2448,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2857,7 +2860,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2938,7 +2941,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ8">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3269,7 +3272,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3475,7 +3478,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3556,7 +3559,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ11">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR11">
         <v>2.01</v>
@@ -4505,7 +4508,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4711,7 +4714,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -5123,7 +5126,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5329,7 +5332,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5535,7 +5538,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5741,7 +5744,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5819,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ22">
         <v>1.44</v>
@@ -6153,7 +6156,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6359,7 +6362,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6771,7 +6774,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7389,7 +7392,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7801,7 +7804,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -8213,7 +8216,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8419,7 +8422,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8500,7 +8503,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ35">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR35">
         <v>1.08</v>
@@ -8703,7 +8706,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ36">
         <v>1.44</v>
@@ -9037,7 +9040,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -9243,7 +9246,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -10067,7 +10070,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10273,7 +10276,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10766,7 +10769,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ46">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR46">
         <v>1.16</v>
@@ -10891,7 +10894,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11097,7 +11100,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -11175,7 +11178,7 @@
         <v>1.67</v>
       </c>
       <c r="AP48">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ48">
         <v>1.38</v>
@@ -11303,7 +11306,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11921,7 +11924,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -12333,7 +12336,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12951,7 +12954,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13157,7 +13160,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13363,7 +13366,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13444,7 +13447,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ59">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR59">
         <v>0.99</v>
@@ -13981,7 +13984,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14187,7 +14190,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -14393,7 +14396,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14471,7 +14474,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ64">
         <v>1.81</v>
@@ -14883,7 +14886,7 @@
         <v>1.75</v>
       </c>
       <c r="AP66">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ66">
         <v>1.39</v>
@@ -15011,7 +15014,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -15423,7 +15426,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15629,7 +15632,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -16247,7 +16250,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16659,7 +16662,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16865,7 +16868,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17152,7 +17155,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ77">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR77">
         <v>1.69</v>
@@ -17277,7 +17280,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17483,7 +17486,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17561,7 +17564,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ79">
         <v>0.72</v>
@@ -17689,7 +17692,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18101,7 +18104,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -18307,7 +18310,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -19006,7 +19009,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ86">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR86">
         <v>1.38</v>
@@ -19131,7 +19134,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19749,7 +19752,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19955,7 +19958,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -20161,7 +20164,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -20573,7 +20576,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20779,7 +20782,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20985,7 +20988,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -21397,7 +21400,7 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21603,7 +21606,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21681,7 +21684,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ99">
         <v>1.5</v>
@@ -23123,7 +23126,7 @@
         <v>1.86</v>
       </c>
       <c r="AP106">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ106">
         <v>2.19</v>
@@ -23332,7 +23335,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ107">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR107">
         <v>1.96</v>
@@ -24075,7 +24078,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q111">
         <v>1.57</v>
@@ -24281,7 +24284,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24771,10 +24774,10 @@
         <v>0.75</v>
       </c>
       <c r="AP114">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ114">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR114">
         <v>1.39</v>
@@ -25105,7 +25108,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25311,7 +25314,7 @@
         <v>159</v>
       </c>
       <c r="P117" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q117">
         <v>8.5</v>
@@ -25517,7 +25520,7 @@
         <v>84</v>
       </c>
       <c r="P118" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25723,7 +25726,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25929,7 +25932,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -26341,7 +26344,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -26547,7 +26550,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q123">
         <v>4.33</v>
@@ -26753,7 +26756,7 @@
         <v>163</v>
       </c>
       <c r="P124" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q124">
         <v>1.62</v>
@@ -27655,7 +27658,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ128">
         <v>1.28</v>
@@ -27783,7 +27786,7 @@
         <v>108</v>
       </c>
       <c r="P129" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -27989,7 +27992,7 @@
         <v>104</v>
       </c>
       <c r="P130" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28894,7 +28897,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ134">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR134">
         <v>1.25</v>
@@ -29019,7 +29022,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q135">
         <v>3.75</v>
@@ -29225,7 +29228,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29843,7 +29846,7 @@
         <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -30461,7 +30464,7 @@
         <v>172</v>
       </c>
       <c r="P142" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30667,7 +30670,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q143">
         <v>3.25</v>
@@ -31157,7 +31160,7 @@
         <v>1.1</v>
       </c>
       <c r="AP145">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ145">
         <v>1.25</v>
@@ -31285,7 +31288,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31778,7 +31781,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ148">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR148">
         <v>1.44</v>
@@ -32109,7 +32112,7 @@
         <v>84</v>
       </c>
       <c r="P150" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q150">
         <v>5.5</v>
@@ -32315,7 +32318,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q151">
         <v>1.8</v>
@@ -32933,7 +32936,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33139,7 +33142,7 @@
         <v>147</v>
       </c>
       <c r="P155" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33757,7 +33760,7 @@
         <v>178</v>
       </c>
       <c r="P158" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q158">
         <v>4.33</v>
@@ -33963,7 +33966,7 @@
         <v>179</v>
       </c>
       <c r="P159" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q159">
         <v>1.73</v>
@@ -34169,7 +34172,7 @@
         <v>84</v>
       </c>
       <c r="P160" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q160">
         <v>13</v>
@@ -34456,7 +34459,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ161">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR161">
         <v>1.7</v>
@@ -34787,7 +34790,7 @@
         <v>182</v>
       </c>
       <c r="P163" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34865,7 +34868,7 @@
         <v>1.36</v>
       </c>
       <c r="AP163">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ163">
         <v>1.19</v>
@@ -35199,7 +35202,7 @@
         <v>184</v>
       </c>
       <c r="P165" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35405,7 +35408,7 @@
         <v>185</v>
       </c>
       <c r="P166" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q166">
         <v>2.2</v>
@@ -35611,7 +35614,7 @@
         <v>186</v>
       </c>
       <c r="P167" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -35817,7 +35820,7 @@
         <v>84</v>
       </c>
       <c r="P168" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -36023,7 +36026,7 @@
         <v>187</v>
       </c>
       <c r="P169" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36229,7 +36232,7 @@
         <v>188</v>
       </c>
       <c r="P170" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q170">
         <v>4</v>
@@ -36435,7 +36438,7 @@
         <v>189</v>
       </c>
       <c r="P171" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -36847,7 +36850,7 @@
         <v>122</v>
       </c>
       <c r="P173" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q173">
         <v>3.6</v>
@@ -37134,7 +37137,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ174">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR174">
         <v>1.42</v>
@@ -37465,7 +37468,7 @@
         <v>84</v>
       </c>
       <c r="P176" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -38289,7 +38292,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q180">
         <v>6.5</v>
@@ -38367,7 +38370,7 @@
         <v>2.17</v>
       </c>
       <c r="AP180">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ180">
         <v>1.81</v>
@@ -38701,7 +38704,7 @@
         <v>196</v>
       </c>
       <c r="P182" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -38907,7 +38910,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -39113,7 +39116,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39397,7 +39400,7 @@
         <v>1.23</v>
       </c>
       <c r="AP185">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ185">
         <v>1.28</v>
@@ -39525,7 +39528,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q186">
         <v>3.6</v>
@@ -39731,7 +39734,7 @@
         <v>200</v>
       </c>
       <c r="P187" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q187">
         <v>3.5</v>
@@ -39937,7 +39940,7 @@
         <v>113</v>
       </c>
       <c r="P188" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q188">
         <v>2.63</v>
@@ -40018,7 +40021,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ188">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR188">
         <v>1.32</v>
@@ -40143,7 +40146,7 @@
         <v>201</v>
       </c>
       <c r="P189" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40349,7 +40352,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q190">
         <v>2.38</v>
@@ -40967,7 +40970,7 @@
         <v>84</v>
       </c>
       <c r="P193" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q193">
         <v>4.75</v>
@@ -41585,7 +41588,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q196">
         <v>3.5</v>
@@ -42078,7 +42081,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ198">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR198">
         <v>1.19</v>
@@ -42821,7 +42824,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q202">
         <v>3</v>
@@ -43645,7 +43648,7 @@
         <v>200</v>
       </c>
       <c r="P206" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q206">
         <v>7.5</v>
@@ -43851,7 +43854,7 @@
         <v>84</v>
       </c>
       <c r="P207" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -43929,7 +43932,7 @@
         <v>1.2</v>
       </c>
       <c r="AP207">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ207">
         <v>1.5</v>
@@ -44057,7 +44060,7 @@
         <v>84</v>
       </c>
       <c r="P208" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q208">
         <v>3.25</v>
@@ -44263,7 +44266,7 @@
         <v>134</v>
       </c>
       <c r="P209" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q209">
         <v>3.6</v>
@@ -44469,7 +44472,7 @@
         <v>84</v>
       </c>
       <c r="P210" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q210">
         <v>3.1</v>
@@ -44675,7 +44678,7 @@
         <v>211</v>
       </c>
       <c r="P211" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q211">
         <v>2.6</v>
@@ -44962,7 +44965,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ212">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR212">
         <v>1.28</v>
@@ -45499,7 +45502,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45705,7 +45708,7 @@
         <v>214</v>
       </c>
       <c r="P216" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -45911,7 +45914,7 @@
         <v>194</v>
       </c>
       <c r="P217" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q217">
         <v>2.75</v>
@@ -46117,7 +46120,7 @@
         <v>215</v>
       </c>
       <c r="P218" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46607,7 +46610,7 @@
         <v>1.2</v>
       </c>
       <c r="AP220">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ220">
         <v>1.39</v>
@@ -46735,7 +46738,7 @@
         <v>217</v>
       </c>
       <c r="P221" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -47147,7 +47150,7 @@
         <v>219</v>
       </c>
       <c r="P223" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q223">
         <v>2.85</v>
@@ -47353,7 +47356,7 @@
         <v>220</v>
       </c>
       <c r="P224" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q224">
         <v>2.3</v>
@@ -47765,7 +47768,7 @@
         <v>84</v>
       </c>
       <c r="P226" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q226">
         <v>4.8</v>
@@ -48383,7 +48386,7 @@
         <v>173</v>
       </c>
       <c r="P229" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q229">
         <v>2.38</v>
@@ -48667,7 +48670,7 @@
         <v>0.75</v>
       </c>
       <c r="AP230">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ230">
         <v>0.72</v>
@@ -48876,7 +48879,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ231">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR231">
         <v>1.29</v>
@@ -49207,7 +49210,7 @@
         <v>104</v>
       </c>
       <c r="P233" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q233">
         <v>3.85</v>
@@ -49413,7 +49416,7 @@
         <v>84</v>
       </c>
       <c r="P234" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q234">
         <v>2.7</v>
@@ -49619,7 +49622,7 @@
         <v>224</v>
       </c>
       <c r="P235" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q235">
         <v>2.75</v>
@@ -49982,6 +49985,212 @@
       </c>
       <c r="BP236">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7856999</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45799.58333333334</v>
+      </c>
+      <c r="F237">
+        <v>10</v>
+      </c>
+      <c r="G237" t="s">
+        <v>83</v>
+      </c>
+      <c r="H237" t="s">
+        <v>81</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>3</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>3</v>
+      </c>
+      <c r="O237" t="s">
+        <v>225</v>
+      </c>
+      <c r="P237" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q237">
+        <v>1.91</v>
+      </c>
+      <c r="R237">
+        <v>2.38</v>
+      </c>
+      <c r="S237">
+        <v>7.5</v>
+      </c>
+      <c r="T237">
+        <v>1.33</v>
+      </c>
+      <c r="U237">
+        <v>2.93</v>
+      </c>
+      <c r="V237">
+        <v>2.67</v>
+      </c>
+      <c r="W237">
+        <v>1.39</v>
+      </c>
+      <c r="X237">
+        <v>7.1</v>
+      </c>
+      <c r="Y237">
+        <v>1.04</v>
+      </c>
+      <c r="Z237">
+        <v>1.51</v>
+      </c>
+      <c r="AA237">
+        <v>4</v>
+      </c>
+      <c r="AB237">
+        <v>6</v>
+      </c>
+      <c r="AC237">
+        <v>1.01</v>
+      </c>
+      <c r="AD237">
+        <v>11</v>
+      </c>
+      <c r="AE237">
+        <v>1.2</v>
+      </c>
+      <c r="AF237">
+        <v>4</v>
+      </c>
+      <c r="AG237">
+        <v>1.8</v>
+      </c>
+      <c r="AH237">
+        <v>1.85</v>
+      </c>
+      <c r="AI237">
+        <v>2.02</v>
+      </c>
+      <c r="AJ237">
+        <v>1.75</v>
+      </c>
+      <c r="AK237">
+        <v>1.08</v>
+      </c>
+      <c r="AL237">
+        <v>1.21</v>
+      </c>
+      <c r="AM237">
+        <v>2.86</v>
+      </c>
+      <c r="AN237">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO237">
+        <v>0.47</v>
+      </c>
+      <c r="AP237">
+        <v>1.06</v>
+      </c>
+      <c r="AQ237">
+        <v>0.44</v>
+      </c>
+      <c r="AR237">
+        <v>1.47</v>
+      </c>
+      <c r="AS237">
+        <v>0.95</v>
+      </c>
+      <c r="AT237">
+        <v>2.42</v>
+      </c>
+      <c r="AU237">
+        <v>5</v>
+      </c>
+      <c r="AV237">
+        <v>3</v>
+      </c>
+      <c r="AW237">
+        <v>2</v>
+      </c>
+      <c r="AX237">
+        <v>8</v>
+      </c>
+      <c r="AY237">
+        <v>9</v>
+      </c>
+      <c r="AZ237">
+        <v>12</v>
+      </c>
+      <c r="BA237">
+        <v>1</v>
+      </c>
+      <c r="BB237">
+        <v>4</v>
+      </c>
+      <c r="BC237">
+        <v>5</v>
+      </c>
+      <c r="BD237">
+        <v>1.28</v>
+      </c>
+      <c r="BE237">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF237">
+        <v>4.75</v>
+      </c>
+      <c r="BG237">
+        <v>1.36</v>
+      </c>
+      <c r="BH237">
+        <v>2.78</v>
+      </c>
+      <c r="BI237">
+        <v>1.69</v>
+      </c>
+      <c r="BJ237">
+        <v>2.04</v>
+      </c>
+      <c r="BK237">
+        <v>2.14</v>
+      </c>
+      <c r="BL237">
+        <v>1.6</v>
+      </c>
+      <c r="BM237">
+        <v>2.83</v>
+      </c>
+      <c r="BN237">
+        <v>1.33</v>
+      </c>
+      <c r="BO237">
+        <v>3.8</v>
+      </c>
+      <c r="BP237">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>
